--- a/AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/AFL_ML/Data/Hawthorn_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JW102"/>
+  <dimension ref="A1:JX102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1273,6 +1273,9 @@
       <c r="JW1" t="n">
         <v>10758</v>
       </c>
+      <c r="JX1" t="n">
+        <v>10766</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2126,6 +2129,9 @@
       <c r="JW2" t="n">
         <v>2023</v>
       </c>
+      <c r="JX2" t="n">
+        <v>2023</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2979,6 +2985,9 @@
       <c r="JW3" t="n">
         <v>1</v>
       </c>
+      <c r="JX3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3832,6 +3841,9 @@
       <c r="JW4" t="n">
         <v>0</v>
       </c>
+      <c r="JX4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4685,6 +4697,9 @@
       <c r="JW5" t="n">
         <v>1</v>
       </c>
+      <c r="JX5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5538,6 +5553,9 @@
       <c r="JW6" t="n">
         <v>65</v>
       </c>
+      <c r="JX6" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6391,6 +6409,9 @@
       <c r="JW7" t="n">
         <v>124</v>
       </c>
+      <c r="JX7" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7244,6 +7265,9 @@
       <c r="JW8" t="n">
         <v>-59</v>
       </c>
+      <c r="JX8" t="n">
+        <v>-81</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8097,6 +8121,9 @@
       <c r="JW9" t="n">
         <v>0</v>
       </c>
+      <c r="JX9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8950,6 +8977,9 @@
       <c r="JW10" t="n">
         <v>5</v>
       </c>
+      <c r="JX10" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9803,6 +9833,9 @@
       <c r="JW11" t="n">
         <v>224</v>
       </c>
+      <c r="JX11" t="n">
+        <v>206</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10656,6 +10689,9 @@
       <c r="JW12" t="n">
         <v>146</v>
       </c>
+      <c r="JX12" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11509,6 +11545,9 @@
       <c r="JW13" t="n">
         <v>370</v>
       </c>
+      <c r="JX13" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -12362,6 +12401,9 @@
       <c r="JW14" t="n">
         <v>1.53</v>
       </c>
+      <c r="JX14" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -13215,6 +13257,9 @@
       <c r="JW15" t="n">
         <v>124</v>
       </c>
+      <c r="JX15" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -14068,6 +14113,9 @@
       <c r="JW16" t="n">
         <v>43</v>
       </c>
+      <c r="JX16" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14921,6 +14969,9 @@
       <c r="JW17" t="n">
         <v>30</v>
       </c>
+      <c r="JX17" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15774,6 +15825,9 @@
       <c r="JW18" t="n">
         <v>17</v>
       </c>
+      <c r="JX18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -16627,6 +16681,9 @@
       <c r="JW19" t="n">
         <v>16</v>
       </c>
+      <c r="JX19" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -17480,6 +17537,9 @@
       <c r="JW20" t="n">
         <v>9</v>
       </c>
+      <c r="JX20" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18333,6 +18393,9 @@
       <c r="JW21" t="n">
         <v>6</v>
       </c>
+      <c r="JX21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -19186,6 +19249,9 @@
       <c r="JW22" t="n">
         <v>8</v>
       </c>
+      <c r="JX22" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -20039,6 +20105,9 @@
       <c r="JW23" t="n">
         <v>3</v>
       </c>
+      <c r="JX23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -20892,6 +20961,9 @@
       <c r="JW24" t="n">
         <v>20</v>
       </c>
+      <c r="JX24" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -21745,6 +21817,9 @@
       <c r="JW25" t="n">
         <v>45</v>
       </c>
+      <c r="JX25" t="n">
+        <v>23.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -22598,6 +22673,9 @@
       <c r="JW26" t="n">
         <v>41.11</v>
       </c>
+      <c r="JX26" t="n">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -23451,6 +23529,9 @@
       <c r="JW27" t="n">
         <v>18.5</v>
       </c>
+      <c r="JX27" t="n">
+        <v>20.59</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -24304,6 +24385,9 @@
       <c r="JW28" t="n">
         <v>26</v>
       </c>
+      <c r="JX28" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -25157,6 +25241,9 @@
       <c r="JW29" t="n">
         <v>54</v>
       </c>
+      <c r="JX29" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -26010,6 +26097,9 @@
       <c r="JW30" t="n">
         <v>45</v>
       </c>
+      <c r="JX30" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -26863,6 +26953,9 @@
       <c r="JW31" t="n">
         <v>49</v>
       </c>
+      <c r="JX31" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -27716,6 +27809,9 @@
       <c r="JW32" t="n">
         <v>2.45</v>
       </c>
+      <c r="JX32" t="n">
+        <v>2.47</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -28569,6 +28665,9 @@
       <c r="JW33" t="n">
         <v>5.44</v>
       </c>
+      <c r="JX33" t="n">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -29422,6 +29521,9 @@
       <c r="JW34" t="n">
         <v>34.7</v>
       </c>
+      <c r="JX34" t="n">
+        <v>40.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -30275,6 +30377,9 @@
       <c r="JW35" t="n">
         <v>18.4</v>
       </c>
+      <c r="JX35" t="n">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -31128,6 +31233,9 @@
       <c r="JW36" t="n">
         <v>188.2</v>
       </c>
+      <c r="JX36" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -31981,6 +32089,9 @@
       <c r="JW37" t="n">
         <v>86</v>
       </c>
+      <c r="JX37" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -32834,6 +32945,9 @@
       <c r="JW38" t="n">
         <v>24.58</v>
       </c>
+      <c r="JX38" t="n">
+        <v>24.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -33687,6 +33801,9 @@
       <c r="JW39" t="n">
         <v>68.5</v>
       </c>
+      <c r="JX39" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -34540,6 +34657,9 @@
       <c r="JW40" t="n">
         <v>13</v>
       </c>
+      <c r="JX40" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -35393,6 +35513,9 @@
       <c r="JW41" t="n">
         <v>3</v>
       </c>
+      <c r="JX41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -36246,6 +36369,9 @@
       <c r="JW42" t="n">
         <v>4</v>
       </c>
+      <c r="JX42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -37099,6 +37225,9 @@
       <c r="JW43" t="n">
         <v>3</v>
       </c>
+      <c r="JX43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -37952,6 +38081,9 @@
       <c r="JW44" t="n">
         <v>114</v>
       </c>
+      <c r="JX44" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -38805,6 +38937,9 @@
       <c r="JW45" t="n">
         <v>254</v>
       </c>
+      <c r="JX45" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -39658,6 +39793,9 @@
       <c r="JW46" t="n">
         <v>273</v>
       </c>
+      <c r="JX46" t="n">
+        <v>249</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -40511,6 +40649,9 @@
       <c r="JW47" t="n">
         <v>73.8</v>
       </c>
+      <c r="JX47" t="n">
+        <v>71.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -41364,6 +41505,9 @@
       <c r="JW48" t="n">
         <v>54</v>
       </c>
+      <c r="JX48" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -42217,6 +42361,9 @@
       <c r="JW49" t="n">
         <v>9</v>
       </c>
+      <c r="JX49" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -43070,6 +43217,9 @@
       <c r="JW50" t="n">
         <v>8</v>
       </c>
+      <c r="JX50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -43923,6 +44073,9 @@
       <c r="JW51" t="n">
         <v>26</v>
       </c>
+      <c r="JX51" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -44776,6 +44929,9 @@
       <c r="JW52" t="n">
         <v>45</v>
       </c>
+      <c r="JX52" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -45629,6 +45785,9 @@
       <c r="JW53" t="n">
         <v>34</v>
       </c>
+      <c r="JX53" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -46482,6 +46641,9 @@
       <c r="JW54" t="n">
         <v>11</v>
       </c>
+      <c r="JX54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -47335,6 +47497,9 @@
       <c r="JW55" t="n">
         <v>6</v>
       </c>
+      <c r="JX55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -48188,6 +48353,9 @@
       <c r="JW56" t="n">
         <v>66.7</v>
       </c>
+      <c r="JX56" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -49041,6 +49209,9 @@
       <c r="JW57" t="n">
         <v>255</v>
       </c>
+      <c r="JX57" t="n">
+        <v>225</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -49894,6 +50065,9 @@
       <c r="JW58" t="n">
         <v>159</v>
       </c>
+      <c r="JX58" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -50747,6 +50921,9 @@
       <c r="JW59" t="n">
         <v>414</v>
       </c>
+      <c r="JX59" t="n">
+        <v>372</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -51600,6 +51777,9 @@
       <c r="JW60" t="n">
         <v>1.6</v>
       </c>
+      <c r="JX60" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -52453,6 +52633,9 @@
       <c r="JW61" t="n">
         <v>131</v>
       </c>
+      <c r="JX61" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -53306,6 +53489,9 @@
       <c r="JW62" t="n">
         <v>37</v>
       </c>
+      <c r="JX62" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -54159,6 +54345,9 @@
       <c r="JW63" t="n">
         <v>20</v>
       </c>
+      <c r="JX63" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -55012,6 +55201,9 @@
       <c r="JW64" t="n">
         <v>16</v>
       </c>
+      <c r="JX64" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -55865,6 +56057,9 @@
       <c r="JW65" t="n">
         <v>17</v>
       </c>
+      <c r="JX65" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -56718,6 +56913,9 @@
       <c r="JW66" t="n">
         <v>19</v>
       </c>
+      <c r="JX66" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -57571,6 +57769,9 @@
       <c r="JW67" t="n">
         <v>15</v>
       </c>
+      <c r="JX67" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -58424,6 +58625,9 @@
       <c r="JW68" t="n">
         <v>9</v>
       </c>
+      <c r="JX68" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -59277,6 +59481,9 @@
       <c r="JW69" t="n">
         <v>1</v>
       </c>
+      <c r="JX69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -60130,6 +60337,9 @@
       <c r="JW70" t="n">
         <v>29</v>
       </c>
+      <c r="JX70" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -60983,6 +61193,9 @@
       <c r="JW71" t="n">
         <v>65.5</v>
       </c>
+      <c r="JX71" t="n">
+        <v>51.5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -61836,6 +62049,9 @@
       <c r="JW72" t="n">
         <v>21.79</v>
       </c>
+      <c r="JX72" t="n">
+        <v>21.88</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -62689,6 +62905,9 @@
       <c r="JW73" t="n">
         <v>14.28</v>
       </c>
+      <c r="JX73" t="n">
+        <v>11.27</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -63542,6 +63761,9 @@
       <c r="JW74" t="n">
         <v>32</v>
       </c>
+      <c r="JX74" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -64395,6 +64617,9 @@
       <c r="JW75" t="n">
         <v>50</v>
       </c>
+      <c r="JX75" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -65248,6 +65473,9 @@
       <c r="JW76" t="n">
         <v>40</v>
       </c>
+      <c r="JX76" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -66101,6 +66329,9 @@
       <c r="JW77" t="n">
         <v>66</v>
       </c>
+      <c r="JX77" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -66954,6 +67185,9 @@
       <c r="JW78" t="n">
         <v>2.28</v>
       </c>
+      <c r="JX78" t="n">
+        <v>1.76</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -67807,6 +68041,9 @@
       <c r="JW79" t="n">
         <v>3.47</v>
       </c>
+      <c r="JX79" t="n">
+        <v>3.41</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -68660,6 +68897,9 @@
       <c r="JW80" t="n">
         <v>42.4</v>
       </c>
+      <c r="JX80" t="n">
+        <v>55.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -69513,6 +69753,9 @@
       <c r="JW81" t="n">
         <v>28.8</v>
       </c>
+      <c r="JX81" t="n">
+        <v>29.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -70366,6 +70609,9 @@
       <c r="JW82" t="n">
         <v>188.3</v>
       </c>
+      <c r="JX82" t="n">
+        <v>187.2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -71219,6 +71465,9 @@
       <c r="JW83" t="n">
         <v>87</v>
       </c>
+      <c r="JX83" t="n">
+        <v>86.59999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -72072,6 +72321,9 @@
       <c r="JW84" t="n">
         <v>25.24</v>
       </c>
+      <c r="JX84" t="n">
+        <v>24.74</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -72925,6 +73177,9 @@
       <c r="JW85" t="n">
         <v>81</v>
       </c>
+      <c r="JX85" t="n">
+        <v>93.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -73778,6 +74033,9 @@
       <c r="JW86" t="n">
         <v>9</v>
       </c>
+      <c r="JX86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -74631,6 +74889,9 @@
       <c r="JW87" t="n">
         <v>6</v>
       </c>
+      <c r="JX87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -75484,6 +75745,9 @@
       <c r="JW88" t="n">
         <v>5</v>
       </c>
+      <c r="JX88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -76337,6 +76601,9 @@
       <c r="JW89" t="n">
         <v>3</v>
       </c>
+      <c r="JX89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -77190,6 +77457,9 @@
       <c r="JW90" t="n">
         <v>128</v>
       </c>
+      <c r="JX90" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -78043,6 +78313,9 @@
       <c r="JW91" t="n">
         <v>282</v>
       </c>
+      <c r="JX91" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -78896,6 +79169,9 @@
       <c r="JW92" t="n">
         <v>322</v>
       </c>
+      <c r="JX92" t="n">
+        <v>282</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -79749,6 +80025,9 @@
       <c r="JW93" t="n">
         <v>77.8</v>
       </c>
+      <c r="JX93" t="n">
+        <v>75.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -80602,6 +80881,9 @@
       <c r="JW94" t="n">
         <v>50</v>
       </c>
+      <c r="JX94" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -81455,6 +81737,9 @@
       <c r="JW95" t="n">
         <v>11</v>
       </c>
+      <c r="JX95" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -82308,6 +82593,9 @@
       <c r="JW96" t="n">
         <v>16</v>
       </c>
+      <c r="JX96" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -83161,6 +83449,9 @@
       <c r="JW97" t="n">
         <v>32</v>
       </c>
+      <c r="JX97" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -84014,6 +84305,9 @@
       <c r="JW98" t="n">
         <v>40</v>
       </c>
+      <c r="JX98" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -84867,6 +85161,9 @@
       <c r="JW99" t="n">
         <v>40</v>
       </c>
+      <c r="JX99" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -85720,6 +86017,9 @@
       <c r="JW100" t="n">
         <v>8</v>
       </c>
+      <c r="JX100" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -86573,6 +86873,9 @@
       <c r="JW101" t="n">
         <v>15</v>
       </c>
+      <c r="JX101" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -87426,6 +87729,9 @@
       <c r="JW102" t="n">
         <v>78.90000000000001</v>
       </c>
+      <c r="JX102" t="n">
+        <v>82.40000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/AFL_ML/Data/Hawthorn_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JX102"/>
+  <dimension ref="A1:JY102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1276,6 +1276,9 @@
       <c r="JX1" t="n">
         <v>10766</v>
       </c>
+      <c r="JY1" t="n">
+        <v>10771</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2132,6 +2135,9 @@
       <c r="JX2" t="n">
         <v>2023</v>
       </c>
+      <c r="JY2" t="n">
+        <v>2023</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2988,6 +2994,9 @@
       <c r="JX3" t="n">
         <v>2</v>
       </c>
+      <c r="JY3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3844,6 +3853,9 @@
       <c r="JX4" t="n">
         <v>1</v>
       </c>
+      <c r="JY4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4700,6 +4712,9 @@
       <c r="JX5" t="n">
         <v>0</v>
       </c>
+      <c r="JY5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5556,6 +5571,9 @@
       <c r="JX6" t="n">
         <v>37</v>
       </c>
+      <c r="JY6" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6412,6 +6430,9 @@
       <c r="JX7" t="n">
         <v>118</v>
       </c>
+      <c r="JY7" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7268,6 +7289,9 @@
       <c r="JX8" t="n">
         <v>-81</v>
       </c>
+      <c r="JY8" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8124,6 +8148,9 @@
       <c r="JX9" t="n">
         <v>0</v>
       </c>
+      <c r="JY9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8980,6 +9007,9 @@
       <c r="JX10" t="n">
         <v>16</v>
       </c>
+      <c r="JY10" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9836,6 +9866,9 @@
       <c r="JX11" t="n">
         <v>206</v>
       </c>
+      <c r="JY11" t="n">
+        <v>275</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10692,6 +10725,9 @@
       <c r="JX12" t="n">
         <v>144</v>
       </c>
+      <c r="JY12" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11548,6 +11584,9 @@
       <c r="JX13" t="n">
         <v>350</v>
       </c>
+      <c r="JY13" t="n">
+        <v>424</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -12404,6 +12443,9 @@
       <c r="JX14" t="n">
         <v>1.43</v>
       </c>
+      <c r="JY14" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -13260,6 +13302,9 @@
       <c r="JX15" t="n">
         <v>85</v>
       </c>
+      <c r="JY15" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -14116,6 +14161,9 @@
       <c r="JX16" t="n">
         <v>57</v>
       </c>
+      <c r="JY16" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14972,6 +15020,9 @@
       <c r="JX17" t="n">
         <v>34</v>
       </c>
+      <c r="JY17" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15828,6 +15879,9 @@
       <c r="JX18" t="n">
         <v>17</v>
       </c>
+      <c r="JY18" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -16684,6 +16738,9 @@
       <c r="JX19" t="n">
         <v>19</v>
       </c>
+      <c r="JY19" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -17540,6 +17597,9 @@
       <c r="JX20" t="n">
         <v>4</v>
       </c>
+      <c r="JY20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18396,6 +18456,9 @@
       <c r="JX21" t="n">
         <v>3</v>
       </c>
+      <c r="JY21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -19252,6 +19315,9 @@
       <c r="JX22" t="n">
         <v>13</v>
       </c>
+      <c r="JY22" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -20108,6 +20174,9 @@
       <c r="JX23" t="n">
         <v>0</v>
       </c>
+      <c r="JY23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -20964,6 +21033,9 @@
       <c r="JX24" t="n">
         <v>17</v>
       </c>
+      <c r="JY24" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -21820,6 +21892,9 @@
       <c r="JX25" t="n">
         <v>23.5</v>
       </c>
+      <c r="JY25" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -22676,6 +22751,9 @@
       <c r="JX26" t="n">
         <v>87.5</v>
       </c>
+      <c r="JY26" t="n">
+        <v>38.55</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -23532,6 +23610,9 @@
       <c r="JX27" t="n">
         <v>20.59</v>
       </c>
+      <c r="JY27" t="n">
+        <v>16.96</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -24388,6 +24469,9 @@
       <c r="JX28" t="n">
         <v>35</v>
       </c>
+      <c r="JY28" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -25244,6 +25328,9 @@
       <c r="JX29" t="n">
         <v>56</v>
       </c>
+      <c r="JY29" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -26100,6 +26187,9 @@
       <c r="JX30" t="n">
         <v>41</v>
       </c>
+      <c r="JY30" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -26956,6 +27046,9 @@
       <c r="JX31" t="n">
         <v>42</v>
       </c>
+      <c r="JY31" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -27812,6 +27905,9 @@
       <c r="JX32" t="n">
         <v>2.47</v>
       </c>
+      <c r="JY32" t="n">
+        <v>2.24</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -28668,6 +28764,9 @@
       <c r="JX33" t="n">
         <v>10.5</v>
       </c>
+      <c r="JY33" t="n">
+        <v>5.09</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -29524,6 +29623,9 @@
       <c r="JX34" t="n">
         <v>40.5</v>
       </c>
+      <c r="JY34" t="n">
+        <v>42.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -30380,6 +30482,9 @@
       <c r="JX35" t="n">
         <v>9.5</v>
       </c>
+      <c r="JY35" t="n">
+        <v>19.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -31236,6 +31341,9 @@
       <c r="JX36" t="n">
         <v>188.3</v>
       </c>
+      <c r="JY36" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -32092,6 +32200,9 @@
       <c r="JX37" t="n">
         <v>85.7</v>
       </c>
+      <c r="JY37" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -32948,6 +33059,9 @@
       <c r="JX38" t="n">
         <v>24.24</v>
       </c>
+      <c r="JY38" t="n">
+        <v>24.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -33804,6 +33918,9 @@
       <c r="JX39" t="n">
         <v>61</v>
       </c>
+      <c r="JY39" t="n">
+        <v>66.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -34660,6 +34777,9 @@
       <c r="JX40" t="n">
         <v>14</v>
       </c>
+      <c r="JY40" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -35516,6 +35636,9 @@
       <c r="JX41" t="n">
         <v>3</v>
       </c>
+      <c r="JY41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -36372,6 +36495,9 @@
       <c r="JX42" t="n">
         <v>4</v>
       </c>
+      <c r="JY42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -37228,6 +37354,9 @@
       <c r="JX43" t="n">
         <v>2</v>
       </c>
+      <c r="JY43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -38084,6 +38213,9 @@
       <c r="JX44" t="n">
         <v>126</v>
       </c>
+      <c r="JY44" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -38940,6 +39072,9 @@
       <c r="JX45" t="n">
         <v>220</v>
       </c>
+      <c r="JY45" t="n">
+        <v>290</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -39796,6 +39931,9 @@
       <c r="JX46" t="n">
         <v>249</v>
       </c>
+      <c r="JY46" t="n">
+        <v>317</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -40652,6 +40790,9 @@
       <c r="JX47" t="n">
         <v>71.09999999999999</v>
       </c>
+      <c r="JY47" t="n">
+        <v>74.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -41508,6 +41649,9 @@
       <c r="JX48" t="n">
         <v>56</v>
       </c>
+      <c r="JY48" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -42364,6 +42508,9 @@
       <c r="JX49" t="n">
         <v>5</v>
       </c>
+      <c r="JY49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -43220,6 +43367,9 @@
       <c r="JX50" t="n">
         <v>9</v>
       </c>
+      <c r="JY50" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -44076,6 +44226,9 @@
       <c r="JX51" t="n">
         <v>35</v>
       </c>
+      <c r="JY51" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -44932,6 +45085,9 @@
       <c r="JX52" t="n">
         <v>41</v>
       </c>
+      <c r="JY52" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -45788,6 +45944,9 @@
       <c r="JX53" t="n">
         <v>43</v>
       </c>
+      <c r="JY53" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -46644,6 +46803,9 @@
       <c r="JX54" t="n">
         <v>5</v>
       </c>
+      <c r="JY54" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -47500,6 +47662,9 @@
       <c r="JX55" t="n">
         <v>3</v>
       </c>
+      <c r="JY55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -48356,6 +48521,9 @@
       <c r="JX56" t="n">
         <v>75</v>
       </c>
+      <c r="JY56" t="n">
+        <v>72.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -49212,6 +49380,9 @@
       <c r="JX57" t="n">
         <v>225</v>
       </c>
+      <c r="JY57" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -50068,6 +50239,9 @@
       <c r="JX58" t="n">
         <v>147</v>
       </c>
+      <c r="JY58" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -50924,6 +51098,9 @@
       <c r="JX59" t="n">
         <v>372</v>
       </c>
+      <c r="JY59" t="n">
+        <v>342</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -51780,6 +51957,9 @@
       <c r="JX60" t="n">
         <v>1.53</v>
       </c>
+      <c r="JY60" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -52636,6 +52816,9 @@
       <c r="JX61" t="n">
         <v>101</v>
       </c>
+      <c r="JY61" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -53492,6 +53675,9 @@
       <c r="JX62" t="n">
         <v>56</v>
       </c>
+      <c r="JY62" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -54348,6 +54534,9 @@
       <c r="JX63" t="n">
         <v>22</v>
       </c>
+      <c r="JY63" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -55204,6 +55393,9 @@
       <c r="JX64" t="n">
         <v>20</v>
       </c>
+      <c r="JY64" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -56060,6 +56252,9 @@
       <c r="JX65" t="n">
         <v>17</v>
       </c>
+      <c r="JY65" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -56916,6 +57111,9 @@
       <c r="JX66" t="n">
         <v>17</v>
       </c>
+      <c r="JY66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -57772,6 +57970,9 @@
       <c r="JX67" t="n">
         <v>14</v>
       </c>
+      <c r="JY67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -58628,6 +58829,9 @@
       <c r="JX68" t="n">
         <v>15</v>
       </c>
+      <c r="JY68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -59484,6 +59688,9 @@
       <c r="JX69" t="n">
         <v>1</v>
       </c>
+      <c r="JY69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -60340,6 +60547,9 @@
       <c r="JX70" t="n">
         <v>33</v>
       </c>
+      <c r="JY70" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -61196,6 +61406,9 @@
       <c r="JX71" t="n">
         <v>51.5</v>
       </c>
+      <c r="JY71" t="n">
+        <v>56.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -62052,6 +62265,9 @@
       <c r="JX72" t="n">
         <v>21.88</v>
       </c>
+      <c r="JY72" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -62908,6 +63124,9 @@
       <c r="JX73" t="n">
         <v>11.27</v>
       </c>
+      <c r="JY73" t="n">
+        <v>21.38</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -63764,6 +63983,9 @@
       <c r="JX74" t="n">
         <v>27</v>
       </c>
+      <c r="JY74" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -64620,6 +64842,9 @@
       <c r="JX75" t="n">
         <v>50</v>
       </c>
+      <c r="JY75" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -65476,6 +65701,9 @@
       <c r="JX76" t="n">
         <v>38</v>
       </c>
+      <c r="JY76" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -66332,6 +66560,9 @@
       <c r="JX77" t="n">
         <v>58</v>
       </c>
+      <c r="JY77" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -67188,6 +67419,9 @@
       <c r="JX78" t="n">
         <v>1.76</v>
       </c>
+      <c r="JY78" t="n">
+        <v>2.75</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -68044,6 +68278,9 @@
       <c r="JX79" t="n">
         <v>3.41</v>
       </c>
+      <c r="JY79" t="n">
+        <v>4.89</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -68900,6 +69137,9 @@
       <c r="JX80" t="n">
         <v>55.2</v>
       </c>
+      <c r="JY80" t="n">
+        <v>31.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -69756,6 +69996,9 @@
       <c r="JX81" t="n">
         <v>29.3</v>
       </c>
+      <c r="JY81" t="n">
+        <v>20.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -70612,6 +70855,9 @@
       <c r="JX82" t="n">
         <v>187.2</v>
       </c>
+      <c r="JY82" t="n">
+        <v>188.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -71468,6 +71714,9 @@
       <c r="JX83" t="n">
         <v>86.59999999999999</v>
       </c>
+      <c r="JY83" t="n">
+        <v>84.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -72324,6 +72573,9 @@
       <c r="JX84" t="n">
         <v>24.74</v>
       </c>
+      <c r="JY84" t="n">
+        <v>25.49</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -73180,6 +73432,9 @@
       <c r="JX85" t="n">
         <v>93.3</v>
       </c>
+      <c r="JY85" t="n">
+        <v>99.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -74036,6 +74291,9 @@
       <c r="JX86" t="n">
         <v>9</v>
       </c>
+      <c r="JY86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -74892,6 +75150,9 @@
       <c r="JX87" t="n">
         <v>5</v>
       </c>
+      <c r="JY87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -75748,6 +76009,9 @@
       <c r="JX88" t="n">
         <v>4</v>
       </c>
+      <c r="JY88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -76604,6 +76868,9 @@
       <c r="JX89" t="n">
         <v>5</v>
       </c>
+      <c r="JY89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -77460,6 +77727,9 @@
       <c r="JX90" t="n">
         <v>140</v>
       </c>
+      <c r="JY90" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -78316,6 +78586,9 @@
       <c r="JX91" t="n">
         <v>228</v>
       </c>
+      <c r="JY91" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -79172,6 +79445,9 @@
       <c r="JX92" t="n">
         <v>282</v>
       </c>
+      <c r="JY92" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -80028,6 +80304,9 @@
       <c r="JX93" t="n">
         <v>75.8</v>
       </c>
+      <c r="JY93" t="n">
+        <v>72.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -80884,6 +81163,9 @@
       <c r="JX94" t="n">
         <v>50</v>
       </c>
+      <c r="JY94" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -81740,6 +82022,9 @@
       <c r="JX95" t="n">
         <v>13</v>
       </c>
+      <c r="JY95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -82596,6 +82881,9 @@
       <c r="JX96" t="n">
         <v>18</v>
       </c>
+      <c r="JY96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -83452,6 +83740,9 @@
       <c r="JX97" t="n">
         <v>27</v>
       </c>
+      <c r="JY97" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -84308,6 +84599,9 @@
       <c r="JX98" t="n">
         <v>38</v>
       </c>
+      <c r="JY98" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -85164,6 +85458,9 @@
       <c r="JX99" t="n">
         <v>35</v>
       </c>
+      <c r="JY99" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -86020,6 +86317,9 @@
       <c r="JX100" t="n">
         <v>7</v>
       </c>
+      <c r="JY100" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -86876,6 +87176,9 @@
       <c r="JX101" t="n">
         <v>14</v>
       </c>
+      <c r="JY101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -87732,6 +88035,9 @@
       <c r="JX102" t="n">
         <v>82.40000000000001</v>
       </c>
+      <c r="JY102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/AFL_ML/Data/Hawthorn_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JY102"/>
+  <dimension ref="A1:JZ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1279,6 +1279,9 @@
       <c r="JY1" t="n">
         <v>10771</v>
       </c>
+      <c r="JZ1" t="n">
+        <v>10786</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2138,6 +2141,9 @@
       <c r="JY2" t="n">
         <v>2023</v>
       </c>
+      <c r="JZ2" t="n">
+        <v>2023</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2997,6 +3003,9 @@
       <c r="JY3" t="n">
         <v>3</v>
       </c>
+      <c r="JZ3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3856,6 +3865,9 @@
       <c r="JY4" t="n">
         <v>0</v>
       </c>
+      <c r="JZ4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4715,6 +4727,9 @@
       <c r="JY5" t="n">
         <v>0</v>
       </c>
+      <c r="JZ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5574,6 +5589,9 @@
       <c r="JY6" t="n">
         <v>80</v>
       </c>
+      <c r="JZ6" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6433,6 +6451,9 @@
       <c r="JY7" t="n">
         <v>61</v>
       </c>
+      <c r="JZ7" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7292,6 +7313,9 @@
       <c r="JY8" t="n">
         <v>19</v>
       </c>
+      <c r="JZ8" t="n">
+        <v>-82</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8151,6 +8175,9 @@
       <c r="JY9" t="n">
         <v>1</v>
       </c>
+      <c r="JZ9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9010,6 +9037,9 @@
       <c r="JY10" t="n">
         <v>12</v>
       </c>
+      <c r="JZ10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9869,6 +9899,9 @@
       <c r="JY11" t="n">
         <v>275</v>
       </c>
+      <c r="JZ11" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10728,6 +10761,9 @@
       <c r="JY12" t="n">
         <v>149</v>
       </c>
+      <c r="JZ12" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11587,6 +11623,9 @@
       <c r="JY13" t="n">
         <v>424</v>
       </c>
+      <c r="JZ13" t="n">
+        <v>312</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -12446,6 +12485,9 @@
       <c r="JY14" t="n">
         <v>1.85</v>
       </c>
+      <c r="JZ14" t="n">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -13305,6 +13347,9 @@
       <c r="JY15" t="n">
         <v>140</v>
       </c>
+      <c r="JZ15" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -14164,6 +14209,9 @@
       <c r="JY16" t="n">
         <v>54</v>
       </c>
+      <c r="JZ16" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -15023,6 +15071,9 @@
       <c r="JY17" t="n">
         <v>32</v>
       </c>
+      <c r="JZ17" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15882,6 +15933,9 @@
       <c r="JY18" t="n">
         <v>20</v>
       </c>
+      <c r="JZ18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -16741,6 +16795,9 @@
       <c r="JY19" t="n">
         <v>17</v>
       </c>
+      <c r="JZ19" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -17600,6 +17657,9 @@
       <c r="JY20" t="n">
         <v>11</v>
       </c>
+      <c r="JZ20" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18459,6 +18519,9 @@
       <c r="JY21" t="n">
         <v>8</v>
       </c>
+      <c r="JZ21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -19318,6 +19381,9 @@
       <c r="JY22" t="n">
         <v>13</v>
       </c>
+      <c r="JZ22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -20177,6 +20243,9 @@
       <c r="JY23" t="n">
         <v>1</v>
       </c>
+      <c r="JZ23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -21036,6 +21105,9 @@
       <c r="JY24" t="n">
         <v>25</v>
       </c>
+      <c r="JZ24" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -21895,6 +21967,9 @@
       <c r="JY25" t="n">
         <v>44</v>
       </c>
+      <c r="JZ25" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -22754,6 +22829,9 @@
       <c r="JY26" t="n">
         <v>38.55</v>
       </c>
+      <c r="JZ26" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -23613,6 +23691,9 @@
       <c r="JY27" t="n">
         <v>16.96</v>
       </c>
+      <c r="JZ27" t="n">
+        <v>20.8</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -24472,6 +24553,9 @@
       <c r="JY28" t="n">
         <v>43</v>
       </c>
+      <c r="JZ28" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -25331,6 +25415,9 @@
       <c r="JY29" t="n">
         <v>68</v>
       </c>
+      <c r="JZ29" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -26190,6 +26277,9 @@
       <c r="JY30" t="n">
         <v>34</v>
       </c>
+      <c r="JZ30" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -27049,6 +27139,9 @@
       <c r="JY31" t="n">
         <v>56</v>
       </c>
+      <c r="JZ31" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -27908,6 +28001,9 @@
       <c r="JY32" t="n">
         <v>2.24</v>
       </c>
+      <c r="JZ32" t="n">
+        <v>2.53</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -28767,6 +28863,9 @@
       <c r="JY33" t="n">
         <v>5.09</v>
       </c>
+      <c r="JZ33" t="n">
+        <v>6.33</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -29626,6 +29725,9 @@
       <c r="JY34" t="n">
         <v>42.9</v>
       </c>
+      <c r="JZ34" t="n">
+        <v>36.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -30485,6 +30587,9 @@
       <c r="JY35" t="n">
         <v>19.6</v>
       </c>
+      <c r="JZ35" t="n">
+        <v>15.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -31344,6 +31449,9 @@
       <c r="JY36" t="n">
         <v>187.4</v>
       </c>
+      <c r="JZ36" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -32203,6 +32311,9 @@
       <c r="JY37" t="n">
         <v>85</v>
       </c>
+      <c r="JZ37" t="n">
+        <v>85.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -33062,6 +33173,9 @@
       <c r="JY38" t="n">
         <v>24.41</v>
       </c>
+      <c r="JZ38" t="n">
+        <v>24.66</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -33921,6 +34035,9 @@
       <c r="JY39" t="n">
         <v>66.2</v>
       </c>
+      <c r="JZ39" t="n">
+        <v>75.09999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -34780,6 +34897,9 @@
       <c r="JY40" t="n">
         <v>12</v>
       </c>
+      <c r="JZ40" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -35639,6 +35759,9 @@
       <c r="JY41" t="n">
         <v>5</v>
       </c>
+      <c r="JZ41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -36498,6 +36621,9 @@
       <c r="JY42" t="n">
         <v>4</v>
       </c>
+      <c r="JZ42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -37357,6 +37483,9 @@
       <c r="JY43" t="n">
         <v>2</v>
       </c>
+      <c r="JZ43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -38216,6 +38345,9 @@
       <c r="JY44" t="n">
         <v>141</v>
       </c>
+      <c r="JZ44" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -39075,6 +39207,9 @@
       <c r="JY45" t="n">
         <v>290</v>
       </c>
+      <c r="JZ45" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -39934,6 +40069,9 @@
       <c r="JY46" t="n">
         <v>317</v>
       </c>
+      <c r="JZ46" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -40793,6 +40931,9 @@
       <c r="JY47" t="n">
         <v>74.8</v>
       </c>
+      <c r="JZ47" t="n">
+        <v>68.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -41652,6 +41793,9 @@
       <c r="JY48" t="n">
         <v>68</v>
       </c>
+      <c r="JZ48" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -42511,6 +42655,9 @@
       <c r="JY49" t="n">
         <v>8</v>
       </c>
+      <c r="JZ49" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -43370,6 +43517,9 @@
       <c r="JY50" t="n">
         <v>14</v>
       </c>
+      <c r="JZ50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -44229,6 +44379,9 @@
       <c r="JY51" t="n">
         <v>43</v>
       </c>
+      <c r="JZ51" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -45088,6 +45241,9 @@
       <c r="JY52" t="n">
         <v>34</v>
       </c>
+      <c r="JZ52" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -45947,6 +46103,9 @@
       <c r="JY53" t="n">
         <v>50</v>
       </c>
+      <c r="JZ53" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -46806,6 +46965,9 @@
       <c r="JY54" t="n">
         <v>7</v>
       </c>
+      <c r="JZ54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -47665,6 +47827,9 @@
       <c r="JY55" t="n">
         <v>8</v>
       </c>
+      <c r="JZ55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -48524,6 +48689,9 @@
       <c r="JY56" t="n">
         <v>72.7</v>
       </c>
+      <c r="JZ56" t="n">
+        <v>83.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -49383,6 +49551,9 @@
       <c r="JY57" t="n">
         <v>201</v>
       </c>
+      <c r="JZ57" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -50242,6 +50413,9 @@
       <c r="JY58" t="n">
         <v>141</v>
       </c>
+      <c r="JZ58" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -51101,6 +51275,9 @@
       <c r="JY59" t="n">
         <v>342</v>
       </c>
+      <c r="JZ59" t="n">
+        <v>391</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -51960,6 +52137,9 @@
       <c r="JY60" t="n">
         <v>1.43</v>
       </c>
+      <c r="JZ60" t="n">
+        <v>1.72</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -52819,6 +52999,9 @@
       <c r="JY61" t="n">
         <v>89</v>
       </c>
+      <c r="JZ61" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -53678,6 +53861,9 @@
       <c r="JY62" t="n">
         <v>47</v>
       </c>
+      <c r="JZ62" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -54537,6 +54723,9 @@
       <c r="JY63" t="n">
         <v>32</v>
       </c>
+      <c r="JZ63" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -55396,6 +55585,9 @@
       <c r="JY64" t="n">
         <v>17</v>
       </c>
+      <c r="JZ64" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -56255,6 +56447,9 @@
       <c r="JY65" t="n">
         <v>20</v>
       </c>
+      <c r="JZ65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -57114,6 +57309,9 @@
       <c r="JY66" t="n">
         <v>9</v>
       </c>
+      <c r="JZ66" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -57973,6 +58171,9 @@
       <c r="JY67" t="n">
         <v>6</v>
       </c>
+      <c r="JZ67" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -58832,6 +59033,9 @@
       <c r="JY68" t="n">
         <v>5</v>
       </c>
+      <c r="JZ68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -59691,6 +59895,9 @@
       <c r="JY69" t="n">
         <v>2</v>
       </c>
+      <c r="JZ69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -60550,6 +60757,9 @@
       <c r="JY70" t="n">
         <v>16</v>
       </c>
+      <c r="JZ70" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -61409,6 +61619,9 @@
       <c r="JY71" t="n">
         <v>56.2</v>
       </c>
+      <c r="JZ71" t="n">
+        <v>59.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -62268,6 +62481,9 @@
       <c r="JY72" t="n">
         <v>38</v>
       </c>
+      <c r="JZ72" t="n">
+        <v>20.58</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -63127,6 +63343,9 @@
       <c r="JY73" t="n">
         <v>21.38</v>
       </c>
+      <c r="JZ73" t="n">
+        <v>12.22</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -63986,6 +64205,9 @@
       <c r="JY74" t="n">
         <v>24</v>
       </c>
+      <c r="JZ74" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -64845,6 +65067,9 @@
       <c r="JY75" t="n">
         <v>57</v>
       </c>
+      <c r="JZ75" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -65704,6 +65929,9 @@
       <c r="JY76" t="n">
         <v>44</v>
       </c>
+      <c r="JZ76" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -66563,6 +66791,9 @@
       <c r="JY77" t="n">
         <v>44</v>
       </c>
+      <c r="JZ77" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -67422,6 +67653,9 @@
       <c r="JY78" t="n">
         <v>2.75</v>
       </c>
+      <c r="JZ78" t="n">
+        <v>1.94</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -68281,6 +68515,9 @@
       <c r="JY79" t="n">
         <v>4.89</v>
       </c>
+      <c r="JZ79" t="n">
+        <v>3.26</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -69140,6 +69377,9 @@
       <c r="JY80" t="n">
         <v>31.8</v>
       </c>
+      <c r="JZ80" t="n">
+        <v>48.4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -69999,6 +70239,9 @@
       <c r="JY81" t="n">
         <v>20.5</v>
       </c>
+      <c r="JZ81" t="n">
+        <v>30.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -70858,6 +71101,9 @@
       <c r="JY82" t="n">
         <v>188.9</v>
       </c>
+      <c r="JZ82" t="n">
+        <v>188.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -71717,6 +71963,9 @@
       <c r="JY83" t="n">
         <v>84.5</v>
       </c>
+      <c r="JZ83" t="n">
+        <v>89.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -72576,6 +72825,9 @@
       <c r="JY84" t="n">
         <v>25.49</v>
       </c>
+      <c r="JZ84" t="n">
+        <v>28.41</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -73435,6 +73687,9 @@
       <c r="JY85" t="n">
         <v>99.3</v>
       </c>
+      <c r="JZ85" t="n">
+        <v>153.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -74294,6 +74549,9 @@
       <c r="JY86" t="n">
         <v>7</v>
       </c>
+      <c r="JZ86" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -75153,6 +75411,9 @@
       <c r="JY87" t="n">
         <v>7</v>
       </c>
+      <c r="JZ87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -76012,6 +76273,9 @@
       <c r="JY88" t="n">
         <v>4</v>
       </c>
+      <c r="JZ88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -76871,6 +77135,9 @@
       <c r="JY89" t="n">
         <v>5</v>
       </c>
+      <c r="JZ89" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -77730,6 +77997,9 @@
       <c r="JY90" t="n">
         <v>122</v>
       </c>
+      <c r="JZ90" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -78589,6 +78859,9 @@
       <c r="JY91" t="n">
         <v>208</v>
       </c>
+      <c r="JZ91" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -79448,6 +79721,9 @@
       <c r="JY92" t="n">
         <v>248</v>
       </c>
+      <c r="JZ92" t="n">
+        <v>295</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -80307,6 +80583,9 @@
       <c r="JY93" t="n">
         <v>72.5</v>
       </c>
+      <c r="JZ93" t="n">
+        <v>75.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -81166,6 +81445,9 @@
       <c r="JY94" t="n">
         <v>57</v>
       </c>
+      <c r="JZ94" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -82025,6 +82307,9 @@
       <c r="JY95" t="n">
         <v>11</v>
       </c>
+      <c r="JZ95" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -82884,6 +83169,9 @@
       <c r="JY96" t="n">
         <v>11</v>
       </c>
+      <c r="JZ96" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -83743,6 +84031,9 @@
       <c r="JY97" t="n">
         <v>24</v>
       </c>
+      <c r="JZ97" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -84602,6 +84893,9 @@
       <c r="JY98" t="n">
         <v>44</v>
       </c>
+      <c r="JZ98" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -85461,6 +85755,9 @@
       <c r="JY99" t="n">
         <v>37</v>
       </c>
+      <c r="JZ99" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -86320,6 +86617,9 @@
       <c r="JY100" t="n">
         <v>8</v>
       </c>
+      <c r="JZ100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -87179,6 +87479,9 @@
       <c r="JY101" t="n">
         <v>6</v>
       </c>
+      <c r="JZ101" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -88038,6 +88341,9 @@
       <c r="JY102" t="n">
         <v>66.7</v>
       </c>
+      <c r="JZ102" t="n">
+        <v>68.40000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/AFL_ML/Data/Hawthorn_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JZ102"/>
+  <dimension ref="A1:KA102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1282,6 +1282,9 @@
       <c r="JZ1" t="n">
         <v>10786</v>
       </c>
+      <c r="KA1" t="n">
+        <v>10960</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2144,6 +2147,9 @@
       <c r="JZ2" t="n">
         <v>2023</v>
       </c>
+      <c r="KA2" t="n">
+        <v>2023</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3006,6 +3012,9 @@
       <c r="JZ3" t="n">
         <v>4</v>
       </c>
+      <c r="KA3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3868,6 +3877,9 @@
       <c r="JZ4" t="n">
         <v>1</v>
       </c>
+      <c r="KA4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4730,6 +4742,9 @@
       <c r="JZ5" t="n">
         <v>0</v>
       </c>
+      <c r="KA5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5592,6 +5607,9 @@
       <c r="JZ6" t="n">
         <v>45</v>
       </c>
+      <c r="KA6" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6454,6 +6472,9 @@
       <c r="JZ7" t="n">
         <v>127</v>
       </c>
+      <c r="KA7" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7316,6 +7337,9 @@
       <c r="JZ8" t="n">
         <v>-82</v>
       </c>
+      <c r="KA8" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8178,6 +8202,9 @@
       <c r="JZ9" t="n">
         <v>0</v>
       </c>
+      <c r="KA9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9040,6 +9067,9 @@
       <c r="JZ10" t="n">
         <v>7</v>
       </c>
+      <c r="KA10" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9902,6 +9932,9 @@
       <c r="JZ11" t="n">
         <v>191</v>
       </c>
+      <c r="KA11" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10764,6 +10797,9 @@
       <c r="JZ12" t="n">
         <v>121</v>
       </c>
+      <c r="KA12" t="n">
+        <v>178</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11626,6 +11662,9 @@
       <c r="JZ13" t="n">
         <v>312</v>
       </c>
+      <c r="KA13" t="n">
+        <v>379</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -12488,6 +12527,9 @@
       <c r="JZ14" t="n">
         <v>1.58</v>
       </c>
+      <c r="KA14" t="n">
+        <v>1.13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -13350,6 +13392,9 @@
       <c r="JZ15" t="n">
         <v>69</v>
       </c>
+      <c r="KA15" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -14212,6 +14257,9 @@
       <c r="JZ16" t="n">
         <v>61</v>
       </c>
+      <c r="KA16" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -15074,6 +15122,9 @@
       <c r="JZ17" t="n">
         <v>38</v>
       </c>
+      <c r="KA17" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15936,6 +15987,9 @@
       <c r="JZ18" t="n">
         <v>18</v>
       </c>
+      <c r="KA18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -16798,6 +16852,9 @@
       <c r="JZ19" t="n">
         <v>26</v>
       </c>
+      <c r="KA19" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -17660,6 +17717,9 @@
       <c r="JZ20" t="n">
         <v>6</v>
       </c>
+      <c r="KA20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18522,6 +18582,9 @@
       <c r="JZ21" t="n">
         <v>5</v>
       </c>
+      <c r="KA21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -19384,6 +19447,9 @@
       <c r="JZ22" t="n">
         <v>8</v>
       </c>
+      <c r="KA22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -20246,6 +20312,9 @@
       <c r="JZ23" t="n">
         <v>1</v>
       </c>
+      <c r="KA23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -21108,6 +21177,9 @@
       <c r="JZ24" t="n">
         <v>15</v>
       </c>
+      <c r="KA24" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -21970,6 +22042,9 @@
       <c r="JZ25" t="n">
         <v>40</v>
       </c>
+      <c r="KA25" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -22832,6 +22907,9 @@
       <c r="JZ26" t="n">
         <v>52</v>
       </c>
+      <c r="KA26" t="n">
+        <v>34.45</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -23694,6 +23772,9 @@
       <c r="JZ27" t="n">
         <v>20.8</v>
       </c>
+      <c r="KA27" t="n">
+        <v>18.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -24556,6 +24637,9 @@
       <c r="JZ28" t="n">
         <v>35</v>
       </c>
+      <c r="KA28" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -25418,6 +25502,9 @@
       <c r="JZ29" t="n">
         <v>63</v>
       </c>
+      <c r="KA29" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -26280,6 +26367,9 @@
       <c r="JZ30" t="n">
         <v>42</v>
       </c>
+      <c r="KA30" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -27142,6 +27232,9 @@
       <c r="JZ31" t="n">
         <v>38</v>
       </c>
+      <c r="KA31" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -28004,6 +28097,9 @@
       <c r="JZ32" t="n">
         <v>2.53</v>
       </c>
+      <c r="KA32" t="n">
+        <v>2.65</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -28866,6 +28962,9 @@
       <c r="JZ33" t="n">
         <v>6.33</v>
       </c>
+      <c r="KA33" t="n">
+        <v>4.82</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -29728,6 +29827,9 @@
       <c r="JZ34" t="n">
         <v>36.8</v>
       </c>
+      <c r="KA34" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -30590,6 +30692,9 @@
       <c r="JZ35" t="n">
         <v>15.8</v>
       </c>
+      <c r="KA35" t="n">
+        <v>20.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -31452,6 +31557,9 @@
       <c r="JZ36" t="n">
         <v>187.5</v>
       </c>
+      <c r="KA36" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -32314,6 +32422,9 @@
       <c r="JZ37" t="n">
         <v>85.09999999999999</v>
       </c>
+      <c r="KA37" t="n">
+        <v>85.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -33176,6 +33287,9 @@
       <c r="JZ38" t="n">
         <v>24.66</v>
       </c>
+      <c r="KA38" t="n">
+        <v>24.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -34038,6 +34152,9 @@
       <c r="JZ39" t="n">
         <v>75.09999999999999</v>
       </c>
+      <c r="KA39" t="n">
+        <v>71.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -34900,6 +35017,9 @@
       <c r="JZ40" t="n">
         <v>11</v>
       </c>
+      <c r="KA40" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -35762,6 +35882,9 @@
       <c r="JZ41" t="n">
         <v>5</v>
       </c>
+      <c r="KA41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -36624,6 +36747,9 @@
       <c r="JZ42" t="n">
         <v>4</v>
       </c>
+      <c r="KA42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -37486,6 +37612,9 @@
       <c r="JZ43" t="n">
         <v>3</v>
       </c>
+      <c r="KA43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -38348,6 +38477,9 @@
       <c r="JZ44" t="n">
         <v>122</v>
       </c>
+      <c r="KA44" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -39210,6 +39342,9 @@
       <c r="JZ45" t="n">
         <v>180</v>
       </c>
+      <c r="KA45" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -40072,6 +40207,9 @@
       <c r="JZ46" t="n">
         <v>215</v>
       </c>
+      <c r="KA46" t="n">
+        <v>266</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -40934,6 +41072,9 @@
       <c r="JZ47" t="n">
         <v>68.90000000000001</v>
       </c>
+      <c r="KA47" t="n">
+        <v>70.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -41796,6 +41937,9 @@
       <c r="JZ48" t="n">
         <v>63</v>
       </c>
+      <c r="KA48" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -42658,6 +42802,9 @@
       <c r="JZ49" t="n">
         <v>6</v>
       </c>
+      <c r="KA49" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -43520,6 +43667,9 @@
       <c r="JZ50" t="n">
         <v>8</v>
       </c>
+      <c r="KA50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -44382,6 +44532,9 @@
       <c r="JZ51" t="n">
         <v>35</v>
       </c>
+      <c r="KA51" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -45244,6 +45397,9 @@
       <c r="JZ52" t="n">
         <v>42</v>
       </c>
+      <c r="KA52" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -46106,6 +46262,9 @@
       <c r="JZ53" t="n">
         <v>28</v>
       </c>
+      <c r="KA53" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -46968,6 +47127,9 @@
       <c r="JZ54" t="n">
         <v>0</v>
       </c>
+      <c r="KA54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -47830,6 +47992,9 @@
       <c r="JZ55" t="n">
         <v>5</v>
       </c>
+      <c r="KA55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -48692,6 +48857,9 @@
       <c r="JZ56" t="n">
         <v>83.3</v>
       </c>
+      <c r="KA56" t="n">
+        <v>81.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -49554,6 +49722,9 @@
       <c r="JZ57" t="n">
         <v>247</v>
       </c>
+      <c r="KA57" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -50416,6 +50587,9 @@
       <c r="JZ58" t="n">
         <v>144</v>
       </c>
+      <c r="KA58" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -51278,6 +51452,9 @@
       <c r="JZ59" t="n">
         <v>391</v>
       </c>
+      <c r="KA59" t="n">
+        <v>388</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -52140,6 +52317,9 @@
       <c r="JZ60" t="n">
         <v>1.72</v>
       </c>
+      <c r="KA60" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -53002,6 +53182,9 @@
       <c r="JZ61" t="n">
         <v>116</v>
       </c>
+      <c r="KA61" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -53864,6 +54047,9 @@
       <c r="JZ62" t="n">
         <v>59</v>
       </c>
+      <c r="KA62" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -54726,6 +54912,9 @@
       <c r="JZ63" t="n">
         <v>35</v>
       </c>
+      <c r="KA63" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -55588,6 +55777,9 @@
       <c r="JZ64" t="n">
         <v>26</v>
       </c>
+      <c r="KA64" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -56450,6 +56642,9 @@
       <c r="JZ65" t="n">
         <v>18</v>
       </c>
+      <c r="KA65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -57312,6 +57507,9 @@
       <c r="JZ66" t="n">
         <v>19</v>
       </c>
+      <c r="KA66" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -58174,6 +58372,9 @@
       <c r="JZ67" t="n">
         <v>13</v>
       </c>
+      <c r="KA67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -59036,6 +59237,9 @@
       <c r="JZ68" t="n">
         <v>11</v>
       </c>
+      <c r="KA68" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -59898,6 +60102,9 @@
       <c r="JZ69" t="n">
         <v>2</v>
       </c>
+      <c r="KA69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -60760,6 +60967,9 @@
       <c r="JZ70" t="n">
         <v>32</v>
       </c>
+      <c r="KA70" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -61622,6 +61832,9 @@
       <c r="JZ71" t="n">
         <v>59.4</v>
       </c>
+      <c r="KA71" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -62484,6 +62697,9 @@
       <c r="JZ72" t="n">
         <v>20.58</v>
       </c>
+      <c r="KA72" t="n">
+        <v>38.8</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -63346,6 +63562,9 @@
       <c r="JZ73" t="n">
         <v>12.22</v>
       </c>
+      <c r="KA73" t="n">
+        <v>14.37</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -64208,6 +64427,9 @@
       <c r="JZ74" t="n">
         <v>35</v>
       </c>
+      <c r="KA74" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -65070,6 +65292,9 @@
       <c r="JZ75" t="n">
         <v>60</v>
       </c>
+      <c r="KA75" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -65932,6 +66157,9 @@
       <c r="JZ76" t="n">
         <v>32</v>
       </c>
+      <c r="KA76" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -66794,6 +67022,9 @@
       <c r="JZ77" t="n">
         <v>62</v>
       </c>
+      <c r="KA77" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -67656,6 +67887,9 @@
       <c r="JZ78" t="n">
         <v>1.94</v>
       </c>
+      <c r="KA78" t="n">
+        <v>1.93</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -68518,6 +68752,9 @@
       <c r="JZ79" t="n">
         <v>3.26</v>
       </c>
+      <c r="KA79" t="n">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -69380,6 +69617,9 @@
       <c r="JZ80" t="n">
         <v>48.4</v>
       </c>
+      <c r="KA80" t="n">
+        <v>44.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -70242,6 +70482,9 @@
       <c r="JZ81" t="n">
         <v>30.6</v>
       </c>
+      <c r="KA81" t="n">
+        <v>19.2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -71104,6 +71347,9 @@
       <c r="JZ82" t="n">
         <v>188.9</v>
       </c>
+      <c r="KA82" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -71966,6 +72212,9 @@
       <c r="JZ83" t="n">
         <v>89.3</v>
       </c>
+      <c r="KA83" t="n">
+        <v>87.59999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -72828,6 +73077,9 @@
       <c r="JZ84" t="n">
         <v>28.41</v>
       </c>
+      <c r="KA84" t="n">
+        <v>25.49</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -73690,6 +73942,9 @@
       <c r="JZ85" t="n">
         <v>153.8</v>
       </c>
+      <c r="KA85" t="n">
+        <v>92.40000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -74552,6 +74807,9 @@
       <c r="JZ86" t="n">
         <v>3</v>
       </c>
+      <c r="KA86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -75414,6 +75672,9 @@
       <c r="JZ87" t="n">
         <v>7</v>
       </c>
+      <c r="KA87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -76276,6 +76537,9 @@
       <c r="JZ88" t="n">
         <v>1</v>
       </c>
+      <c r="KA88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -77138,6 +77402,9 @@
       <c r="JZ89" t="n">
         <v>12</v>
       </c>
+      <c r="KA89" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -78000,6 +78267,9 @@
       <c r="JZ90" t="n">
         <v>130</v>
       </c>
+      <c r="KA90" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -78862,6 +79132,9 @@
       <c r="JZ91" t="n">
         <v>248</v>
       </c>
+      <c r="KA91" t="n">
+        <v>233</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -79724,6 +79997,9 @@
       <c r="JZ92" t="n">
         <v>295</v>
       </c>
+      <c r="KA92" t="n">
+        <v>278</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -80586,6 +80862,9 @@
       <c r="JZ93" t="n">
         <v>75.40000000000001</v>
       </c>
+      <c r="KA93" t="n">
+        <v>71.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -81448,6 +81727,9 @@
       <c r="JZ94" t="n">
         <v>60</v>
       </c>
+      <c r="KA94" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -82310,6 +82592,9 @@
       <c r="JZ95" t="n">
         <v>4</v>
       </c>
+      <c r="KA95" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -83172,6 +83457,9 @@
       <c r="JZ96" t="n">
         <v>18</v>
       </c>
+      <c r="KA96" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -84034,6 +84322,9 @@
       <c r="JZ97" t="n">
         <v>35</v>
       </c>
+      <c r="KA97" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -84896,6 +85187,9 @@
       <c r="JZ98" t="n">
         <v>32</v>
       </c>
+      <c r="KA98" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -85758,6 +86052,9 @@
       <c r="JZ99" t="n">
         <v>54</v>
       </c>
+      <c r="KA99" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -86620,6 +86917,9 @@
       <c r="JZ100" t="n">
         <v>4</v>
       </c>
+      <c r="KA100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -87482,6 +87782,9 @@
       <c r="JZ101" t="n">
         <v>13</v>
       </c>
+      <c r="KA101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -88344,6 +88647,9 @@
       <c r="JZ102" t="n">
         <v>68.40000000000001</v>
       </c>
+      <c r="KA102" t="n">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/AFL_ML/Data/Hawthorn_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KA102"/>
+  <dimension ref="A1:KD102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1285,6 +1285,15 @@
       <c r="KA1" t="n">
         <v>10960</v>
       </c>
+      <c r="KB1" t="n">
+        <v>10800</v>
+      </c>
+      <c r="KC1" t="n">
+        <v>10800</v>
+      </c>
+      <c r="KD1" t="n">
+        <v>10800</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2150,6 +2159,15 @@
       <c r="KA2" t="n">
         <v>2023</v>
       </c>
+      <c r="KB2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>2023</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3015,6 +3033,15 @@
       <c r="KA3" t="n">
         <v>5</v>
       </c>
+      <c r="KB3" t="n">
+        <v>6</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>6</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3880,6 +3907,15 @@
       <c r="KA4" t="n">
         <v>1</v>
       </c>
+      <c r="KB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4745,6 +4781,15 @@
       <c r="KA5" t="n">
         <v>0</v>
       </c>
+      <c r="KB5" t="n">
+        <v>1</v>
+      </c>
+      <c r="KC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="KD5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5610,6 +5655,15 @@
       <c r="KA6" t="n">
         <v>75</v>
       </c>
+      <c r="KB6" t="n">
+        <v>76</v>
+      </c>
+      <c r="KC6" t="n">
+        <v>76</v>
+      </c>
+      <c r="KD6" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6475,6 +6529,15 @@
       <c r="KA7" t="n">
         <v>77</v>
       </c>
+      <c r="KB7" t="n">
+        <v>79</v>
+      </c>
+      <c r="KC7" t="n">
+        <v>79</v>
+      </c>
+      <c r="KD7" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7340,6 +7403,15 @@
       <c r="KA8" t="n">
         <v>-2</v>
       </c>
+      <c r="KB8" t="n">
+        <v>-3</v>
+      </c>
+      <c r="KC8" t="n">
+        <v>-3</v>
+      </c>
+      <c r="KD8" t="n">
+        <v>-3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8205,6 +8277,15 @@
       <c r="KA9" t="n">
         <v>0</v>
       </c>
+      <c r="KB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9070,6 +9151,15 @@
       <c r="KA10" t="n">
         <v>9</v>
       </c>
+      <c r="KB10" t="n">
+        <v>1</v>
+      </c>
+      <c r="KC10" t="n">
+        <v>1</v>
+      </c>
+      <c r="KD10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9935,6 +10025,15 @@
       <c r="KA11" t="n">
         <v>201</v>
       </c>
+      <c r="KB11" t="n">
+        <v>185</v>
+      </c>
+      <c r="KC11" t="n">
+        <v>185</v>
+      </c>
+      <c r="KD11" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10800,6 +10899,15 @@
       <c r="KA12" t="n">
         <v>178</v>
       </c>
+      <c r="KB12" t="n">
+        <v>167</v>
+      </c>
+      <c r="KC12" t="n">
+        <v>167</v>
+      </c>
+      <c r="KD12" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11665,6 +11773,15 @@
       <c r="KA13" t="n">
         <v>379</v>
       </c>
+      <c r="KB13" t="n">
+        <v>352</v>
+      </c>
+      <c r="KC13" t="n">
+        <v>352</v>
+      </c>
+      <c r="KD13" t="n">
+        <v>352</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -12530,6 +12647,15 @@
       <c r="KA14" t="n">
         <v>1.13</v>
       </c>
+      <c r="KB14" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="KC14" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="KD14" t="n">
+        <v>1.11</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -13395,6 +13521,15 @@
       <c r="KA15" t="n">
         <v>69</v>
       </c>
+      <c r="KB15" t="n">
+        <v>78</v>
+      </c>
+      <c r="KC15" t="n">
+        <v>78</v>
+      </c>
+      <c r="KD15" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -14260,6 +14395,15 @@
       <c r="KA16" t="n">
         <v>64</v>
       </c>
+      <c r="KB16" t="n">
+        <v>88</v>
+      </c>
+      <c r="KC16" t="n">
+        <v>88</v>
+      </c>
+      <c r="KD16" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -15125,6 +15269,15 @@
       <c r="KA17" t="n">
         <v>47</v>
       </c>
+      <c r="KB17" t="n">
+        <v>52</v>
+      </c>
+      <c r="KC17" t="n">
+        <v>52</v>
+      </c>
+      <c r="KD17" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15990,6 +16143,15 @@
       <c r="KA18" t="n">
         <v>18</v>
       </c>
+      <c r="KB18" t="n">
+        <v>19</v>
+      </c>
+      <c r="KC18" t="n">
+        <v>19</v>
+      </c>
+      <c r="KD18" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -16855,6 +17017,15 @@
       <c r="KA19" t="n">
         <v>17</v>
       </c>
+      <c r="KB19" t="n">
+        <v>20</v>
+      </c>
+      <c r="KC19" t="n">
+        <v>20</v>
+      </c>
+      <c r="KD19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -17720,6 +17891,15 @@
       <c r="KA20" t="n">
         <v>11</v>
       </c>
+      <c r="KB20" t="n">
+        <v>11</v>
+      </c>
+      <c r="KC20" t="n">
+        <v>11</v>
+      </c>
+      <c r="KD20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18585,6 +18765,15 @@
       <c r="KA21" t="n">
         <v>9</v>
       </c>
+      <c r="KB21" t="n">
+        <v>9</v>
+      </c>
+      <c r="KC21" t="n">
+        <v>9</v>
+      </c>
+      <c r="KD21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -19450,6 +19639,15 @@
       <c r="KA22" t="n">
         <v>7</v>
       </c>
+      <c r="KB22" t="n">
+        <v>9</v>
+      </c>
+      <c r="KC22" t="n">
+        <v>9</v>
+      </c>
+      <c r="KD22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -20315,6 +20513,15 @@
       <c r="KA23" t="n">
         <v>2</v>
       </c>
+      <c r="KB23" t="n">
+        <v>1</v>
+      </c>
+      <c r="KC23" t="n">
+        <v>1</v>
+      </c>
+      <c r="KD23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -21180,6 +21387,15 @@
       <c r="KA24" t="n">
         <v>20</v>
       </c>
+      <c r="KB24" t="n">
+        <v>21</v>
+      </c>
+      <c r="KC24" t="n">
+        <v>21</v>
+      </c>
+      <c r="KD24" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -22045,6 +22261,15 @@
       <c r="KA25" t="n">
         <v>55</v>
       </c>
+      <c r="KB25" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="KC25" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="KD25" t="n">
+        <v>52.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -22910,6 +23135,15 @@
       <c r="KA26" t="n">
         <v>34.45</v>
       </c>
+      <c r="KB26" t="n">
+        <v>32</v>
+      </c>
+      <c r="KC26" t="n">
+        <v>32</v>
+      </c>
+      <c r="KD26" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -23775,6 +24009,15 @@
       <c r="KA27" t="n">
         <v>18.95</v>
       </c>
+      <c r="KB27" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="KC27" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="KD27" t="n">
+        <v>16.76</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -24640,6 +24883,15 @@
       <c r="KA28" t="n">
         <v>40</v>
       </c>
+      <c r="KB28" t="n">
+        <v>38</v>
+      </c>
+      <c r="KC28" t="n">
+        <v>38</v>
+      </c>
+      <c r="KD28" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -25505,6 +25757,15 @@
       <c r="KA29" t="n">
         <v>68</v>
       </c>
+      <c r="KB29" t="n">
+        <v>54</v>
+      </c>
+      <c r="KC29" t="n">
+        <v>54</v>
+      </c>
+      <c r="KD29" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -26370,6 +26631,15 @@
       <c r="KA30" t="n">
         <v>41</v>
       </c>
+      <c r="KB30" t="n">
+        <v>42</v>
+      </c>
+      <c r="KC30" t="n">
+        <v>42</v>
+      </c>
+      <c r="KD30" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -27235,6 +27505,15 @@
       <c r="KA31" t="n">
         <v>53</v>
       </c>
+      <c r="KB31" t="n">
+        <v>47</v>
+      </c>
+      <c r="KC31" t="n">
+        <v>47</v>
+      </c>
+      <c r="KD31" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -28100,6 +28379,15 @@
       <c r="KA32" t="n">
         <v>2.65</v>
       </c>
+      <c r="KB32" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KC32" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KD32" t="n">
+        <v>2.24</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -28965,6 +29253,15 @@
       <c r="KA33" t="n">
         <v>4.82</v>
       </c>
+      <c r="KB33" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="KC33" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="KD33" t="n">
+        <v>4.27</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -29830,6 +30127,15 @@
       <c r="KA34" t="n">
         <v>34</v>
       </c>
+      <c r="KB34" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="KC34" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="KD34" t="n">
+        <v>42.6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -30695,6 +31001,15 @@
       <c r="KA35" t="n">
         <v>20.8</v>
       </c>
+      <c r="KB35" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="KC35" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="KD35" t="n">
+        <v>23.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -31560,6 +31875,15 @@
       <c r="KA36" t="n">
         <v>187.4</v>
       </c>
+      <c r="KB36" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="KC36" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="KD36" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -32425,6 +32749,15 @@
       <c r="KA37" t="n">
         <v>85.2</v>
       </c>
+      <c r="KB37" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="KC37" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="KD37" t="n">
+        <v>85.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -33290,6 +33623,15 @@
       <c r="KA38" t="n">
         <v>24.33</v>
       </c>
+      <c r="KB38" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="KC38" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="KD38" t="n">
+        <v>24.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -34155,6 +34497,15 @@
       <c r="KA39" t="n">
         <v>71.5</v>
       </c>
+      <c r="KB39" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="KC39" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="KD39" t="n">
+        <v>74.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -35020,6 +35371,15 @@
       <c r="KA40" t="n">
         <v>12</v>
       </c>
+      <c r="KB40" t="n">
+        <v>11</v>
+      </c>
+      <c r="KC40" t="n">
+        <v>11</v>
+      </c>
+      <c r="KD40" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -35885,6 +36245,15 @@
       <c r="KA41" t="n">
         <v>4</v>
       </c>
+      <c r="KB41" t="n">
+        <v>5</v>
+      </c>
+      <c r="KC41" t="n">
+        <v>5</v>
+      </c>
+      <c r="KD41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -36750,6 +37119,15 @@
       <c r="KA42" t="n">
         <v>4</v>
       </c>
+      <c r="KB42" t="n">
+        <v>4</v>
+      </c>
+      <c r="KC42" t="n">
+        <v>4</v>
+      </c>
+      <c r="KD42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -37615,6 +37993,15 @@
       <c r="KA43" t="n">
         <v>3</v>
       </c>
+      <c r="KB43" t="n">
+        <v>3</v>
+      </c>
+      <c r="KC43" t="n">
+        <v>3</v>
+      </c>
+      <c r="KD43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -38480,6 +38867,15 @@
       <c r="KA44" t="n">
         <v>153</v>
       </c>
+      <c r="KB44" t="n">
+        <v>134</v>
+      </c>
+      <c r="KC44" t="n">
+        <v>134</v>
+      </c>
+      <c r="KD44" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -39345,6 +39741,15 @@
       <c r="KA45" t="n">
         <v>218</v>
       </c>
+      <c r="KB45" t="n">
+        <v>212</v>
+      </c>
+      <c r="KC45" t="n">
+        <v>212</v>
+      </c>
+      <c r="KD45" t="n">
+        <v>212</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -40210,6 +40615,15 @@
       <c r="KA46" t="n">
         <v>266</v>
       </c>
+      <c r="KB46" t="n">
+        <v>265</v>
+      </c>
+      <c r="KC46" t="n">
+        <v>265</v>
+      </c>
+      <c r="KD46" t="n">
+        <v>265</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -41075,6 +41489,15 @@
       <c r="KA47" t="n">
         <v>70.2</v>
       </c>
+      <c r="KB47" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="KC47" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="KD47" t="n">
+        <v>75.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -41940,6 +42363,15 @@
       <c r="KA48" t="n">
         <v>68</v>
       </c>
+      <c r="KB48" t="n">
+        <v>54</v>
+      </c>
+      <c r="KC48" t="n">
+        <v>54</v>
+      </c>
+      <c r="KD48" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -42805,6 +43237,15 @@
       <c r="KA49" t="n">
         <v>13</v>
       </c>
+      <c r="KB49" t="n">
+        <v>8</v>
+      </c>
+      <c r="KC49" t="n">
+        <v>8</v>
+      </c>
+      <c r="KD49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -43670,6 +44111,15 @@
       <c r="KA50" t="n">
         <v>10</v>
       </c>
+      <c r="KB50" t="n">
+        <v>7</v>
+      </c>
+      <c r="KC50" t="n">
+        <v>7</v>
+      </c>
+      <c r="KD50" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -44535,6 +44985,15 @@
       <c r="KA51" t="n">
         <v>40</v>
       </c>
+      <c r="KB51" t="n">
+        <v>38</v>
+      </c>
+      <c r="KC51" t="n">
+        <v>38</v>
+      </c>
+      <c r="KD51" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -45400,6 +45859,15 @@
       <c r="KA52" t="n">
         <v>41</v>
       </c>
+      <c r="KB52" t="n">
+        <v>42</v>
+      </c>
+      <c r="KC52" t="n">
+        <v>42</v>
+      </c>
+      <c r="KD52" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -46265,6 +46733,15 @@
       <c r="KA53" t="n">
         <v>45</v>
       </c>
+      <c r="KB53" t="n">
+        <v>42</v>
+      </c>
+      <c r="KC53" t="n">
+        <v>42</v>
+      </c>
+      <c r="KD53" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -47130,6 +47607,15 @@
       <c r="KA54" t="n">
         <v>3</v>
       </c>
+      <c r="KB54" t="n">
+        <v>6</v>
+      </c>
+      <c r="KC54" t="n">
+        <v>6</v>
+      </c>
+      <c r="KD54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -47995,6 +48481,15 @@
       <c r="KA55" t="n">
         <v>9</v>
       </c>
+      <c r="KB55" t="n">
+        <v>9</v>
+      </c>
+      <c r="KC55" t="n">
+        <v>9</v>
+      </c>
+      <c r="KD55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -48860,6 +49355,15 @@
       <c r="KA56" t="n">
         <v>81.8</v>
       </c>
+      <c r="KB56" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="KC56" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="KD56" t="n">
+        <v>81.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -49725,6 +50229,15 @@
       <c r="KA57" t="n">
         <v>213</v>
       </c>
+      <c r="KB57" t="n">
+        <v>205</v>
+      </c>
+      <c r="KC57" t="n">
+        <v>205</v>
+      </c>
+      <c r="KD57" t="n">
+        <v>205</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -50590,6 +51103,15 @@
       <c r="KA58" t="n">
         <v>175</v>
       </c>
+      <c r="KB58" t="n">
+        <v>150</v>
+      </c>
+      <c r="KC58" t="n">
+        <v>150</v>
+      </c>
+      <c r="KD58" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -51455,6 +51977,15 @@
       <c r="KA59" t="n">
         <v>388</v>
       </c>
+      <c r="KB59" t="n">
+        <v>355</v>
+      </c>
+      <c r="KC59" t="n">
+        <v>355</v>
+      </c>
+      <c r="KD59" t="n">
+        <v>355</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -52320,6 +52851,15 @@
       <c r="KA60" t="n">
         <v>1.22</v>
       </c>
+      <c r="KB60" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="KC60" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="KD60" t="n">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -53185,6 +53725,15 @@
       <c r="KA61" t="n">
         <v>97</v>
       </c>
+      <c r="KB61" t="n">
+        <v>79</v>
+      </c>
+      <c r="KC61" t="n">
+        <v>79</v>
+      </c>
+      <c r="KD61" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -54050,6 +54599,15 @@
       <c r="KA62" t="n">
         <v>79</v>
       </c>
+      <c r="KB62" t="n">
+        <v>75</v>
+      </c>
+      <c r="KC62" t="n">
+        <v>75</v>
+      </c>
+      <c r="KD62" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -54915,6 +55473,15 @@
       <c r="KA63" t="n">
         <v>37</v>
       </c>
+      <c r="KB63" t="n">
+        <v>45</v>
+      </c>
+      <c r="KC63" t="n">
+        <v>45</v>
+      </c>
+      <c r="KD63" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -55780,6 +56347,15 @@
       <c r="KA64" t="n">
         <v>17</v>
       </c>
+      <c r="KB64" t="n">
+        <v>20</v>
+      </c>
+      <c r="KC64" t="n">
+        <v>20</v>
+      </c>
+      <c r="KD64" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -56645,6 +57221,15 @@
       <c r="KA65" t="n">
         <v>18</v>
       </c>
+      <c r="KB65" t="n">
+        <v>19</v>
+      </c>
+      <c r="KC65" t="n">
+        <v>19</v>
+      </c>
+      <c r="KD65" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -57510,6 +58095,15 @@
       <c r="KA66" t="n">
         <v>10</v>
       </c>
+      <c r="KB66" t="n">
+        <v>11</v>
+      </c>
+      <c r="KC66" t="n">
+        <v>11</v>
+      </c>
+      <c r="KD66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -58375,6 +58969,15 @@
       <c r="KA67" t="n">
         <v>7</v>
       </c>
+      <c r="KB67" t="n">
+        <v>8</v>
+      </c>
+      <c r="KC67" t="n">
+        <v>8</v>
+      </c>
+      <c r="KD67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -59240,6 +59843,15 @@
       <c r="KA68" t="n">
         <v>13</v>
       </c>
+      <c r="KB68" t="n">
+        <v>8</v>
+      </c>
+      <c r="KC68" t="n">
+        <v>8</v>
+      </c>
+      <c r="KD68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -60105,6 +60717,15 @@
       <c r="KA69" t="n">
         <v>4</v>
       </c>
+      <c r="KB69" t="n">
+        <v>5</v>
+      </c>
+      <c r="KC69" t="n">
+        <v>5</v>
+      </c>
+      <c r="KD69" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -60970,6 +61591,15 @@
       <c r="KA70" t="n">
         <v>27</v>
       </c>
+      <c r="KB70" t="n">
+        <v>24</v>
+      </c>
+      <c r="KC70" t="n">
+        <v>24</v>
+      </c>
+      <c r="KD70" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -61835,6 +62465,15 @@
       <c r="KA71" t="n">
         <v>37</v>
       </c>
+      <c r="KB71" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="KC71" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="KD71" t="n">
+        <v>45.8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -62700,6 +63339,15 @@
       <c r="KA72" t="n">
         <v>38.8</v>
       </c>
+      <c r="KB72" t="n">
+        <v>32.27</v>
+      </c>
+      <c r="KC72" t="n">
+        <v>32.27</v>
+      </c>
+      <c r="KD72" t="n">
+        <v>32.27</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -63565,6 +64213,15 @@
       <c r="KA73" t="n">
         <v>14.37</v>
       </c>
+      <c r="KB73" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="KC73" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="KD73" t="n">
+        <v>14.79</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -64430,6 +65087,15 @@
       <c r="KA74" t="n">
         <v>32</v>
       </c>
+      <c r="KB74" t="n">
+        <v>47</v>
+      </c>
+      <c r="KC74" t="n">
+        <v>47</v>
+      </c>
+      <c r="KD74" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -65295,6 +65961,15 @@
       <c r="KA75" t="n">
         <v>61</v>
       </c>
+      <c r="KB75" t="n">
+        <v>63</v>
+      </c>
+      <c r="KC75" t="n">
+        <v>63</v>
+      </c>
+      <c r="KD75" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -66160,6 +66835,15 @@
       <c r="KA76" t="n">
         <v>42</v>
       </c>
+      <c r="KB76" t="n">
+        <v>34</v>
+      </c>
+      <c r="KC76" t="n">
+        <v>34</v>
+      </c>
+      <c r="KD76" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -67025,6 +67709,15 @@
       <c r="KA77" t="n">
         <v>52</v>
       </c>
+      <c r="KB77" t="n">
+        <v>53</v>
+      </c>
+      <c r="KC77" t="n">
+        <v>53</v>
+      </c>
+      <c r="KD77" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -67890,6 +68583,15 @@
       <c r="KA78" t="n">
         <v>1.93</v>
       </c>
+      <c r="KB78" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="KC78" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="KD78" t="n">
+        <v>2.21</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -68755,6 +69457,15 @@
       <c r="KA79" t="n">
         <v>5.2</v>
       </c>
+      <c r="KB79" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="KC79" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="KD79" t="n">
+        <v>4.82</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -69620,6 +70331,15 @@
       <c r="KA80" t="n">
         <v>44.2</v>
       </c>
+      <c r="KB80" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="KC80" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="KD80" t="n">
+        <v>35.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -70485,6 +71205,15 @@
       <c r="KA81" t="n">
         <v>19.2</v>
       </c>
+      <c r="KB81" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="KC81" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="KD81" t="n">
+        <v>20.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -71350,6 +72079,15 @@
       <c r="KA82" t="n">
         <v>189</v>
       </c>
+      <c r="KB82" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="KC82" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="KD82" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -72215,6 +72953,15 @@
       <c r="KA83" t="n">
         <v>87.59999999999999</v>
       </c>
+      <c r="KB83" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="KC83" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="KD83" t="n">
+        <v>87.59999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -73080,6 +73827,15 @@
       <c r="KA84" t="n">
         <v>25.49</v>
       </c>
+      <c r="KB84" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="KC84" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="KD84" t="n">
+        <v>24.74</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -73945,6 +74701,15 @@
       <c r="KA85" t="n">
         <v>92.40000000000001</v>
       </c>
+      <c r="KB85" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="KC85" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="KD85" t="n">
+        <v>82.59999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -74810,6 +75575,15 @@
       <c r="KA86" t="n">
         <v>9</v>
       </c>
+      <c r="KB86" t="n">
+        <v>9</v>
+      </c>
+      <c r="KC86" t="n">
+        <v>9</v>
+      </c>
+      <c r="KD86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -75675,6 +76449,15 @@
       <c r="KA87" t="n">
         <v>5</v>
       </c>
+      <c r="KB87" t="n">
+        <v>10</v>
+      </c>
+      <c r="KC87" t="n">
+        <v>10</v>
+      </c>
+      <c r="KD87" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -76540,6 +77323,15 @@
       <c r="KA88" t="n">
         <v>2</v>
       </c>
+      <c r="KB88" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC88" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -77405,6 +78197,15 @@
       <c r="KA89" t="n">
         <v>7</v>
       </c>
+      <c r="KB89" t="n">
+        <v>4</v>
+      </c>
+      <c r="KC89" t="n">
+        <v>4</v>
+      </c>
+      <c r="KD89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -78270,6 +79071,15 @@
       <c r="KA90" t="n">
         <v>143</v>
       </c>
+      <c r="KB90" t="n">
+        <v>145</v>
+      </c>
+      <c r="KC90" t="n">
+        <v>145</v>
+      </c>
+      <c r="KD90" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -79135,6 +79945,15 @@
       <c r="KA91" t="n">
         <v>233</v>
       </c>
+      <c r="KB91" t="n">
+        <v>206</v>
+      </c>
+      <c r="KC91" t="n">
+        <v>206</v>
+      </c>
+      <c r="KD91" t="n">
+        <v>206</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -80000,6 +80819,15 @@
       <c r="KA92" t="n">
         <v>278</v>
       </c>
+      <c r="KB92" t="n">
+        <v>255</v>
+      </c>
+      <c r="KC92" t="n">
+        <v>255</v>
+      </c>
+      <c r="KD92" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -80865,6 +81693,15 @@
       <c r="KA93" t="n">
         <v>71.59999999999999</v>
       </c>
+      <c r="KB93" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="KC93" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="KD93" t="n">
+        <v>71.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -81730,6 +82567,15 @@
       <c r="KA94" t="n">
         <v>61</v>
       </c>
+      <c r="KB94" t="n">
+        <v>63</v>
+      </c>
+      <c r="KC94" t="n">
+        <v>63</v>
+      </c>
+      <c r="KD94" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -82595,6 +83441,15 @@
       <c r="KA95" t="n">
         <v>14</v>
       </c>
+      <c r="KB95" t="n">
+        <v>7</v>
+      </c>
+      <c r="KC95" t="n">
+        <v>7</v>
+      </c>
+      <c r="KD95" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -83460,6 +84315,15 @@
       <c r="KA96" t="n">
         <v>12</v>
       </c>
+      <c r="KB96" t="n">
+        <v>14</v>
+      </c>
+      <c r="KC96" t="n">
+        <v>14</v>
+      </c>
+      <c r="KD96" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -84325,6 +85189,15 @@
       <c r="KA97" t="n">
         <v>32</v>
       </c>
+      <c r="KB97" t="n">
+        <v>47</v>
+      </c>
+      <c r="KC97" t="n">
+        <v>47</v>
+      </c>
+      <c r="KD97" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -85190,6 +86063,15 @@
       <c r="KA98" t="n">
         <v>42</v>
       </c>
+      <c r="KB98" t="n">
+        <v>34</v>
+      </c>
+      <c r="KC98" t="n">
+        <v>34</v>
+      </c>
+      <c r="KD98" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -86055,6 +86937,15 @@
       <c r="KA99" t="n">
         <v>58</v>
       </c>
+      <c r="KB99" t="n">
+        <v>43</v>
+      </c>
+      <c r="KC99" t="n">
+        <v>43</v>
+      </c>
+      <c r="KD99" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -86920,6 +87811,15 @@
       <c r="KA100" t="n">
         <v>2</v>
       </c>
+      <c r="KB100" t="n">
+        <v>3</v>
+      </c>
+      <c r="KC100" t="n">
+        <v>3</v>
+      </c>
+      <c r="KD100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -87785,6 +88685,15 @@
       <c r="KA101" t="n">
         <v>7</v>
       </c>
+      <c r="KB101" t="n">
+        <v>8</v>
+      </c>
+      <c r="KC101" t="n">
+        <v>8</v>
+      </c>
+      <c r="KD101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -88650,6 +89559,15 @@
       <c r="KA102" t="n">
         <v>70</v>
       </c>
+      <c r="KB102" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="KC102" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="KD102" t="n">
+        <v>72.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/AFL_ML/Data/Hawthorn_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KK102"/>
+  <dimension ref="A1:KL102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1315,6 +1315,9 @@
       <c r="KK1" t="n">
         <v>10800</v>
       </c>
+      <c r="KL1" t="n">
+        <v>10808</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2210,6 +2213,9 @@
       <c r="KK2" t="n">
         <v>2023</v>
       </c>
+      <c r="KL2" t="n">
+        <v>2023</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3105,6 +3111,9 @@
       <c r="KK3" t="n">
         <v>6</v>
       </c>
+      <c r="KL3" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4000,6 +4009,9 @@
       <c r="KK4" t="n">
         <v>0</v>
       </c>
+      <c r="KL4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4895,6 +4907,9 @@
       <c r="KK5" t="n">
         <v>1</v>
       </c>
+      <c r="KL5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5790,6 +5805,9 @@
       <c r="KK6" t="n">
         <v>76</v>
       </c>
+      <c r="KL6" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6685,6 +6703,9 @@
       <c r="KK7" t="n">
         <v>79</v>
       </c>
+      <c r="KL7" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7580,6 +7601,9 @@
       <c r="KK8" t="n">
         <v>-3</v>
       </c>
+      <c r="KL8" t="n">
+        <v>-29</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8475,6 +8499,9 @@
       <c r="KK9" t="n">
         <v>0</v>
       </c>
+      <c r="KL9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9370,6 +9397,9 @@
       <c r="KK10" t="n">
         <v>1</v>
       </c>
+      <c r="KL10" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10265,6 +10295,9 @@
       <c r="KK11" t="n">
         <v>185</v>
       </c>
+      <c r="KL11" t="n">
+        <v>219</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -11160,6 +11193,9 @@
       <c r="KK12" t="n">
         <v>167</v>
       </c>
+      <c r="KL12" t="n">
+        <v>176</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -12055,6 +12091,9 @@
       <c r="KK13" t="n">
         <v>352</v>
       </c>
+      <c r="KL13" t="n">
+        <v>395</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -12950,6 +12989,9 @@
       <c r="KK14" t="n">
         <v>1.11</v>
       </c>
+      <c r="KL14" t="n">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -13845,6 +13887,9 @@
       <c r="KK15" t="n">
         <v>78</v>
       </c>
+      <c r="KL15" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -14740,6 +14785,9 @@
       <c r="KK16" t="n">
         <v>88</v>
       </c>
+      <c r="KL16" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -15635,6 +15683,9 @@
       <c r="KK17" t="n">
         <v>52</v>
       </c>
+      <c r="KL17" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -16530,6 +16581,9 @@
       <c r="KK18" t="n">
         <v>19</v>
       </c>
+      <c r="KL18" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -17425,6 +17479,9 @@
       <c r="KK19" t="n">
         <v>20</v>
       </c>
+      <c r="KL19" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -18320,6 +18377,9 @@
       <c r="KK20" t="n">
         <v>11</v>
       </c>
+      <c r="KL20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -19215,6 +19275,9 @@
       <c r="KK21" t="n">
         <v>9</v>
       </c>
+      <c r="KL21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -20110,6 +20173,9 @@
       <c r="KK22" t="n">
         <v>9</v>
       </c>
+      <c r="KL22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -21005,6 +21071,9 @@
       <c r="KK23" t="n">
         <v>1</v>
       </c>
+      <c r="KL23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -21900,6 +21969,9 @@
       <c r="KK24" t="n">
         <v>21</v>
       </c>
+      <c r="KL24" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -22795,6 +22867,9 @@
       <c r="KK25" t="n">
         <v>52.4</v>
       </c>
+      <c r="KL25" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -23690,6 +23765,9 @@
       <c r="KK26" t="n">
         <v>32</v>
       </c>
+      <c r="KL26" t="n">
+        <v>43.89</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -24585,6 +24663,9 @@
       <c r="KK27" t="n">
         <v>16.76</v>
       </c>
+      <c r="KL27" t="n">
+        <v>19.75</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -25480,6 +25561,9 @@
       <c r="KK28" t="n">
         <v>38</v>
       </c>
+      <c r="KL28" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -26375,6 +26459,9 @@
       <c r="KK29" t="n">
         <v>54</v>
       </c>
+      <c r="KL29" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -27270,6 +27357,9 @@
       <c r="KK30" t="n">
         <v>42</v>
       </c>
+      <c r="KL30" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -28165,6 +28255,9 @@
       <c r="KK31" t="n">
         <v>47</v>
       </c>
+      <c r="KL31" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -29060,6 +29153,9 @@
       <c r="KK32" t="n">
         <v>2.24</v>
       </c>
+      <c r="KL32" t="n">
+        <v>2.35</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -29955,6 +30051,9 @@
       <c r="KK33" t="n">
         <v>4.27</v>
       </c>
+      <c r="KL33" t="n">
+        <v>5.22</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -30850,6 +30949,9 @@
       <c r="KK34" t="n">
         <v>42.6</v>
       </c>
+      <c r="KL34" t="n">
+        <v>38.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -31745,6 +31847,9 @@
       <c r="KK35" t="n">
         <v>23.4</v>
       </c>
+      <c r="KL35" t="n">
+        <v>19.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -32640,6 +32745,9 @@
       <c r="KK36" t="n">
         <v>187.7</v>
       </c>
+      <c r="KL36" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -33535,6 +33643,9 @@
       <c r="KK37" t="n">
         <v>85.3</v>
       </c>
+      <c r="KL37" t="n">
+        <v>85.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -34430,6 +34541,9 @@
       <c r="KK38" t="n">
         <v>24.58</v>
       </c>
+      <c r="KL38" t="n">
+        <v>24.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -35325,6 +35439,9 @@
       <c r="KK39" t="n">
         <v>74.2</v>
       </c>
+      <c r="KL39" t="n">
+        <v>76.90000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -36220,6 +36337,9 @@
       <c r="KK40" t="n">
         <v>11</v>
       </c>
+      <c r="KL40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -37115,6 +37235,9 @@
       <c r="KK41" t="n">
         <v>5</v>
       </c>
+      <c r="KL41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -38010,6 +38133,9 @@
       <c r="KK42" t="n">
         <v>4</v>
       </c>
+      <c r="KL42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -38905,6 +39031,9 @@
       <c r="KK43" t="n">
         <v>3</v>
       </c>
+      <c r="KL43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -39800,6 +39929,9 @@
       <c r="KK44" t="n">
         <v>134</v>
       </c>
+      <c r="KL44" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -40695,6 +40827,9 @@
       <c r="KK45" t="n">
         <v>212</v>
       </c>
+      <c r="KL45" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -41590,6 +41725,9 @@
       <c r="KK46" t="n">
         <v>265</v>
       </c>
+      <c r="KL46" t="n">
+        <v>278</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -42485,6 +42623,9 @@
       <c r="KK47" t="n">
         <v>75.3</v>
       </c>
+      <c r="KL47" t="n">
+        <v>70.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -43380,6 +43521,9 @@
       <c r="KK48" t="n">
         <v>54</v>
       </c>
+      <c r="KL48" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -44275,6 +44419,9 @@
       <c r="KK49" t="n">
         <v>8</v>
       </c>
+      <c r="KL49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -45170,6 +45317,9 @@
       <c r="KK50" t="n">
         <v>7</v>
       </c>
+      <c r="KL50" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -46065,6 +46215,9 @@
       <c r="KK51" t="n">
         <v>38</v>
       </c>
+      <c r="KL51" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -46960,6 +47113,9 @@
       <c r="KK52" t="n">
         <v>42</v>
       </c>
+      <c r="KL52" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -47855,6 +48011,9 @@
       <c r="KK53" t="n">
         <v>42</v>
       </c>
+      <c r="KL53" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -48750,6 +48909,9 @@
       <c r="KK54" t="n">
         <v>6</v>
       </c>
+      <c r="KL54" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -49645,6 +49807,9 @@
       <c r="KK55" t="n">
         <v>9</v>
       </c>
+      <c r="KL55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -50540,6 +50705,9 @@
       <c r="KK56" t="n">
         <v>81.8</v>
       </c>
+      <c r="KL56" t="n">
+        <v>77.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -51435,6 +51603,9 @@
       <c r="KK57" t="n">
         <v>205</v>
       </c>
+      <c r="KL57" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -52330,6 +52501,9 @@
       <c r="KK58" t="n">
         <v>150</v>
       </c>
+      <c r="KL58" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -53225,6 +53399,9 @@
       <c r="KK59" t="n">
         <v>355</v>
       </c>
+      <c r="KL59" t="n">
+        <v>363</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -54120,6 +54297,9 @@
       <c r="KK60" t="n">
         <v>1.37</v>
       </c>
+      <c r="KL60" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -55015,6 +55195,9 @@
       <c r="KK61" t="n">
         <v>79</v>
       </c>
+      <c r="KL61" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -55910,6 +56093,9 @@
       <c r="KK62" t="n">
         <v>75</v>
       </c>
+      <c r="KL62" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -56805,6 +56991,9 @@
       <c r="KK63" t="n">
         <v>45</v>
       </c>
+      <c r="KL63" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -57700,6 +57889,9 @@
       <c r="KK64" t="n">
         <v>20</v>
       </c>
+      <c r="KL64" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -58595,6 +58787,9 @@
       <c r="KK65" t="n">
         <v>19</v>
       </c>
+      <c r="KL65" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -59490,6 +59685,9 @@
       <c r="KK66" t="n">
         <v>11</v>
       </c>
+      <c r="KL66" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -60385,6 +60583,9 @@
       <c r="KK67" t="n">
         <v>8</v>
       </c>
+      <c r="KL67" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -61280,6 +61481,9 @@
       <c r="KK68" t="n">
         <v>8</v>
       </c>
+      <c r="KL68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -62175,6 +62379,9 @@
       <c r="KK69" t="n">
         <v>5</v>
       </c>
+      <c r="KL69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -63070,6 +63277,9 @@
       <c r="KK70" t="n">
         <v>24</v>
       </c>
+      <c r="KL70" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -63965,6 +64175,9 @@
       <c r="KK71" t="n">
         <v>45.8</v>
       </c>
+      <c r="KL71" t="n">
+        <v>58.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -64860,6 +65073,9 @@
       <c r="KK72" t="n">
         <v>32.27</v>
       </c>
+      <c r="KL72" t="n">
+        <v>25.93</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -65755,6 +65971,9 @@
       <c r="KK73" t="n">
         <v>14.79</v>
       </c>
+      <c r="KL73" t="n">
+        <v>15.12</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -66650,6 +66869,9 @@
       <c r="KK74" t="n">
         <v>47</v>
       </c>
+      <c r="KL74" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -67545,6 +67767,9 @@
       <c r="KK75" t="n">
         <v>63</v>
       </c>
+      <c r="KL75" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -68440,6 +68665,9 @@
       <c r="KK76" t="n">
         <v>34</v>
       </c>
+      <c r="KL76" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -69335,6 +69563,9 @@
       <c r="KK77" t="n">
         <v>53</v>
       </c>
+      <c r="KL77" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -70230,6 +70461,9 @@
       <c r="KK78" t="n">
         <v>2.21</v>
       </c>
+      <c r="KL78" t="n">
+        <v>2.42</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -71125,6 +71359,9 @@
       <c r="KK79" t="n">
         <v>4.82</v>
       </c>
+      <c r="KL79" t="n">
+        <v>4.14</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -72020,6 +72257,9 @@
       <c r="KK80" t="n">
         <v>35.8</v>
       </c>
+      <c r="KL80" t="n">
+        <v>41.4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -72915,6 +73155,9 @@
       <c r="KK81" t="n">
         <v>20.8</v>
       </c>
+      <c r="KL81" t="n">
+        <v>24.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -73810,6 +74053,9 @@
       <c r="KK82" t="n">
         <v>187.3</v>
       </c>
+      <c r="KL82" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -74705,6 +74951,9 @@
       <c r="KK83" t="n">
         <v>87.59999999999999</v>
       </c>
+      <c r="KL83" t="n">
+        <v>86.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -75600,6 +75849,9 @@
       <c r="KK84" t="n">
         <v>24.74</v>
       </c>
+      <c r="KL84" t="n">
+        <v>26.58</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -76495,6 +76747,9 @@
       <c r="KK85" t="n">
         <v>82.59999999999999</v>
       </c>
+      <c r="KL85" t="n">
+        <v>110.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -77390,6 +77645,9 @@
       <c r="KK86" t="n">
         <v>9</v>
       </c>
+      <c r="KL86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -78285,6 +78543,9 @@
       <c r="KK87" t="n">
         <v>10</v>
       </c>
+      <c r="KL87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -79180,6 +79441,9 @@
       <c r="KK88" t="n">
         <v>0</v>
       </c>
+      <c r="KL88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -80075,6 +80339,9 @@
       <c r="KK89" t="n">
         <v>4</v>
       </c>
+      <c r="KL89" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -80970,6 +81237,9 @@
       <c r="KK90" t="n">
         <v>145</v>
       </c>
+      <c r="KL90" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -81865,6 +82135,9 @@
       <c r="KK91" t="n">
         <v>206</v>
       </c>
+      <c r="KL91" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -82760,6 +83033,9 @@
       <c r="KK92" t="n">
         <v>255</v>
       </c>
+      <c r="KL92" t="n">
+        <v>276</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -83655,6 +83931,9 @@
       <c r="KK93" t="n">
         <v>71.8</v>
       </c>
+      <c r="KL93" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -84550,6 +84829,9 @@
       <c r="KK94" t="n">
         <v>63</v>
       </c>
+      <c r="KL94" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -85445,6 +85727,9 @@
       <c r="KK95" t="n">
         <v>7</v>
       </c>
+      <c r="KL95" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -86340,6 +86625,9 @@
       <c r="KK96" t="n">
         <v>14</v>
       </c>
+      <c r="KL96" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -87235,6 +87523,9 @@
       <c r="KK97" t="n">
         <v>47</v>
       </c>
+      <c r="KL97" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -88130,6 +88421,9 @@
       <c r="KK98" t="n">
         <v>34</v>
       </c>
+      <c r="KL98" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -89025,6 +89319,9 @@
       <c r="KK99" t="n">
         <v>43</v>
       </c>
+      <c r="KL99" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -89920,6 +90217,9 @@
       <c r="KK100" t="n">
         <v>3</v>
       </c>
+      <c r="KL100" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -90815,6 +91115,9 @@
       <c r="KK101" t="n">
         <v>8</v>
       </c>
+      <c r="KL101" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -91710,6 +92013,9 @@
       <c r="KK102" t="n">
         <v>72.7</v>
       </c>
+      <c r="KL102" t="n">
+        <v>78.59999999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/AFL_ML/Data/Hawthorn_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KR102"/>
+  <dimension ref="A1:KS102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KI93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KN97" activeCellId="0" sqref="KN97"/>
@@ -1368,8 +1368,11 @@
       <c r="KQ1" s="1" t="n">
         <v>10838</v>
       </c>
-      <c r="KR1" t="n">
+      <c r="KR1" s="1" t="n">
         <v>10842</v>
+      </c>
+      <c r="KS1" t="n">
+        <v>10851</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2284,7 +2287,10 @@
       <c r="KQ2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KR2" t="n">
+      <c r="KR2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KS2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3200,8 +3206,11 @@
       <c r="KQ3" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KR3" t="n">
+      <c r="KR3" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -4116,7 +4125,10 @@
       <c r="KQ4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KR4" t="n">
+      <c r="KR4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KS4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5032,8 +5044,11 @@
       <c r="KQ5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KR5" t="n">
+      <c r="KR5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KS5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -5948,8 +5963,11 @@
       <c r="KQ6" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="KR6" t="n">
+      <c r="KR6" s="1" t="n">
         <v>88</v>
+      </c>
+      <c r="KS6" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6864,8 +6882,11 @@
       <c r="KQ7" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="KR7" t="n">
+      <c r="KR7" s="1" t="n">
         <v>78</v>
+      </c>
+      <c r="KS7" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7780,8 +7801,11 @@
       <c r="KQ8" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="KR8" t="n">
+      <c r="KR8" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KS8" t="n">
+        <v>-55</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8696,8 +8720,11 @@
       <c r="KQ9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KR9" t="n">
+      <c r="KR9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KS9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -9612,8 +9639,11 @@
       <c r="KQ10" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KR10" t="n">
+      <c r="KR10" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KS10" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10528,8 +10558,11 @@
       <c r="KQ11" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="KR11" t="n">
+      <c r="KR11" s="1" t="n">
         <v>210</v>
+      </c>
+      <c r="KS11" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -11444,8 +11477,11 @@
       <c r="KQ12" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="KR12" t="n">
+      <c r="KR12" s="1" t="n">
         <v>214</v>
+      </c>
+      <c r="KS12" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -12360,8 +12396,11 @@
       <c r="KQ13" s="1" t="n">
         <v>448</v>
       </c>
-      <c r="KR13" t="n">
+      <c r="KR13" s="1" t="n">
         <v>424</v>
+      </c>
+      <c r="KS13" t="n">
+        <v>409</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -13276,8 +13315,11 @@
       <c r="KQ14" s="1" t="n">
         <v>1.08</v>
       </c>
-      <c r="KR14" t="n">
+      <c r="KR14" s="1" t="n">
         <v>0.98</v>
+      </c>
+      <c r="KS14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -14192,8 +14234,11 @@
       <c r="KQ15" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="KR15" t="n">
+      <c r="KR15" s="1" t="n">
         <v>106</v>
+      </c>
+      <c r="KS15" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -15108,8 +15153,11 @@
       <c r="KQ16" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="KR16" t="n">
+      <c r="KR16" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="KS16" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -16024,8 +16072,11 @@
       <c r="KQ17" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="KR17" t="n">
+      <c r="KR17" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="KS17" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -16940,8 +16991,11 @@
       <c r="KQ18" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KR18" t="n">
+      <c r="KR18" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KS18" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -17856,8 +17910,11 @@
       <c r="KQ19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KR19" t="n">
+      <c r="KR19" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="KS19" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -18772,8 +18829,11 @@
       <c r="KQ20" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="KR20" t="n">
+      <c r="KR20" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KS20" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -19688,7 +19748,10 @@
       <c r="KQ21" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KR21" t="n">
+      <c r="KR21" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="KS21" t="n">
         <v>11</v>
       </c>
     </row>
@@ -20604,8 +20667,11 @@
       <c r="KQ22" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KR22" t="n">
+      <c r="KR22" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KS22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -21520,7 +21586,10 @@
       <c r="KQ23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KR23" t="n">
+      <c r="KR23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="KS23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -22436,8 +22505,11 @@
       <c r="KQ24" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="KR24" t="n">
+      <c r="KR24" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="KS24" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -23352,8 +23424,11 @@
       <c r="KQ25" s="1" t="n">
         <v>68.8</v>
       </c>
-      <c r="KR25" t="n">
+      <c r="KR25" s="1" t="n">
         <v>42.9</v>
+      </c>
+      <c r="KS25" t="n">
+        <v>53.8</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -24268,8 +24343,11 @@
       <c r="KQ26" s="1" t="n">
         <v>20.36</v>
       </c>
-      <c r="KR26" t="n">
+      <c r="KR26" s="1" t="n">
         <v>35.33</v>
+      </c>
+      <c r="KS26" t="n">
+        <v>29.21</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -25184,8 +25262,11 @@
       <c r="KQ27" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KR27" t="n">
+      <c r="KR27" s="1" t="n">
         <v>15.14</v>
+      </c>
+      <c r="KS27" t="n">
+        <v>15.73</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -26100,8 +26181,11 @@
       <c r="KQ28" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="KR28" t="n">
+      <c r="KR28" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="KS28" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -27016,8 +27100,11 @@
       <c r="KQ29" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="KR29" t="n">
+      <c r="KR29" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="KS29" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -27932,8 +28019,11 @@
       <c r="KQ30" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="KR30" t="n">
+      <c r="KR30" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="KS30" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -28848,8 +28938,11 @@
       <c r="KQ31" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="KR31" t="n">
+      <c r="KR31" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="KS31" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -29764,8 +29857,11 @@
       <c r="KQ32" s="1" t="n">
         <v>2.19</v>
       </c>
-      <c r="KR32" t="n">
+      <c r="KR32" s="1" t="n">
         <v>2.07</v>
+      </c>
+      <c r="KS32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -30680,8 +30776,11 @@
       <c r="KQ33" s="1" t="n">
         <v>3.18</v>
       </c>
-      <c r="KR33" t="n">
+      <c r="KR33" s="1" t="n">
         <v>4.83</v>
+      </c>
+      <c r="KS33" t="n">
+        <v>3.71</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -31596,8 +31695,11 @@
       <c r="KQ34" s="1" t="n">
         <v>41.4</v>
       </c>
-      <c r="KR34" t="n">
+      <c r="KR34" s="1" t="n">
         <v>44.8</v>
+      </c>
+      <c r="KS34" t="n">
+        <v>46.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -32512,8 +32614,11 @@
       <c r="KQ35" s="1" t="n">
         <v>31.4</v>
       </c>
-      <c r="KR35" t="n">
+      <c r="KR35" s="1" t="n">
         <v>20.7</v>
+      </c>
+      <c r="KS35" t="n">
+        <v>26.9</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -33428,8 +33533,11 @@
       <c r="KQ36" s="1" t="n">
         <v>188.7</v>
       </c>
-      <c r="KR36" t="n">
+      <c r="KR36" s="1" t="n">
         <v>188.7</v>
+      </c>
+      <c r="KS36" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -34344,8 +34452,11 @@
       <c r="KQ37" s="1" t="n">
         <v>87.3</v>
       </c>
-      <c r="KR37" t="n">
+      <c r="KR37" s="1" t="n">
         <v>87.3</v>
+      </c>
+      <c r="KS37" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -35260,8 +35371,11 @@
       <c r="KQ38" s="1" t="n">
         <v>24.8</v>
       </c>
-      <c r="KR38" t="n">
+      <c r="KR38" s="1" t="n">
         <v>24.8</v>
+      </c>
+      <c r="KS38" t="n">
+        <v>23.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -36176,8 +36290,11 @@
       <c r="KQ39" s="1" t="n">
         <v>66.2</v>
       </c>
-      <c r="KR39" t="n">
+      <c r="KR39" s="1" t="n">
         <v>67.2</v>
+      </c>
+      <c r="KS39" t="n">
+        <v>65.5</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -37092,7 +37209,10 @@
       <c r="KQ40" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KR40" t="n">
+      <c r="KR40" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="KS40" t="n">
         <v>13</v>
       </c>
     </row>
@@ -38008,8 +38128,11 @@
       <c r="KQ41" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KR41" t="n">
+      <c r="KR41" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KS41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -38924,8 +39047,11 @@
       <c r="KQ42" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KR42" t="n">
+      <c r="KR42" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KS42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -39840,7 +39966,10 @@
       <c r="KQ43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KR43" t="n">
+      <c r="KR43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KS43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -40756,8 +40885,11 @@
       <c r="KQ44" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="KR44" t="n">
+      <c r="KR44" s="1" t="n">
         <v>130</v>
+      </c>
+      <c r="KS44" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -41672,8 +41804,11 @@
       <c r="KQ45" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="KR45" t="n">
+      <c r="KR45" s="1" t="n">
         <v>296</v>
+      </c>
+      <c r="KS45" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -42588,8 +42723,11 @@
       <c r="KQ46" s="1" t="n">
         <v>336</v>
       </c>
-      <c r="KR46" t="n">
+      <c r="KR46" s="1" t="n">
         <v>337</v>
+      </c>
+      <c r="KS46" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -43504,8 +43642,11 @@
       <c r="KQ47" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="KR47" t="n">
+      <c r="KR47" s="1" t="n">
         <v>79.5</v>
+      </c>
+      <c r="KS47" t="n">
+        <v>76.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -44420,8 +44561,11 @@
       <c r="KQ48" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="KR48" t="n">
+      <c r="KR48" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="KS48" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -45336,8 +45480,11 @@
       <c r="KQ49" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KR49" t="n">
+      <c r="KR49" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KS49" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -46252,8 +46399,11 @@
       <c r="KQ50" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="KR50" t="n">
+      <c r="KR50" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="KS50" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -47168,8 +47318,11 @@
       <c r="KQ51" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="KR51" t="n">
+      <c r="KR51" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="KS51" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -48084,8 +48237,11 @@
       <c r="KQ52" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="KR52" t="n">
+      <c r="KR52" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="KS52" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -49000,8 +49156,11 @@
       <c r="KQ53" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="KR53" t="n">
+      <c r="KR53" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="KS53" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -49916,7 +50075,10 @@
       <c r="KQ54" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KR54" t="n">
+      <c r="KR54" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="KS54" t="n">
         <v>16</v>
       </c>
     </row>
@@ -50832,7 +50994,10 @@
       <c r="KQ55" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KR55" t="n">
+      <c r="KR55" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="KS55" t="n">
         <v>11</v>
       </c>
     </row>
@@ -51748,8 +51913,11 @@
       <c r="KQ56" s="1" t="n">
         <v>77.3</v>
       </c>
-      <c r="KR56" t="n">
+      <c r="KR56" s="1" t="n">
         <v>91.7</v>
+      </c>
+      <c r="KS56" t="n">
+        <v>78.59999999999999</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -52664,8 +52832,11 @@
       <c r="KQ57" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="KR57" t="n">
+      <c r="KR57" s="1" t="n">
         <v>224</v>
+      </c>
+      <c r="KS57" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -53580,8 +53751,11 @@
       <c r="KQ58" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="KR58" t="n">
+      <c r="KR58" s="1" t="n">
         <v>131</v>
+      </c>
+      <c r="KS58" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -54496,8 +54670,11 @@
       <c r="KQ59" s="1" t="n">
         <v>311</v>
       </c>
-      <c r="KR59" t="n">
+      <c r="KR59" s="1" t="n">
         <v>355</v>
+      </c>
+      <c r="KS59" t="n">
+        <v>356</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -55412,8 +55589,11 @@
       <c r="KQ60" s="1" t="n">
         <v>1.37</v>
       </c>
-      <c r="KR60" t="n">
+      <c r="KR60" s="1" t="n">
         <v>1.71</v>
+      </c>
+      <c r="KS60" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -56328,8 +56508,11 @@
       <c r="KQ61" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="KR61" t="n">
+      <c r="KR61" s="1" t="n">
         <v>100</v>
+      </c>
+      <c r="KS61" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -57244,8 +57427,11 @@
       <c r="KQ62" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="KR62" t="n">
+      <c r="KR62" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="KS62" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -58160,8 +58346,11 @@
       <c r="KQ63" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="KR63" t="n">
+      <c r="KR63" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="KS63" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -59076,8 +59265,11 @@
       <c r="KQ64" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KR64" t="n">
+      <c r="KR64" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="KS64" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -59992,8 +60184,11 @@
       <c r="KQ65" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KR65" t="n">
+      <c r="KR65" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KS65" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -60908,8 +61103,11 @@
       <c r="KQ66" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KR66" t="n">
+      <c r="KR66" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KS66" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -61824,8 +62022,11 @@
       <c r="KQ67" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KR67" t="n">
+      <c r="KR67" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KS67" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -62740,8 +62941,11 @@
       <c r="KQ68" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KR68" t="n">
+      <c r="KR68" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KS68" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -63656,8 +63860,11 @@
       <c r="KQ69" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KR69" t="n">
+      <c r="KR69" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KS69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -64572,8 +64779,11 @@
       <c r="KQ70" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KR70" t="n">
+      <c r="KR70" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="KS70" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -65488,8 +65698,11 @@
       <c r="KQ71" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="KR71" t="n">
+      <c r="KR71" s="1" t="n">
         <v>66.7</v>
+      </c>
+      <c r="KS71" t="n">
+        <v>63.9</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -66404,8 +66617,11 @@
       <c r="KQ72" s="1" t="n">
         <v>77.75</v>
       </c>
-      <c r="KR72" t="n">
+      <c r="KR72" s="1" t="n">
         <v>29.58</v>
+      </c>
+      <c r="KS72" t="n">
+        <v>15.48</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -67320,8 +67536,11 @@
       <c r="KQ73" s="1" t="n">
         <v>51.83</v>
       </c>
-      <c r="KR73" t="n">
+      <c r="KR73" s="1" t="n">
         <v>19.72</v>
+      </c>
+      <c r="KS73" t="n">
+        <v>9.890000000000001</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -68236,8 +68455,11 @@
       <c r="KQ74" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KR74" t="n">
+      <c r="KR74" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="KS74" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -69152,8 +69374,11 @@
       <c r="KQ75" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="KR75" t="n">
+      <c r="KR75" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="KS75" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -70068,8 +70293,11 @@
       <c r="KQ76" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="KR76" t="n">
+      <c r="KR76" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="KS76" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -70984,8 +71212,11 @@
       <c r="KQ77" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="KR77" t="n">
+      <c r="KR77" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="KS77" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -71900,8 +72131,11 @@
       <c r="KQ78" s="1" t="n">
         <v>4.83</v>
       </c>
-      <c r="KR78" t="n">
+      <c r="KR78" s="1" t="n">
         <v>2.39</v>
+      </c>
+      <c r="KS78" t="n">
+        <v>1.97</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -72816,8 +73050,11 @@
       <c r="KQ79" s="1" t="n">
         <v>7.25</v>
       </c>
-      <c r="KR79" t="n">
+      <c r="KR79" s="1" t="n">
         <v>3.58</v>
+      </c>
+      <c r="KS79" t="n">
+        <v>3.09</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -73732,8 +73969,11 @@
       <c r="KQ80" s="1" t="n">
         <v>20.7</v>
       </c>
-      <c r="KR80" t="n">
+      <c r="KR80" s="1" t="n">
         <v>37.2</v>
+      </c>
+      <c r="KS80" t="n">
+        <v>49.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -74648,8 +74888,11 @@
       <c r="KQ81" s="1" t="n">
         <v>13.8</v>
       </c>
-      <c r="KR81" t="n">
+      <c r="KR81" s="1" t="n">
         <v>27.9</v>
+      </c>
+      <c r="KS81" t="n">
+        <v>32.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -75564,8 +75807,11 @@
       <c r="KQ82" s="1" t="n">
         <v>189.3</v>
       </c>
-      <c r="KR82" t="n">
+      <c r="KR82" s="1" t="n">
         <v>188.2</v>
+      </c>
+      <c r="KS82" t="n">
+        <v>187.9</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -76480,8 +76726,11 @@
       <c r="KQ83" s="1" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="KR83" t="n">
+      <c r="KR83" s="1" t="n">
         <v>85.5</v>
+      </c>
+      <c r="KS83" t="n">
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -77396,8 +77645,11 @@
       <c r="KQ84" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="KR84" t="n">
+      <c r="KR84" s="1" t="n">
         <v>25.49</v>
+      </c>
+      <c r="KS84" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -78312,8 +78564,11 @@
       <c r="KQ85" s="1" t="n">
         <v>62.1</v>
       </c>
-      <c r="KR85" t="n">
+      <c r="KR85" s="1" t="n">
         <v>94.40000000000001</v>
+      </c>
+      <c r="KS85" t="n">
+        <v>84.5</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -79228,8 +79483,11 @@
       <c r="KQ86" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KR86" t="n">
+      <c r="KR86" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KS86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -80144,8 +80402,11 @@
       <c r="KQ87" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KR87" t="n">
+      <c r="KR87" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KS87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -81060,8 +81321,11 @@
       <c r="KQ88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KR88" t="n">
+      <c r="KR88" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KS88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -81976,7 +82240,10 @@
       <c r="KQ89" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KR89" t="n">
+      <c r="KR89" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KS89" t="n">
         <v>3</v>
       </c>
     </row>
@@ -82892,8 +83159,11 @@
       <c r="KQ90" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="KR90" t="n">
+      <c r="KR90" s="1" t="n">
         <v>117</v>
+      </c>
+      <c r="KS90" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -83808,8 +84078,11 @@
       <c r="KQ91" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="KR91" t="n">
+      <c r="KR91" s="1" t="n">
         <v>220</v>
+      </c>
+      <c r="KS91" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -84724,8 +84997,11 @@
       <c r="KQ92" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="KR92" t="n">
+      <c r="KR92" s="1" t="n">
         <v>269</v>
+      </c>
+      <c r="KS92" t="n">
+        <v>271</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -85640,8 +85916,11 @@
       <c r="KQ93" s="1" t="n">
         <v>69.09999999999999</v>
       </c>
-      <c r="KR93" t="n">
+      <c r="KR93" s="1" t="n">
         <v>75.8</v>
+      </c>
+      <c r="KS93" t="n">
+        <v>76.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -86556,8 +86835,11 @@
       <c r="KQ94" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="KR94" t="n">
+      <c r="KR94" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="KS94" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -87472,8 +87754,11 @@
       <c r="KQ95" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KR95" t="n">
+      <c r="KR95" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KS95" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -88388,8 +88673,11 @@
       <c r="KQ96" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KR96" t="n">
+      <c r="KR96" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KS96" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -89304,8 +89592,11 @@
       <c r="KQ97" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KR97" t="n">
+      <c r="KR97" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="KS97" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -90220,8 +90511,11 @@
       <c r="KQ98" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="KR98" t="n">
+      <c r="KR98" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="KS98" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -91136,8 +91430,11 @@
       <c r="KQ99" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="KR99" t="n">
+      <c r="KR99" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="KS99" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -92052,8 +92349,11 @@
       <c r="KQ100" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KR100" t="n">
+      <c r="KR100" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KS100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -92968,8 +93268,11 @@
       <c r="KQ101" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KR101" t="n">
+      <c r="KR101" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KS101" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -93884,8 +94187,11 @@
       <c r="KQ102" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="KR102" t="n">
+      <c r="KR102" s="1" t="n">
         <v>66.7</v>
+      </c>
+      <c r="KS102" t="n">
+        <v>78.3</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/AFL_ML/Data/Hawthorn_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KT102"/>
+  <dimension ref="A1:KU102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KI93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KN97" activeCellId="0" sqref="KN97"/>
@@ -1374,8 +1374,11 @@
       <c r="KS1" s="1" t="n">
         <v>10851</v>
       </c>
-      <c r="KT1" t="n">
+      <c r="KT1" s="1" t="n">
         <v>10859</v>
+      </c>
+      <c r="KU1" t="n">
+        <v>10876</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2296,7 +2299,10 @@
       <c r="KS2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KT2" t="n">
+      <c r="KT2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KU2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3218,8 +3224,11 @@
       <c r="KS3" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KT3" t="n">
+      <c r="KT3" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -4140,8 +4149,11 @@
       <c r="KS4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KT4" t="n">
+      <c r="KT4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -5062,7 +5074,10 @@
       <c r="KS5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KT5" t="n">
+      <c r="KT5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5984,8 +5999,11 @@
       <c r="KS6" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="KT6" t="n">
+      <c r="KT6" s="1" t="n">
         <v>98</v>
+      </c>
+      <c r="KU6" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6906,8 +6924,11 @@
       <c r="KS7" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="KT7" t="n">
+      <c r="KT7" s="1" t="n">
         <v>73</v>
+      </c>
+      <c r="KU7" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7828,8 +7849,11 @@
       <c r="KS8" s="1" t="n">
         <v>-55</v>
       </c>
-      <c r="KT8" t="n">
+      <c r="KT8" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="KU8" t="n">
+        <v>-67</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8750,8 +8774,11 @@
       <c r="KS9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KT9" t="n">
+      <c r="KT9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KU9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -9672,8 +9699,11 @@
       <c r="KS10" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KT10" t="n">
+      <c r="KT10" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KU10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10594,8 +10624,11 @@
       <c r="KS11" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="KT11" t="n">
+      <c r="KT11" s="1" t="n">
         <v>215</v>
+      </c>
+      <c r="KU11" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -11516,8 +11549,11 @@
       <c r="KS12" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="KT12" t="n">
+      <c r="KT12" s="1" t="n">
         <v>211</v>
+      </c>
+      <c r="KU12" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -12438,8 +12474,11 @@
       <c r="KS13" s="1" t="n">
         <v>409</v>
       </c>
-      <c r="KT13" t="n">
+      <c r="KT13" s="1" t="n">
         <v>426</v>
+      </c>
+      <c r="KU13" t="n">
+        <v>385</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -13360,8 +13399,11 @@
       <c r="KS14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KT14" t="n">
+      <c r="KT14" s="1" t="n">
         <v>1.02</v>
+      </c>
+      <c r="KU14" t="n">
+        <v>1.14</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -14282,8 +14324,11 @@
       <c r="KS15" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="KT15" t="n">
+      <c r="KT15" s="1" t="n">
         <v>110</v>
+      </c>
+      <c r="KU15" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -15204,8 +15249,11 @@
       <c r="KS16" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KT16" t="n">
+      <c r="KT16" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="KU16" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -16126,8 +16174,11 @@
       <c r="KS17" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="KT17" t="n">
+      <c r="KT17" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="KU17" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -17048,8 +17099,11 @@
       <c r="KS18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KT18" t="n">
+      <c r="KT18" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KU18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -17970,8 +18024,11 @@
       <c r="KS19" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KT19" t="n">
+      <c r="KT19" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="KU19" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -18892,8 +18949,11 @@
       <c r="KS20" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KT20" t="n">
+      <c r="KT20" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KU20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -19814,8 +19874,11 @@
       <c r="KS21" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KT21" t="n">
+      <c r="KT21" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KU21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -20736,8 +20799,11 @@
       <c r="KS22" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KT22" t="n">
+      <c r="KT22" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KU22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -21658,8 +21724,11 @@
       <c r="KS23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KT23" t="n">
+      <c r="KT23" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KU23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -22580,8 +22649,11 @@
       <c r="KS24" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="KT24" t="n">
+      <c r="KT24" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="KU24" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -23502,8 +23574,11 @@
       <c r="KS25" s="1" t="n">
         <v>53.8</v>
       </c>
-      <c r="KT25" t="n">
+      <c r="KT25" s="1" t="n">
         <v>65.2</v>
+      </c>
+      <c r="KU25" t="n">
+        <v>55.6</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -24424,8 +24499,11 @@
       <c r="KS26" s="1" t="n">
         <v>29.21</v>
       </c>
-      <c r="KT26" t="n">
+      <c r="KT26" s="1" t="n">
         <v>28.4</v>
+      </c>
+      <c r="KU26" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -25346,8 +25424,11 @@
       <c r="KS27" s="1" t="n">
         <v>15.73</v>
       </c>
-      <c r="KT27" t="n">
+      <c r="KT27" s="1" t="n">
         <v>18.52</v>
+      </c>
+      <c r="KU27" t="n">
+        <v>42.78</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -26268,8 +26349,11 @@
       <c r="KS28" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="KT28" t="n">
+      <c r="KT28" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="KU28" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -27190,8 +27274,11 @@
       <c r="KS29" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="KT29" t="n">
+      <c r="KT29" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="KU29" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -28112,8 +28199,11 @@
       <c r="KS30" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="KT30" t="n">
+      <c r="KT30" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="KU30" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -29034,8 +29124,11 @@
       <c r="KS31" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="KT31" t="n">
+      <c r="KT31" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="KU31" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -29956,8 +30049,11 @@
       <c r="KS32" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KT32" t="n">
+      <c r="KT32" s="1" t="n">
         <v>2.7</v>
+      </c>
+      <c r="KU32" t="n">
+        <v>4.11</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -30878,8 +30974,11 @@
       <c r="KS33" s="1" t="n">
         <v>3.71</v>
       </c>
-      <c r="KT33" t="n">
+      <c r="KT33" s="1" t="n">
         <v>4.13</v>
+      </c>
+      <c r="KU33" t="n">
+        <v>7.4</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -31800,8 +31899,11 @@
       <c r="KS34" s="1" t="n">
         <v>46.2</v>
       </c>
-      <c r="KT34" t="n">
+      <c r="KT34" s="1" t="n">
         <v>32.3</v>
+      </c>
+      <c r="KU34" t="n">
+        <v>21.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -32722,8 +32824,11 @@
       <c r="KS35" s="1" t="n">
         <v>26.9</v>
       </c>
-      <c r="KT35" t="n">
+      <c r="KT35" s="1" t="n">
         <v>24.2</v>
+      </c>
+      <c r="KU35" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -33644,8 +33749,11 @@
       <c r="KS36" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="KT36" t="n">
+      <c r="KT36" s="1" t="n">
         <v>188.6</v>
+      </c>
+      <c r="KU36" t="n">
+        <v>188.9</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -34566,8 +34674,11 @@
       <c r="KS37" s="1" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="KT37" t="n">
+      <c r="KT37" s="1" t="n">
         <v>87</v>
+      </c>
+      <c r="KU37" t="n">
+        <v>87.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -35488,8 +35599,11 @@
       <c r="KS38" s="1" t="n">
         <v>23.91</v>
       </c>
-      <c r="KT38" t="n">
+      <c r="KT38" s="1" t="n">
         <v>23.91</v>
+      </c>
+      <c r="KU38" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -36410,8 +36524,11 @@
       <c r="KS39" s="1" t="n">
         <v>65.5</v>
       </c>
-      <c r="KT39" t="n">
+      <c r="KT39" s="1" t="n">
         <v>65.59999999999999</v>
+      </c>
+      <c r="KU39" t="n">
+        <v>67.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -37332,7 +37449,10 @@
       <c r="KS40" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KT40" t="n">
+      <c r="KT40" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="KU40" t="n">
         <v>13</v>
       </c>
     </row>
@@ -38254,7 +38374,10 @@
       <c r="KS41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KT41" t="n">
+      <c r="KT41" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KU41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -39176,8 +39299,11 @@
       <c r="KS42" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KT42" t="n">
+      <c r="KT42" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KU42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -40098,8 +40224,11 @@
       <c r="KS43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KT43" t="n">
+      <c r="KT43" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KU43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -41020,8 +41149,11 @@
       <c r="KS44" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="KT44" t="n">
+      <c r="KT44" s="1" t="n">
         <v>137</v>
+      </c>
+      <c r="KU44" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -41942,8 +42074,11 @@
       <c r="KS45" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="KT45" t="n">
+      <c r="KT45" s="1" t="n">
         <v>293</v>
+      </c>
+      <c r="KU45" t="n">
+        <v>248</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -42864,8 +42999,11 @@
       <c r="KS46" s="1" t="n">
         <v>312</v>
       </c>
-      <c r="KT46" t="n">
+      <c r="KT46" s="1" t="n">
         <v>332</v>
+      </c>
+      <c r="KU46" t="n">
+        <v>281</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -43786,8 +43924,11 @@
       <c r="KS47" s="1" t="n">
         <v>76.3</v>
       </c>
-      <c r="KT47" t="n">
+      <c r="KT47" s="1" t="n">
         <v>77.90000000000001</v>
+      </c>
+      <c r="KU47" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -44708,8 +44849,11 @@
       <c r="KS48" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="KT48" t="n">
+      <c r="KT48" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="KU48" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -45630,8 +45774,11 @@
       <c r="KS49" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KT49" t="n">
+      <c r="KT49" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KU49" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -46552,8 +46699,11 @@
       <c r="KS50" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KT50" t="n">
+      <c r="KT50" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KU50" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -47474,8 +47624,11 @@
       <c r="KS51" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="KT51" t="n">
+      <c r="KT51" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="KU51" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -48396,8 +48549,11 @@
       <c r="KS52" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="KT52" t="n">
+      <c r="KT52" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="KU52" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -49318,7 +49474,10 @@
       <c r="KS53" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KT53" t="n">
+      <c r="KT53" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="KU53" t="n">
         <v>40</v>
       </c>
     </row>
@@ -50240,7 +50399,10 @@
       <c r="KS54" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KT54" t="n">
+      <c r="KT54" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="KU54" t="n">
         <v>12</v>
       </c>
     </row>
@@ -51162,8 +51324,11 @@
       <c r="KS55" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KT55" t="n">
+      <c r="KT55" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KU55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -52084,8 +52249,11 @@
       <c r="KS56" s="1" t="n">
         <v>78.59999999999999</v>
       </c>
-      <c r="KT56" t="n">
+      <c r="KT56" s="1" t="n">
         <v>66.7</v>
+      </c>
+      <c r="KU56" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -53006,8 +53174,11 @@
       <c r="KS57" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="KT57" t="n">
+      <c r="KT57" s="1" t="n">
         <v>208</v>
+      </c>
+      <c r="KU57" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -53928,7 +54099,10 @@
       <c r="KS58" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="KT58" t="n">
+      <c r="KT58" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="KU58" t="n">
         <v>116</v>
       </c>
     </row>
@@ -54850,8 +55024,11 @@
       <c r="KS59" s="1" t="n">
         <v>356</v>
       </c>
-      <c r="KT59" t="n">
+      <c r="KT59" s="1" t="n">
         <v>324</v>
+      </c>
+      <c r="KU59" t="n">
+        <v>368</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -55772,8 +55949,11 @@
       <c r="KS60" s="1" t="n">
         <v>1.83</v>
       </c>
-      <c r="KT60" t="n">
+      <c r="KT60" s="1" t="n">
         <v>1.79</v>
+      </c>
+      <c r="KU60" t="n">
+        <v>2.17</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -56694,8 +56874,11 @@
       <c r="KS61" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="KT61" t="n">
+      <c r="KT61" s="1" t="n">
         <v>90</v>
+      </c>
+      <c r="KU61" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -57616,8 +57799,11 @@
       <c r="KS62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="KT62" t="n">
+      <c r="KT62" s="1" t="n">
         <v>71</v>
+      </c>
+      <c r="KU62" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -58538,8 +58724,11 @@
       <c r="KS63" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="KT63" t="n">
+      <c r="KT63" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="KU63" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -59460,8 +59649,11 @@
       <c r="KS64" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KT64" t="n">
+      <c r="KT64" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="KU64" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -60382,8 +60574,11 @@
       <c r="KS65" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KT65" t="n">
+      <c r="KT65" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KU65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -61304,8 +61499,11 @@
       <c r="KS66" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="KT66" t="n">
+      <c r="KT66" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KU66" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -62226,8 +62424,11 @@
       <c r="KS67" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="KT67" t="n">
+      <c r="KT67" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KU67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -63148,8 +63349,11 @@
       <c r="KS68" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KT68" t="n">
+      <c r="KT68" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KU68" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -64070,8 +64274,11 @@
       <c r="KS69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KT69" t="n">
+      <c r="KT69" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KU69" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -64992,8 +65199,11 @@
       <c r="KS70" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="KT70" t="n">
+      <c r="KT70" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="KU70" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -65914,8 +66124,11 @@
       <c r="KS71" s="1" t="n">
         <v>63.9</v>
       </c>
-      <c r="KT71" t="n">
+      <c r="KT71" s="1" t="n">
         <v>61.1</v>
+      </c>
+      <c r="KU71" t="n">
+        <v>45.2</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -66836,8 +67049,11 @@
       <c r="KS72" s="1" t="n">
         <v>15.48</v>
       </c>
-      <c r="KT72" t="n">
+      <c r="KT72" s="1" t="n">
         <v>29.45</v>
+      </c>
+      <c r="KU72" t="n">
+        <v>26.29</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -67758,8 +67974,11 @@
       <c r="KS73" s="1" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="KT73" t="n">
+      <c r="KT73" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="KU73" t="n">
+        <v>11.87</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -68680,8 +68899,11 @@
       <c r="KS74" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KT74" t="n">
+      <c r="KT74" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="KU74" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -69602,8 +69824,11 @@
       <c r="KS75" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="KT75" t="n">
+      <c r="KT75" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="KU75" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -70524,8 +70749,11 @@
       <c r="KS76" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KT76" t="n">
+      <c r="KT76" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="KU76" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -71446,8 +71674,11 @@
       <c r="KS77" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="KT77" t="n">
+      <c r="KT77" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="KU77" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -72368,8 +72599,11 @@
       <c r="KS78" s="1" t="n">
         <v>1.97</v>
       </c>
-      <c r="KT78" t="n">
+      <c r="KT78" s="1" t="n">
         <v>2.5</v>
+      </c>
+      <c r="KU78" t="n">
+        <v>2.19</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -73290,8 +73524,11 @@
       <c r="KS79" s="1" t="n">
         <v>3.09</v>
       </c>
-      <c r="KT79" t="n">
+      <c r="KT79" s="1" t="n">
         <v>4.09</v>
+      </c>
+      <c r="KU79" t="n">
+        <v>4.86</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -74212,8 +74449,11 @@
       <c r="KS80" s="1" t="n">
         <v>49.3</v>
       </c>
-      <c r="KT80" t="n">
+      <c r="KT80" s="1" t="n">
         <v>35.6</v>
+      </c>
+      <c r="KU80" t="n">
+        <v>38.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -75134,8 +75374,11 @@
       <c r="KS81" s="1" t="n">
         <v>32.4</v>
       </c>
-      <c r="KT81" t="n">
+      <c r="KT81" s="1" t="n">
         <v>24.4</v>
+      </c>
+      <c r="KU81" t="n">
+        <v>20.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -76056,8 +76299,11 @@
       <c r="KS82" s="1" t="n">
         <v>187.9</v>
       </c>
-      <c r="KT82" t="n">
+      <c r="KT82" s="1" t="n">
         <v>188.7</v>
+      </c>
+      <c r="KU82" t="n">
+        <v>187.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -76978,8 +77224,11 @@
       <c r="KS83" s="1" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="KT83" t="n">
+      <c r="KT83" s="1" t="n">
         <v>89</v>
+      </c>
+      <c r="KU83" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -77900,8 +78149,11 @@
       <c r="KS84" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="KT84" t="n">
+      <c r="KT84" s="1" t="n">
         <v>25.91</v>
+      </c>
+      <c r="KU84" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -78822,8 +79074,11 @@
       <c r="KS85" s="1" t="n">
         <v>84.5</v>
       </c>
-      <c r="KT85" t="n">
+      <c r="KT85" s="1" t="n">
         <v>119.7</v>
+      </c>
+      <c r="KU85" t="n">
+        <v>94.90000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -79744,7 +79999,10 @@
       <c r="KS86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KT86" t="n">
+      <c r="KT86" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KU86" t="n">
         <v>5</v>
       </c>
     </row>
@@ -80666,8 +80924,11 @@
       <c r="KS87" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KT87" t="n">
+      <c r="KT87" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KU87" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -81588,8 +81849,11 @@
       <c r="KS88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KT88" t="n">
+      <c r="KT88" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KU88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -82510,8 +82774,11 @@
       <c r="KS89" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KT89" t="n">
+      <c r="KT89" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KU89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -83432,8 +83699,11 @@
       <c r="KS90" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="KT90" t="n">
+      <c r="KT90" s="1" t="n">
         <v>124</v>
+      </c>
+      <c r="KU90" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -84354,8 +84624,11 @@
       <c r="KS91" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="KT91" t="n">
+      <c r="KT91" s="1" t="n">
         <v>190</v>
+      </c>
+      <c r="KU91" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -85276,8 +85549,11 @@
       <c r="KS92" s="1" t="n">
         <v>271</v>
       </c>
-      <c r="KT92" t="n">
+      <c r="KT92" s="1" t="n">
         <v>233</v>
+      </c>
+      <c r="KU92" t="n">
+        <v>280</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -86198,8 +86474,11 @@
       <c r="KS93" s="1" t="n">
         <v>76.09999999999999</v>
       </c>
-      <c r="KT93" t="n">
+      <c r="KT93" s="1" t="n">
         <v>71.90000000000001</v>
+      </c>
+      <c r="KU93" t="n">
+        <v>76.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -87120,8 +87399,11 @@
       <c r="KS94" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="KT94" t="n">
+      <c r="KT94" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="KU94" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -88042,7 +88324,10 @@
       <c r="KS95" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KT95" t="n">
+      <c r="KT95" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="KU95" t="n">
         <v>11</v>
       </c>
     </row>
@@ -88964,8 +89249,11 @@
       <c r="KS96" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KT96" t="n">
+      <c r="KT96" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KU96" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -89886,8 +90174,11 @@
       <c r="KS97" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KT97" t="n">
+      <c r="KT97" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="KU97" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -90808,8 +91099,11 @@
       <c r="KS98" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KT98" t="n">
+      <c r="KT98" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="KU98" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -91730,8 +92024,11 @@
       <c r="KS99" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="KT99" t="n">
+      <c r="KT99" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="KU99" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -92652,8 +92949,11 @@
       <c r="KS100" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KT100" t="n">
+      <c r="KT100" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KU100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -93574,8 +93874,11 @@
       <c r="KS101" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="KT101" t="n">
+      <c r="KT101" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KU101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -94496,8 +94799,11 @@
       <c r="KS102" s="1" t="n">
         <v>78.3</v>
       </c>
-      <c r="KT102" t="n">
+      <c r="KT102" s="1" t="n">
         <v>72.7</v>
+      </c>
+      <c r="KU102" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/AFL_ML/Data/Hawthorn_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KU102"/>
+  <dimension ref="A1:KV102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KI93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KN97" activeCellId="0" sqref="KN97"/>
@@ -1377,8 +1377,11 @@
       <c r="KT1" s="1" t="n">
         <v>10859</v>
       </c>
-      <c r="KU1" t="n">
+      <c r="KU1" s="1" t="n">
         <v>10876</v>
+      </c>
+      <c r="KV1" t="n">
+        <v>10880</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2302,7 +2305,10 @@
       <c r="KT2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KU2" t="n">
+      <c r="KU2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KV2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3227,8 +3233,11 @@
       <c r="KT3" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KU3" t="n">
+      <c r="KU3" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -4152,8 +4161,11 @@
       <c r="KT4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KU4" t="n">
+      <c r="KU4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -5077,8 +5089,11 @@
       <c r="KT5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KU5" t="n">
+      <c r="KU5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KV5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -6002,8 +6017,11 @@
       <c r="KT6" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="KU6" t="n">
+      <c r="KU6" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="KV6" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6927,8 +6945,11 @@
       <c r="KT7" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="KU7" t="n">
+      <c r="KU7" s="1" t="n">
         <v>101</v>
+      </c>
+      <c r="KV7" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7852,8 +7873,11 @@
       <c r="KT8" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="KU8" t="n">
+      <c r="KU8" s="1" t="n">
         <v>-67</v>
+      </c>
+      <c r="KV8" t="n">
+        <v>-60</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8777,7 +8801,10 @@
       <c r="KT9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KU9" t="n">
+      <c r="KU9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9702,8 +9729,11 @@
       <c r="KT10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KU10" t="n">
+      <c r="KU10" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KV10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10627,8 +10657,11 @@
       <c r="KT11" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="KU11" t="n">
+      <c r="KU11" s="1" t="n">
         <v>205</v>
+      </c>
+      <c r="KV11" t="n">
+        <v>182</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -11552,8 +11585,11 @@
       <c r="KT12" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="KU12" t="n">
+      <c r="KU12" s="1" t="n">
         <v>180</v>
+      </c>
+      <c r="KV12" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -12477,8 +12513,11 @@
       <c r="KT13" s="1" t="n">
         <v>426</v>
       </c>
-      <c r="KU13" t="n">
+      <c r="KU13" s="1" t="n">
         <v>385</v>
+      </c>
+      <c r="KV13" t="n">
+        <v>348</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -13402,8 +13441,11 @@
       <c r="KT14" s="1" t="n">
         <v>1.02</v>
       </c>
-      <c r="KU14" t="n">
+      <c r="KU14" s="1" t="n">
         <v>1.14</v>
+      </c>
+      <c r="KV14" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -14327,8 +14369,11 @@
       <c r="KT15" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="KU15" t="n">
+      <c r="KU15" s="1" t="n">
         <v>82</v>
+      </c>
+      <c r="KV15" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -15252,8 +15297,11 @@
       <c r="KT16" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="KU16" t="n">
+      <c r="KU16" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="KV16" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -16177,8 +16225,11 @@
       <c r="KT17" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="KU17" t="n">
+      <c r="KU17" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="KV17" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -17102,8 +17153,11 @@
       <c r="KT18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KU18" t="n">
+      <c r="KU18" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="KV18" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -18027,8 +18081,11 @@
       <c r="KT19" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="KU19" t="n">
+      <c r="KU19" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KV19" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -18952,8 +19009,11 @@
       <c r="KT20" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KU20" t="n">
+      <c r="KU20" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KV20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -19877,8 +19937,11 @@
       <c r="KT21" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KU21" t="n">
+      <c r="KU21" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KV21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -20802,8 +20865,11 @@
       <c r="KT22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KU22" t="n">
+      <c r="KU22" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KV22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -21727,8 +21793,11 @@
       <c r="KT23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KU23" t="n">
+      <c r="KU23" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KV23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -22652,8 +22721,11 @@
       <c r="KT24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="KU24" t="n">
+      <c r="KU24" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KV24" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -23577,8 +23649,11 @@
       <c r="KT25" s="1" t="n">
         <v>65.2</v>
       </c>
-      <c r="KU25" t="n">
+      <c r="KU25" s="1" t="n">
         <v>55.6</v>
+      </c>
+      <c r="KV25" t="n">
+        <v>41.2</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -24502,8 +24577,11 @@
       <c r="KT26" s="1" t="n">
         <v>28.4</v>
       </c>
-      <c r="KU26" t="n">
+      <c r="KU26" s="1" t="n">
         <v>77</v>
+      </c>
+      <c r="KV26" t="n">
+        <v>49.71</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -25427,8 +25505,11 @@
       <c r="KT27" s="1" t="n">
         <v>18.52</v>
       </c>
-      <c r="KU27" t="n">
+      <c r="KU27" s="1" t="n">
         <v>42.78</v>
+      </c>
+      <c r="KV27" t="n">
+        <v>20.47</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -26352,8 +26433,11 @@
       <c r="KT28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="KU28" t="n">
+      <c r="KU28" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="KV28" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -27277,8 +27361,11 @@
       <c r="KT29" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="KU29" t="n">
+      <c r="KU29" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="KV29" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -28202,8 +28289,11 @@
       <c r="KT30" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="KU30" t="n">
+      <c r="KU30" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="KV30" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -29127,8 +29217,11 @@
       <c r="KT31" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="KU31" t="n">
+      <c r="KU31" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="KV31" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -30052,8 +30145,11 @@
       <c r="KT32" s="1" t="n">
         <v>2.7</v>
       </c>
-      <c r="KU32" t="n">
+      <c r="KU32" s="1" t="n">
         <v>4.11</v>
+      </c>
+      <c r="KV32" t="n">
+        <v>2.82</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -30977,8 +31073,11 @@
       <c r="KT33" s="1" t="n">
         <v>4.13</v>
       </c>
-      <c r="KU33" t="n">
+      <c r="KU33" s="1" t="n">
         <v>7.4</v>
+      </c>
+      <c r="KV33" t="n">
+        <v>6.86</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -31902,8 +32001,11 @@
       <c r="KT34" s="1" t="n">
         <v>32.3</v>
       </c>
-      <c r="KU34" t="n">
+      <c r="KU34" s="1" t="n">
         <v>21.6</v>
+      </c>
+      <c r="KV34" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -32827,8 +32929,11 @@
       <c r="KT35" s="1" t="n">
         <v>24.2</v>
       </c>
-      <c r="KU35" t="n">
+      <c r="KU35" s="1" t="n">
         <v>13.5</v>
+      </c>
+      <c r="KV35" t="n">
+        <v>14.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -33752,8 +33857,11 @@
       <c r="KT36" s="1" t="n">
         <v>188.6</v>
       </c>
-      <c r="KU36" t="n">
+      <c r="KU36" s="1" t="n">
         <v>188.9</v>
+      </c>
+      <c r="KV36" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -34677,8 +34785,11 @@
       <c r="KT37" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="KU37" t="n">
+      <c r="KU37" s="1" t="n">
         <v>87.3</v>
+      </c>
+      <c r="KV37" t="n">
+        <v>86.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -35602,8 +35713,11 @@
       <c r="KT38" s="1" t="n">
         <v>23.91</v>
       </c>
-      <c r="KU38" t="n">
+      <c r="KU38" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="KV38" t="n">
+        <v>24.33</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -36527,8 +36641,11 @@
       <c r="KT39" s="1" t="n">
         <v>65.59999999999999</v>
       </c>
-      <c r="KU39" t="n">
+      <c r="KU39" s="1" t="n">
         <v>67.7</v>
+      </c>
+      <c r="KV39" t="n">
+        <v>72.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -37452,8 +37569,11 @@
       <c r="KT40" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KU40" t="n">
+      <c r="KU40" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="KV40" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -38377,8 +38497,11 @@
       <c r="KT41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KU41" t="n">
+      <c r="KU41" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KV41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -39302,7 +39425,10 @@
       <c r="KT42" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KU42" t="n">
+      <c r="KU42" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="KV42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -40227,7 +40353,10 @@
       <c r="KT43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KU43" t="n">
+      <c r="KU43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KV43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -41152,8 +41281,11 @@
       <c r="KT44" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="KU44" t="n">
+      <c r="KU44" s="1" t="n">
         <v>127</v>
+      </c>
+      <c r="KV44" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -42077,8 +42209,11 @@
       <c r="KT45" s="1" t="n">
         <v>293</v>
       </c>
-      <c r="KU45" t="n">
+      <c r="KU45" s="1" t="n">
         <v>248</v>
+      </c>
+      <c r="KV45" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -43002,8 +43137,11 @@
       <c r="KT46" s="1" t="n">
         <v>332</v>
       </c>
-      <c r="KU46" t="n">
+      <c r="KU46" s="1" t="n">
         <v>281</v>
+      </c>
+      <c r="KV46" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -43927,8 +44065,11 @@
       <c r="KT47" s="1" t="n">
         <v>77.90000000000001</v>
       </c>
-      <c r="KU47" t="n">
+      <c r="KU47" s="1" t="n">
         <v>73</v>
+      </c>
+      <c r="KV47" t="n">
+        <v>69.5</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -44852,8 +44993,11 @@
       <c r="KT48" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="KU48" t="n">
+      <c r="KU48" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="KV48" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -45777,8 +45921,11 @@
       <c r="KT49" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KU49" t="n">
+      <c r="KU49" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KV49" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -46702,8 +46849,11 @@
       <c r="KT50" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KU50" t="n">
+      <c r="KU50" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KV50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -47627,8 +47777,11 @@
       <c r="KT51" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="KU51" t="n">
+      <c r="KU51" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="KV51" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -48552,8 +48705,11 @@
       <c r="KT52" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="KU52" t="n">
+      <c r="KU52" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="KV52" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -49477,8 +49633,11 @@
       <c r="KT53" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KU53" t="n">
+      <c r="KU53" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="KV53" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -50402,8 +50561,11 @@
       <c r="KT54" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KU54" t="n">
+      <c r="KU54" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KV54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -51327,8 +51489,11 @@
       <c r="KT55" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KU55" t="n">
+      <c r="KU55" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KV55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -52252,8 +52417,11 @@
       <c r="KT56" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="KU56" t="n">
+      <c r="KU56" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="KV56" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -53177,8 +53345,11 @@
       <c r="KT57" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="KU57" t="n">
+      <c r="KU57" s="1" t="n">
         <v>252</v>
+      </c>
+      <c r="KV57" t="n">
+        <v>237</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -54102,8 +54273,11 @@
       <c r="KT58" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="KU58" t="n">
+      <c r="KU58" s="1" t="n">
         <v>116</v>
+      </c>
+      <c r="KV58" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -55027,8 +55201,11 @@
       <c r="KT59" s="1" t="n">
         <v>324</v>
       </c>
-      <c r="KU59" t="n">
+      <c r="KU59" s="1" t="n">
         <v>368</v>
+      </c>
+      <c r="KV59" t="n">
+        <v>405</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -55952,8 +56129,11 @@
       <c r="KT60" s="1" t="n">
         <v>1.79</v>
       </c>
-      <c r="KU60" t="n">
+      <c r="KU60" s="1" t="n">
         <v>2.17</v>
+      </c>
+      <c r="KV60" t="n">
+        <v>1.41</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -56877,8 +57057,11 @@
       <c r="KT61" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="KU61" t="n">
+      <c r="KU61" s="1" t="n">
         <v>128</v>
+      </c>
+      <c r="KV61" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -57802,8 +57985,11 @@
       <c r="KT62" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="KU62" t="n">
+      <c r="KU62" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="KV62" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -58727,8 +58913,11 @@
       <c r="KT63" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="KU63" t="n">
+      <c r="KU63" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="KV63" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -59652,8 +59841,11 @@
       <c r="KT64" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="KU64" t="n">
+      <c r="KU64" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KV64" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -60577,8 +60769,11 @@
       <c r="KT65" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KU65" t="n">
+      <c r="KU65" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="KV65" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -61502,8 +61697,11 @@
       <c r="KT66" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KU66" t="n">
+      <c r="KU66" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KV66" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -62427,8 +62625,11 @@
       <c r="KT67" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KU67" t="n">
+      <c r="KU67" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KV67" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -63352,8 +63553,11 @@
       <c r="KT68" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KU68" t="n">
+      <c r="KU68" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KV68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -64277,8 +64481,11 @@
       <c r="KT69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KU69" t="n">
+      <c r="KU69" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KV69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -65202,8 +65409,11 @@
       <c r="KT70" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="KU70" t="n">
+      <c r="KU70" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="KV70" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -66127,8 +66337,11 @@
       <c r="KT71" s="1" t="n">
         <v>61.1</v>
       </c>
-      <c r="KU71" t="n">
+      <c r="KU71" s="1" t="n">
         <v>45.2</v>
+      </c>
+      <c r="KV71" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -67052,8 +67265,11 @@
       <c r="KT72" s="1" t="n">
         <v>29.45</v>
       </c>
-      <c r="KU72" t="n">
+      <c r="KU72" s="1" t="n">
         <v>26.29</v>
+      </c>
+      <c r="KV72" t="n">
+        <v>23.82</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -67977,8 +68193,11 @@
       <c r="KT73" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="KU73" t="n">
+      <c r="KU73" s="1" t="n">
         <v>11.87</v>
+      </c>
+      <c r="KV73" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -68902,8 +69121,11 @@
       <c r="KT74" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="KU74" t="n">
+      <c r="KU74" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="KV74" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -69827,8 +70049,11 @@
       <c r="KT75" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="KU75" t="n">
+      <c r="KU75" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="KV75" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -70752,8 +70977,11 @@
       <c r="KT76" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="KU76" t="n">
+      <c r="KU76" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="KV76" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -71677,8 +71905,11 @@
       <c r="KT77" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="KU77" t="n">
+      <c r="KU77" s="1" t="n">
         <v>68</v>
+      </c>
+      <c r="KV77" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -72602,8 +72833,11 @@
       <c r="KT78" s="1" t="n">
         <v>2.5</v>
       </c>
-      <c r="KU78" t="n">
+      <c r="KU78" s="1" t="n">
         <v>2.19</v>
+      </c>
+      <c r="KV78" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -73527,8 +73761,11 @@
       <c r="KT79" s="1" t="n">
         <v>4.09</v>
       </c>
-      <c r="KU79" t="n">
+      <c r="KU79" s="1" t="n">
         <v>4.86</v>
+      </c>
+      <c r="KV79" t="n">
+        <v>3.18</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -74452,8 +74689,11 @@
       <c r="KT80" s="1" t="n">
         <v>35.6</v>
       </c>
-      <c r="KU80" t="n">
+      <c r="KU80" s="1" t="n">
         <v>38.2</v>
+      </c>
+      <c r="KV80" t="n">
+        <v>48.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -75377,8 +75617,11 @@
       <c r="KT81" s="1" t="n">
         <v>24.4</v>
       </c>
-      <c r="KU81" t="n">
+      <c r="KU81" s="1" t="n">
         <v>20.6</v>
+      </c>
+      <c r="KV81" t="n">
+        <v>31.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -76302,8 +76545,11 @@
       <c r="KT82" s="1" t="n">
         <v>188.7</v>
       </c>
-      <c r="KU82" t="n">
+      <c r="KU82" s="1" t="n">
         <v>187.5</v>
+      </c>
+      <c r="KV82" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -77227,8 +77473,11 @@
       <c r="KT83" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="KU83" t="n">
+      <c r="KU83" s="1" t="n">
         <v>85.7</v>
+      </c>
+      <c r="KV83" t="n">
+        <v>87.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -78152,8 +78401,11 @@
       <c r="KT84" s="1" t="n">
         <v>25.91</v>
       </c>
-      <c r="KU84" t="n">
+      <c r="KU84" s="1" t="n">
         <v>25.33</v>
+      </c>
+      <c r="KV84" t="n">
+        <v>26.74</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -79077,8 +79329,11 @@
       <c r="KT85" s="1" t="n">
         <v>119.7</v>
       </c>
-      <c r="KU85" t="n">
+      <c r="KU85" s="1" t="n">
         <v>94.90000000000001</v>
+      </c>
+      <c r="KV85" t="n">
+        <v>100.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -80002,8 +80257,11 @@
       <c r="KT86" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KU86" t="n">
+      <c r="KU86" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KV86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -80927,8 +81185,11 @@
       <c r="KT87" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KU87" t="n">
+      <c r="KU87" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KV87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -81852,8 +82113,11 @@
       <c r="KT88" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KU88" t="n">
+      <c r="KU88" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KV88" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -82777,7 +83041,10 @@
       <c r="KT89" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KU89" t="n">
+      <c r="KU89" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KV89" t="n">
         <v>4</v>
       </c>
     </row>
@@ -83702,8 +83969,11 @@
       <c r="KT90" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="KU90" t="n">
+      <c r="KU90" s="1" t="n">
         <v>127</v>
+      </c>
+      <c r="KV90" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -84627,8 +84897,11 @@
       <c r="KT91" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="KU91" t="n">
+      <c r="KU91" s="1" t="n">
         <v>233</v>
+      </c>
+      <c r="KV91" t="n">
+        <v>249</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -85552,8 +85825,11 @@
       <c r="KT92" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="KU92" t="n">
+      <c r="KU92" s="1" t="n">
         <v>280</v>
+      </c>
+      <c r="KV92" t="n">
+        <v>288</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -86477,8 +86753,11 @@
       <c r="KT93" s="1" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="KU93" t="n">
+      <c r="KU93" s="1" t="n">
         <v>76.09999999999999</v>
+      </c>
+      <c r="KV93" t="n">
+        <v>71.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -87402,8 +87681,11 @@
       <c r="KT94" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="KU94" t="n">
+      <c r="KU94" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="KV94" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -88327,8 +88609,11 @@
       <c r="KT95" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KU95" t="n">
+      <c r="KU95" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KV95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -89252,8 +89537,11 @@
       <c r="KT96" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KU96" t="n">
+      <c r="KU96" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KV96" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -90177,8 +90465,11 @@
       <c r="KT97" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="KU97" t="n">
+      <c r="KU97" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="KV97" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -91102,8 +91393,11 @@
       <c r="KT98" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="KU98" t="n">
+      <c r="KU98" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="KV98" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -92027,8 +92321,11 @@
       <c r="KT99" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KU99" t="n">
+      <c r="KU99" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="KV99" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -92952,8 +93249,11 @@
       <c r="KT100" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KU100" t="n">
+      <c r="KU100" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KV100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -93877,8 +94177,11 @@
       <c r="KT101" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KU101" t="n">
+      <c r="KU101" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KV101" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -94802,8 +95105,11 @@
       <c r="KT102" s="1" t="n">
         <v>72.7</v>
       </c>
-      <c r="KU102" t="n">
+      <c r="KU102" s="1" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="KV102" t="n">
+        <v>94.09999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/AFL_ML/Data/Hawthorn_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KV102"/>
+  <dimension ref="A1:KW102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KI93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KN97" activeCellId="0" sqref="KN97"/>
@@ -1380,8 +1380,11 @@
       <c r="KU1" s="1" t="n">
         <v>10876</v>
       </c>
-      <c r="KV1" t="n">
+      <c r="KV1" s="1" t="n">
         <v>10880</v>
+      </c>
+      <c r="KW1" t="n">
+        <v>10889</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2308,7 +2311,10 @@
       <c r="KU2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KV2" t="n">
+      <c r="KV2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KW2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3236,8 +3242,11 @@
       <c r="KU3" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KV3" t="n">
+      <c r="KV3" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -4164,8 +4173,11 @@
       <c r="KU4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KV4" t="n">
+      <c r="KV4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -5092,8 +5104,11 @@
       <c r="KU5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KV5" t="n">
+      <c r="KV5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KW5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -6020,8 +6035,11 @@
       <c r="KU6" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="KV6" t="n">
+      <c r="KV6" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="KW6" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6948,8 +6966,11 @@
       <c r="KU7" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="KV7" t="n">
+      <c r="KV7" s="1" t="n">
         <v>112</v>
+      </c>
+      <c r="KW7" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7876,8 +7897,11 @@
       <c r="KU8" s="1" t="n">
         <v>-67</v>
       </c>
-      <c r="KV8" t="n">
+      <c r="KV8" s="1" t="n">
         <v>-60</v>
+      </c>
+      <c r="KW8" t="n">
+        <v>-13</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8804,7 +8828,10 @@
       <c r="KU9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KV9" t="n">
+      <c r="KV9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9732,8 +9759,11 @@
       <c r="KU10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KV10" t="n">
+      <c r="KV10" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KW10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10660,7 +10690,10 @@
       <c r="KU11" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="KV11" t="n">
+      <c r="KV11" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="KW11" t="n">
         <v>182</v>
       </c>
     </row>
@@ -11588,8 +11621,11 @@
       <c r="KU12" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="KV12" t="n">
+      <c r="KV12" s="1" t="n">
         <v>166</v>
+      </c>
+      <c r="KW12" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -12516,8 +12552,11 @@
       <c r="KU13" s="1" t="n">
         <v>385</v>
       </c>
-      <c r="KV13" t="n">
+      <c r="KV13" s="1" t="n">
         <v>348</v>
+      </c>
+      <c r="KW13" t="n">
+        <v>370</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -13444,8 +13483,11 @@
       <c r="KU14" s="1" t="n">
         <v>1.14</v>
       </c>
-      <c r="KV14" t="n">
+      <c r="KV14" s="1" t="n">
         <v>1.1</v>
+      </c>
+      <c r="KW14" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -14372,8 +14414,11 @@
       <c r="KU15" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="KV15" t="n">
+      <c r="KV15" s="1" t="n">
         <v>84</v>
+      </c>
+      <c r="KW15" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -15300,8 +15345,11 @@
       <c r="KU16" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="KV16" t="n">
+      <c r="KV16" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="KW16" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -16228,8 +16276,11 @@
       <c r="KU17" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="KV17" t="n">
+      <c r="KV17" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="KW17" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -17156,8 +17207,11 @@
       <c r="KU18" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="KV18" t="n">
+      <c r="KV18" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KW18" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -18084,8 +18138,11 @@
       <c r="KU19" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KV19" t="n">
+      <c r="KV19" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="KW19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -19012,8 +19069,11 @@
       <c r="KU20" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KV20" t="n">
+      <c r="KV20" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KW20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -19940,8 +20000,11 @@
       <c r="KU21" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KV21" t="n">
+      <c r="KV21" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KW21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -20868,8 +20931,11 @@
       <c r="KU22" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KV22" t="n">
+      <c r="KV22" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KW22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -21796,8 +21862,11 @@
       <c r="KU23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KV23" t="n">
+      <c r="KV23" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KW23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -22724,8 +22793,11 @@
       <c r="KU24" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KV24" t="n">
+      <c r="KV24" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="KW24" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -23652,8 +23724,11 @@
       <c r="KU25" s="1" t="n">
         <v>55.6</v>
       </c>
-      <c r="KV25" t="n">
+      <c r="KV25" s="1" t="n">
         <v>41.2</v>
+      </c>
+      <c r="KW25" t="n">
+        <v>45.5</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -24580,8 +24655,11 @@
       <c r="KU26" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="KV26" t="n">
+      <c r="KV26" s="1" t="n">
         <v>49.71</v>
+      </c>
+      <c r="KW26" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -25508,8 +25586,11 @@
       <c r="KU27" s="1" t="n">
         <v>42.78</v>
       </c>
-      <c r="KV27" t="n">
+      <c r="KV27" s="1" t="n">
         <v>20.47</v>
+      </c>
+      <c r="KW27" t="n">
+        <v>16.82</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -26436,8 +26517,11 @@
       <c r="KU28" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="KV28" t="n">
+      <c r="KV28" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="KW28" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -27364,8 +27448,11 @@
       <c r="KU29" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="KV29" t="n">
+      <c r="KV29" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="KW29" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -28292,8 +28379,11 @@
       <c r="KU30" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="KV30" t="n">
+      <c r="KV30" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="KW30" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -29220,8 +29310,11 @@
       <c r="KU31" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KV31" t="n">
+      <c r="KV31" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="KW31" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -30148,8 +30241,11 @@
       <c r="KU32" s="1" t="n">
         <v>4.11</v>
       </c>
-      <c r="KV32" t="n">
+      <c r="KV32" s="1" t="n">
         <v>2.82</v>
+      </c>
+      <c r="KW32" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -31076,8 +31172,11 @@
       <c r="KU33" s="1" t="n">
         <v>7.4</v>
       </c>
-      <c r="KV33" t="n">
+      <c r="KV33" s="1" t="n">
         <v>6.86</v>
+      </c>
+      <c r="KW33" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -32004,8 +32103,11 @@
       <c r="KU34" s="1" t="n">
         <v>21.6</v>
       </c>
-      <c r="KV34" t="n">
+      <c r="KV34" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="KW34" t="n">
+        <v>36.4</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -32932,8 +33034,11 @@
       <c r="KU35" s="1" t="n">
         <v>13.5</v>
       </c>
-      <c r="KV35" t="n">
+      <c r="KV35" s="1" t="n">
         <v>14.6</v>
+      </c>
+      <c r="KW35" t="n">
+        <v>18.2</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -33860,8 +33965,11 @@
       <c r="KU36" s="1" t="n">
         <v>188.9</v>
       </c>
-      <c r="KV36" t="n">
+      <c r="KV36" s="1" t="n">
         <v>189</v>
+      </c>
+      <c r="KW36" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -34788,8 +34896,11 @@
       <c r="KU37" s="1" t="n">
         <v>87.3</v>
       </c>
-      <c r="KV37" t="n">
+      <c r="KV37" s="1" t="n">
         <v>86.5</v>
+      </c>
+      <c r="KW37" t="n">
+        <v>85.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -35716,8 +35827,11 @@
       <c r="KU38" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="KV38" t="n">
+      <c r="KV38" s="1" t="n">
         <v>24.33</v>
+      </c>
+      <c r="KW38" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -36644,8 +36758,11 @@
       <c r="KU39" s="1" t="n">
         <v>67.7</v>
       </c>
-      <c r="KV39" t="n">
+      <c r="KV39" s="1" t="n">
         <v>72.3</v>
+      </c>
+      <c r="KW39" t="n">
+        <v>68.5</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -37572,7 +37689,10 @@
       <c r="KU40" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KV40" t="n">
+      <c r="KV40" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="KW40" t="n">
         <v>12</v>
       </c>
     </row>
@@ -38500,7 +38620,10 @@
       <c r="KU41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KV41" t="n">
+      <c r="KV41" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KW41" t="n">
         <v>6</v>
       </c>
     </row>
@@ -39428,7 +39551,10 @@
       <c r="KU42" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KV42" t="n">
+      <c r="KV42" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="KW42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -40356,7 +40482,10 @@
       <c r="KU43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KV43" t="n">
+      <c r="KV43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KW43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -41284,8 +41413,11 @@
       <c r="KU44" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="KV44" t="n">
+      <c r="KV44" s="1" t="n">
         <v>125</v>
+      </c>
+      <c r="KW44" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -42212,8 +42344,11 @@
       <c r="KU45" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="KV45" t="n">
+      <c r="KV45" s="1" t="n">
         <v>217</v>
+      </c>
+      <c r="KW45" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -43140,8 +43275,11 @@
       <c r="KU46" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="KV46" t="n">
+      <c r="KV46" s="1" t="n">
         <v>242</v>
+      </c>
+      <c r="KW46" t="n">
+        <v>278</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -44068,8 +44206,11 @@
       <c r="KU47" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="KV47" t="n">
+      <c r="KV47" s="1" t="n">
         <v>69.5</v>
+      </c>
+      <c r="KW47" t="n">
+        <v>75.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -44996,8 +45137,11 @@
       <c r="KU48" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="KV48" t="n">
+      <c r="KV48" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="KW48" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -45924,8 +46068,11 @@
       <c r="KU49" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KV49" t="n">
+      <c r="KV49" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KW49" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -46852,8 +46999,11 @@
       <c r="KU50" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KV50" t="n">
+      <c r="KV50" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KW50" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -47780,8 +47930,11 @@
       <c r="KU51" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="KV51" t="n">
+      <c r="KV51" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="KW51" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -48708,8 +48861,11 @@
       <c r="KU52" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="KV52" t="n">
+      <c r="KV52" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="KW52" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -49636,8 +49792,11 @@
       <c r="KU53" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KV53" t="n">
+      <c r="KV53" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="KW53" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -50564,8 +50723,11 @@
       <c r="KU54" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KV54" t="n">
+      <c r="KV54" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KW54" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -51492,8 +51654,11 @@
       <c r="KU55" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KV55" t="n">
+      <c r="KV55" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KW55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -52420,8 +52585,11 @@
       <c r="KU56" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="KV56" t="n">
+      <c r="KV56" s="1" t="n">
         <v>100</v>
+      </c>
+      <c r="KW56" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -53348,8 +53516,11 @@
       <c r="KU57" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="KV57" t="n">
+      <c r="KV57" s="1" t="n">
         <v>237</v>
+      </c>
+      <c r="KW57" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -54276,8 +54447,11 @@
       <c r="KU58" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="KV58" t="n">
+      <c r="KV58" s="1" t="n">
         <v>168</v>
+      </c>
+      <c r="KW58" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -55204,8 +55378,11 @@
       <c r="KU59" s="1" t="n">
         <v>368</v>
       </c>
-      <c r="KV59" t="n">
+      <c r="KV59" s="1" t="n">
         <v>405</v>
+      </c>
+      <c r="KW59" t="n">
+        <v>351</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -56132,8 +56309,11 @@
       <c r="KU60" s="1" t="n">
         <v>2.17</v>
       </c>
-      <c r="KV60" t="n">
+      <c r="KV60" s="1" t="n">
         <v>1.41</v>
+      </c>
+      <c r="KW60" t="n">
+        <v>1.64</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -57060,8 +57240,11 @@
       <c r="KU61" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="KV61" t="n">
+      <c r="KV61" s="1" t="n">
         <v>107</v>
+      </c>
+      <c r="KW61" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -57988,8 +58171,11 @@
       <c r="KU62" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KV62" t="n">
+      <c r="KV62" s="1" t="n">
         <v>87</v>
+      </c>
+      <c r="KW62" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -58916,8 +59102,11 @@
       <c r="KU63" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="KV63" t="n">
+      <c r="KV63" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="KW63" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -59844,8 +60033,11 @@
       <c r="KU64" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KV64" t="n">
+      <c r="KV64" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="KW64" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -60772,8 +60964,11 @@
       <c r="KU65" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="KV65" t="n">
+      <c r="KV65" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KW65" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -61700,8 +61895,11 @@
       <c r="KU66" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KV66" t="n">
+      <c r="KV66" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="KW66" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -62628,8 +62826,11 @@
       <c r="KU67" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KV67" t="n">
+      <c r="KV67" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KW67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -63556,8 +63757,11 @@
       <c r="KU68" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KV68" t="n">
+      <c r="KV68" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KW68" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -64484,8 +64688,11 @@
       <c r="KU69" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KV69" t="n">
+      <c r="KV69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KW69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -65412,8 +65619,11 @@
       <c r="KU70" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="KV70" t="n">
+      <c r="KV70" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="KW70" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -66340,8 +66550,11 @@
       <c r="KU71" s="1" t="n">
         <v>45.2</v>
       </c>
-      <c r="KV71" t="n">
+      <c r="KV71" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="KW71" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -67268,8 +67481,11 @@
       <c r="KU72" s="1" t="n">
         <v>26.29</v>
       </c>
-      <c r="KV72" t="n">
+      <c r="KV72" s="1" t="n">
         <v>23.82</v>
+      </c>
+      <c r="KW72" t="n">
+        <v>29.25</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -68196,8 +68412,11 @@
       <c r="KU73" s="1" t="n">
         <v>11.87</v>
       </c>
-      <c r="KV73" t="n">
+      <c r="KV73" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KW73" t="n">
+        <v>14.04</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -69124,8 +69343,11 @@
       <c r="KU74" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KV74" t="n">
+      <c r="KV74" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="KW74" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -70052,8 +70274,11 @@
       <c r="KU75" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="KV75" t="n">
+      <c r="KV75" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="KW75" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -70980,8 +71205,11 @@
       <c r="KU76" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="KV76" t="n">
+      <c r="KV76" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="KW76" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -71908,8 +72136,11 @@
       <c r="KU77" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="KV77" t="n">
+      <c r="KV77" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="KW77" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -72836,8 +73067,11 @@
       <c r="KU78" s="1" t="n">
         <v>2.19</v>
       </c>
-      <c r="KV78" t="n">
+      <c r="KV78" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KW78" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -73764,8 +73998,11 @@
       <c r="KU79" s="1" t="n">
         <v>4.86</v>
       </c>
-      <c r="KV79" t="n">
+      <c r="KV79" s="1" t="n">
         <v>3.18</v>
+      </c>
+      <c r="KW79" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -74692,8 +74929,11 @@
       <c r="KU80" s="1" t="n">
         <v>38.2</v>
       </c>
-      <c r="KV80" t="n">
+      <c r="KV80" s="1" t="n">
         <v>48.1</v>
+      </c>
+      <c r="KW80" t="n">
+        <v>38.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -75620,8 +75860,11 @@
       <c r="KU81" s="1" t="n">
         <v>20.6</v>
       </c>
-      <c r="KV81" t="n">
+      <c r="KV81" s="1" t="n">
         <v>31.5</v>
+      </c>
+      <c r="KW81" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -76548,8 +76791,11 @@
       <c r="KU82" s="1" t="n">
         <v>187.5</v>
       </c>
-      <c r="KV82" t="n">
+      <c r="KV82" s="1" t="n">
         <v>188.3</v>
+      </c>
+      <c r="KW82" t="n">
+        <v>189.9</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -77476,8 +77722,11 @@
       <c r="KU83" s="1" t="n">
         <v>85.7</v>
       </c>
-      <c r="KV83" t="n">
+      <c r="KV83" s="1" t="n">
         <v>87.59999999999999</v>
+      </c>
+      <c r="KW83" t="n">
+        <v>89.2</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -78404,8 +78653,11 @@
       <c r="KU84" s="1" t="n">
         <v>25.33</v>
       </c>
-      <c r="KV84" t="n">
+      <c r="KV84" s="1" t="n">
         <v>26.74</v>
+      </c>
+      <c r="KW84" t="n">
+        <v>26.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -79332,8 +79584,11 @@
       <c r="KU85" s="1" t="n">
         <v>94.90000000000001</v>
       </c>
-      <c r="KV85" t="n">
+      <c r="KV85" s="1" t="n">
         <v>100.2</v>
+      </c>
+      <c r="KW85" t="n">
+        <v>103.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -80260,8 +80515,11 @@
       <c r="KU86" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KV86" t="n">
+      <c r="KV86" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KW86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -81188,8 +81446,11 @@
       <c r="KU87" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KV87" t="n">
+      <c r="KV87" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KW87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -82116,8 +82377,11 @@
       <c r="KU88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KV88" t="n">
+      <c r="KV88" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KW88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -83044,8 +83308,11 @@
       <c r="KU89" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KV89" t="n">
+      <c r="KV89" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KW89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -83972,8 +84239,11 @@
       <c r="KU90" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="KV90" t="n">
+      <c r="KV90" s="1" t="n">
         <v>144</v>
+      </c>
+      <c r="KW90" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -84900,8 +85170,11 @@
       <c r="KU91" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="KV91" t="n">
+      <c r="KV91" s="1" t="n">
         <v>249</v>
+      </c>
+      <c r="KW91" t="n">
+        <v>202</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -85828,8 +86101,11 @@
       <c r="KU92" s="1" t="n">
         <v>280</v>
       </c>
-      <c r="KV92" t="n">
+      <c r="KV92" s="1" t="n">
         <v>288</v>
+      </c>
+      <c r="KW92" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -86756,8 +87032,11 @@
       <c r="KU93" s="1" t="n">
         <v>76.09999999999999</v>
       </c>
-      <c r="KV93" t="n">
+      <c r="KV93" s="1" t="n">
         <v>71.09999999999999</v>
+      </c>
+      <c r="KW93" t="n">
+        <v>73.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -87684,8 +87963,11 @@
       <c r="KU94" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="KV94" t="n">
+      <c r="KV94" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="KW94" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -88612,8 +88894,11 @@
       <c r="KU95" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KV95" t="n">
+      <c r="KV95" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KW95" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -89540,8 +89825,11 @@
       <c r="KU96" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KV96" t="n">
+      <c r="KV96" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="KW96" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -90468,8 +90756,11 @@
       <c r="KU97" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KV97" t="n">
+      <c r="KV97" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="KW97" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -91396,8 +91687,11 @@
       <c r="KU98" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="KV98" t="n">
+      <c r="KV98" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="KW98" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -92324,8 +92618,11 @@
       <c r="KU99" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="KV99" t="n">
+      <c r="KV99" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="KW99" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -93252,8 +93549,11 @@
       <c r="KU100" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KV100" t="n">
+      <c r="KV100" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KW100" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -94180,8 +94480,11 @@
       <c r="KU101" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KV101" t="n">
+      <c r="KV101" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KW101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -95108,8 +95411,11 @@
       <c r="KU102" s="1" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="KV102" t="n">
+      <c r="KV102" s="1" t="n">
         <v>94.09999999999999</v>
+      </c>
+      <c r="KW102" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/AFL_ML/Data/Hawthorn_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KW102"/>
+  <dimension ref="A1:KX102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KI93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KN97" activeCellId="0" sqref="KN97"/>
@@ -1383,8 +1383,11 @@
       <c r="KV1" s="1" t="n">
         <v>10880</v>
       </c>
-      <c r="KW1" t="n">
+      <c r="KW1" s="1" t="n">
         <v>10889</v>
+      </c>
+      <c r="KX1" t="n">
+        <v>10900</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2314,7 +2317,10 @@
       <c r="KV2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KW2" t="n">
+      <c r="KW2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KX2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3245,8 +3251,11 @@
       <c r="KV3" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KW3" t="n">
+      <c r="KW3" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -4176,7 +4185,10 @@
       <c r="KV4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KW4" t="n">
+      <c r="KW4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KX4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5107,8 +5119,11 @@
       <c r="KV5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KW5" t="n">
+      <c r="KW5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KX5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -6038,8 +6053,11 @@
       <c r="KV6" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="KW6" t="n">
+      <c r="KW6" s="1" t="n">
         <v>72</v>
+      </c>
+      <c r="KX6" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6969,8 +6987,11 @@
       <c r="KV7" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="KW7" t="n">
+      <c r="KW7" s="1" t="n">
         <v>85</v>
+      </c>
+      <c r="KX7" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7900,8 +7921,11 @@
       <c r="KV8" s="1" t="n">
         <v>-60</v>
       </c>
-      <c r="KW8" t="n">
+      <c r="KW8" s="1" t="n">
         <v>-13</v>
+      </c>
+      <c r="KX8" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8831,8 +8855,11 @@
       <c r="KV9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KW9" t="n">
+      <c r="KW9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KX9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -9762,8 +9789,11 @@
       <c r="KV10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KW10" t="n">
+      <c r="KW10" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KX10" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10693,8 +10723,11 @@
       <c r="KV11" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="KW11" t="n">
+      <c r="KW11" s="1" t="n">
         <v>182</v>
+      </c>
+      <c r="KX11" t="n">
+        <v>211</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -11624,8 +11657,11 @@
       <c r="KV12" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="KW12" t="n">
+      <c r="KW12" s="1" t="n">
         <v>188</v>
+      </c>
+      <c r="KX12" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -12555,8 +12591,11 @@
       <c r="KV13" s="1" t="n">
         <v>348</v>
       </c>
-      <c r="KW13" t="n">
+      <c r="KW13" s="1" t="n">
         <v>370</v>
+      </c>
+      <c r="KX13" t="n">
+        <v>438</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -13486,8 +13525,11 @@
       <c r="KV14" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="KW14" t="n">
+      <c r="KW14" s="1" t="n">
         <v>0.97</v>
+      </c>
+      <c r="KX14" t="n">
+        <v>0.93</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -14417,8 +14459,11 @@
       <c r="KV15" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="KW15" t="n">
+      <c r="KW15" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="KX15" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -15348,8 +15393,11 @@
       <c r="KV16" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="KW16" t="n">
+      <c r="KW16" s="1" t="n">
         <v>66</v>
+      </c>
+      <c r="KX16" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -16279,8 +16327,11 @@
       <c r="KV17" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="KW17" t="n">
+      <c r="KW17" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="KX17" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -17210,8 +17261,11 @@
       <c r="KV18" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KW18" t="n">
+      <c r="KW18" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="KX18" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -18141,8 +18195,11 @@
       <c r="KV19" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="KW19" t="n">
+      <c r="KW19" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="KX19" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -19072,8 +19129,11 @@
       <c r="KV20" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KW20" t="n">
+      <c r="KW20" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KX20" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -20003,8 +20063,11 @@
       <c r="KV21" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KW21" t="n">
+      <c r="KW21" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KX21" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -20934,8 +20997,11 @@
       <c r="KV22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KW22" t="n">
+      <c r="KW22" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KX22" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -21865,8 +21931,11 @@
       <c r="KV23" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KW23" t="n">
+      <c r="KW23" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KX23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -22796,8 +22865,11 @@
       <c r="KV24" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KW24" t="n">
+      <c r="KW24" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="KX24" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -23727,8 +23799,11 @@
       <c r="KV25" s="1" t="n">
         <v>41.2</v>
       </c>
-      <c r="KW25" t="n">
+      <c r="KW25" s="1" t="n">
         <v>45.5</v>
+      </c>
+      <c r="KX25" t="n">
+        <v>42.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -24658,8 +24733,11 @@
       <c r="KV26" s="1" t="n">
         <v>49.71</v>
       </c>
-      <c r="KW26" t="n">
+      <c r="KW26" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="KX26" t="n">
+        <v>36.5</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -25589,8 +25667,11 @@
       <c r="KV27" s="1" t="n">
         <v>20.47</v>
       </c>
-      <c r="KW27" t="n">
+      <c r="KW27" s="1" t="n">
         <v>16.82</v>
+      </c>
+      <c r="KX27" t="n">
+        <v>15.64</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -26520,8 +26601,11 @@
       <c r="KV28" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="KW28" t="n">
+      <c r="KW28" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="KX28" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -27451,8 +27535,11 @@
       <c r="KV29" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="KW29" t="n">
+      <c r="KW29" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="KX29" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -28382,8 +28469,11 @@
       <c r="KV30" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="KW30" t="n">
+      <c r="KW30" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="KX30" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -29313,8 +29403,11 @@
       <c r="KV31" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="KW31" t="n">
+      <c r="KW31" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="KX31" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -30244,7 +30337,10 @@
       <c r="KV32" s="1" t="n">
         <v>2.82</v>
       </c>
-      <c r="KW32" t="n">
+      <c r="KW32" s="1" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="KX32" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -31175,8 +31271,11 @@
       <c r="KV33" s="1" t="n">
         <v>6.86</v>
       </c>
-      <c r="KW33" t="n">
+      <c r="KW33" s="1" t="n">
         <v>5.5</v>
+      </c>
+      <c r="KX33" t="n">
+        <v>5.83</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -32106,8 +32205,11 @@
       <c r="KV34" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="KW34" t="n">
+      <c r="KW34" s="1" t="n">
         <v>36.4</v>
+      </c>
+      <c r="KX34" t="n">
+        <v>35.7</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -33037,8 +33139,11 @@
       <c r="KV35" s="1" t="n">
         <v>14.6</v>
       </c>
-      <c r="KW35" t="n">
+      <c r="KW35" s="1" t="n">
         <v>18.2</v>
+      </c>
+      <c r="KX35" t="n">
+        <v>17.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -33968,8 +34073,11 @@
       <c r="KV36" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="KW36" t="n">
+      <c r="KW36" s="1" t="n">
         <v>188.2</v>
+      </c>
+      <c r="KX36" t="n">
+        <v>188.8</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -34899,8 +35007,11 @@
       <c r="KV37" s="1" t="n">
         <v>86.5</v>
       </c>
-      <c r="KW37" t="n">
+      <c r="KW37" s="1" t="n">
         <v>85.5</v>
+      </c>
+      <c r="KX37" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -35830,8 +35941,11 @@
       <c r="KV38" s="1" t="n">
         <v>24.33</v>
       </c>
-      <c r="KW38" t="n">
+      <c r="KW38" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="KX38" t="n">
+        <v>24.74</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -36761,8 +36875,11 @@
       <c r="KV39" s="1" t="n">
         <v>72.3</v>
       </c>
-      <c r="KW39" t="n">
+      <c r="KW39" s="1" t="n">
         <v>68.5</v>
+      </c>
+      <c r="KX39" t="n">
+        <v>83.09999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -37692,8 +37809,11 @@
       <c r="KV40" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KW40" t="n">
+      <c r="KW40" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KX40" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -38623,8 +38743,11 @@
       <c r="KV41" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KW41" t="n">
+      <c r="KW41" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KX41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -39554,8 +39677,11 @@
       <c r="KV42" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KW42" t="n">
+      <c r="KW42" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KX42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -40485,8 +40611,11 @@
       <c r="KV43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KW43" t="n">
+      <c r="KW43" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KX43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -41416,7 +41545,10 @@
       <c r="KV44" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="KW44" t="n">
+      <c r="KW44" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="KX44" t="n">
         <v>149</v>
       </c>
     </row>
@@ -42347,8 +42479,11 @@
       <c r="KV45" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="KW45" t="n">
+      <c r="KW45" s="1" t="n">
         <v>210</v>
+      </c>
+      <c r="KX45" t="n">
+        <v>291</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -43278,8 +43413,11 @@
       <c r="KV46" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="KW46" t="n">
+      <c r="KW46" s="1" t="n">
         <v>278</v>
+      </c>
+      <c r="KX46" t="n">
+        <v>330</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -44209,8 +44347,11 @@
       <c r="KV47" s="1" t="n">
         <v>69.5</v>
       </c>
-      <c r="KW47" t="n">
+      <c r="KW47" s="1" t="n">
         <v>75.09999999999999</v>
+      </c>
+      <c r="KX47" t="n">
+        <v>75.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -45140,8 +45281,11 @@
       <c r="KV48" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="KW48" t="n">
+      <c r="KW48" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="KX48" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -46071,8 +46215,11 @@
       <c r="KV49" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KW49" t="n">
+      <c r="KW49" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KX49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -47002,8 +47149,11 @@
       <c r="KV50" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KW50" t="n">
+      <c r="KW50" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KX50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -47933,8 +48083,11 @@
       <c r="KV51" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="KW51" t="n">
+      <c r="KW51" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="KX51" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -48864,8 +49017,11 @@
       <c r="KV52" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="KW52" t="n">
+      <c r="KW52" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="KX52" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -49795,8 +49951,11 @@
       <c r="KV53" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="KW53" t="n">
+      <c r="KW53" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="KX53" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -50726,8 +50885,11 @@
       <c r="KV54" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KW54" t="n">
+      <c r="KW54" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KX54" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -51657,8 +51819,11 @@
       <c r="KV55" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KW55" t="n">
+      <c r="KW55" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KX55" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -52588,8 +52753,11 @@
       <c r="KV56" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="KW56" t="n">
+      <c r="KW56" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="KX56" t="n">
+        <v>91.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -53519,8 +53687,11 @@
       <c r="KV57" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="KW57" t="n">
+      <c r="KW57" s="1" t="n">
         <v>218</v>
+      </c>
+      <c r="KX57" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -54450,8 +54621,11 @@
       <c r="KV58" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="KW58" t="n">
+      <c r="KW58" s="1" t="n">
         <v>133</v>
+      </c>
+      <c r="KX58" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -55381,8 +55555,11 @@
       <c r="KV59" s="1" t="n">
         <v>405</v>
       </c>
-      <c r="KW59" t="n">
+      <c r="KW59" s="1" t="n">
         <v>351</v>
+      </c>
+      <c r="KX59" t="n">
+        <v>378</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -56312,8 +56489,11 @@
       <c r="KV60" s="1" t="n">
         <v>1.41</v>
       </c>
-      <c r="KW60" t="n">
+      <c r="KW60" s="1" t="n">
         <v>1.64</v>
+      </c>
+      <c r="KX60" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -57243,8 +57423,11 @@
       <c r="KV61" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="KW61" t="n">
+      <c r="KW61" s="1" t="n">
         <v>103</v>
+      </c>
+      <c r="KX61" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -58174,8 +58357,11 @@
       <c r="KV62" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="KW62" t="n">
+      <c r="KW62" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="KX62" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -59105,8 +59291,11 @@
       <c r="KV63" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="KW63" t="n">
+      <c r="KW63" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="KX63" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -60036,8 +60225,11 @@
       <c r="KV64" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="KW64" t="n">
+      <c r="KW64" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="KX64" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -60967,8 +61159,11 @@
       <c r="KV65" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KW65" t="n">
+      <c r="KW65" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="KX65" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -61898,8 +62093,11 @@
       <c r="KV66" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KW66" t="n">
+      <c r="KW66" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KX66" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -62829,8 +63027,11 @@
       <c r="KV67" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KW67" t="n">
+      <c r="KW67" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KX67" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -63760,8 +63961,11 @@
       <c r="KV68" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KW68" t="n">
+      <c r="KW68" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KX68" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -64691,8 +64895,11 @@
       <c r="KV69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KW69" t="n">
+      <c r="KW69" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KX69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -65622,8 +65829,11 @@
       <c r="KV70" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="KW70" t="n">
+      <c r="KW70" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="KX70" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -66553,8 +66763,11 @@
       <c r="KV71" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="KW71" t="n">
+      <c r="KW71" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="KX71" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -67484,8 +67697,11 @@
       <c r="KV72" s="1" t="n">
         <v>23.82</v>
       </c>
-      <c r="KW72" t="n">
+      <c r="KW72" s="1" t="n">
         <v>29.25</v>
+      </c>
+      <c r="KX72" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -68415,8 +68631,11 @@
       <c r="KV73" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KW73" t="n">
+      <c r="KW73" s="1" t="n">
         <v>14.04</v>
+      </c>
+      <c r="KX73" t="n">
+        <v>37.8</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -69346,8 +69565,11 @@
       <c r="KV74" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="KW74" t="n">
+      <c r="KW74" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="KX74" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -70277,8 +70499,11 @@
       <c r="KV75" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="KW75" t="n">
+      <c r="KW75" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="KX75" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -71208,8 +71433,11 @@
       <c r="KV76" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="KW76" t="n">
+      <c r="KW76" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="KX76" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -72139,8 +72367,11 @@
       <c r="KV77" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="KW77" t="n">
+      <c r="KW77" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="KX77" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -73070,8 +73301,11 @@
       <c r="KV78" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KW78" t="n">
+      <c r="KW78" s="1" t="n">
         <v>2.4</v>
+      </c>
+      <c r="KX78" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -74001,8 +74235,11 @@
       <c r="KV79" s="1" t="n">
         <v>3.18</v>
       </c>
-      <c r="KW79" t="n">
+      <c r="KW79" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KX79" t="n">
+        <v>6.83</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -74932,8 +75169,11 @@
       <c r="KV80" s="1" t="n">
         <v>48.1</v>
       </c>
-      <c r="KW80" t="n">
+      <c r="KW80" s="1" t="n">
         <v>38.3</v>
+      </c>
+      <c r="KX80" t="n">
+        <v>17.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -75863,8 +76103,11 @@
       <c r="KV81" s="1" t="n">
         <v>31.5</v>
       </c>
-      <c r="KW81" t="n">
+      <c r="KW81" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="KX81" t="n">
+        <v>14.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -76794,8 +77037,11 @@
       <c r="KV82" s="1" t="n">
         <v>188.3</v>
       </c>
-      <c r="KW82" t="n">
+      <c r="KW82" s="1" t="n">
         <v>189.9</v>
+      </c>
+      <c r="KX82" t="n">
+        <v>189.2</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -77725,8 +77971,11 @@
       <c r="KV83" s="1" t="n">
         <v>87.59999999999999</v>
       </c>
-      <c r="KW83" t="n">
+      <c r="KW83" s="1" t="n">
         <v>89.2</v>
+      </c>
+      <c r="KX83" t="n">
+        <v>85.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -78656,8 +78905,11 @@
       <c r="KV84" s="1" t="n">
         <v>26.74</v>
       </c>
-      <c r="KW84" t="n">
+      <c r="KW84" s="1" t="n">
         <v>26.24</v>
+      </c>
+      <c r="KX84" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -79587,8 +79839,11 @@
       <c r="KV85" s="1" t="n">
         <v>100.2</v>
       </c>
-      <c r="KW85" t="n">
+      <c r="KW85" s="1" t="n">
         <v>103.2</v>
+      </c>
+      <c r="KX85" t="n">
+        <v>77.90000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -80518,8 +80773,11 @@
       <c r="KV86" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KW86" t="n">
+      <c r="KW86" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KX86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -81449,7 +81707,10 @@
       <c r="KV87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KW87" t="n">
+      <c r="KW87" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KX87" t="n">
         <v>7</v>
       </c>
     </row>
@@ -82380,7 +82641,10 @@
       <c r="KV88" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KW88" t="n">
+      <c r="KW88" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KX88" t="n">
         <v>3</v>
       </c>
     </row>
@@ -83311,8 +83575,11 @@
       <c r="KV89" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KW89" t="n">
+      <c r="KW89" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KX89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -84242,8 +84509,11 @@
       <c r="KV90" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="KW90" t="n">
+      <c r="KW90" s="1" t="n">
         <v>137</v>
+      </c>
+      <c r="KX90" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -85173,8 +85443,11 @@
       <c r="KV91" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="KW91" t="n">
+      <c r="KW91" s="1" t="n">
         <v>202</v>
+      </c>
+      <c r="KX91" t="n">
+        <v>244</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -86104,8 +86377,11 @@
       <c r="KV92" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="KW92" t="n">
+      <c r="KW92" s="1" t="n">
         <v>257</v>
+      </c>
+      <c r="KX92" t="n">
+        <v>286</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -87035,8 +87311,11 @@
       <c r="KV93" s="1" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="KW93" t="n">
+      <c r="KW93" s="1" t="n">
         <v>73.2</v>
+      </c>
+      <c r="KX93" t="n">
+        <v>75.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -87966,8 +88245,11 @@
       <c r="KV94" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="KW94" t="n">
+      <c r="KW94" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="KX94" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -88897,8 +89179,11 @@
       <c r="KV95" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KW95" t="n">
+      <c r="KW95" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KX95" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -89828,8 +90113,11 @@
       <c r="KV96" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="KW96" t="n">
+      <c r="KW96" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="KX96" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -90759,8 +91047,11 @@
       <c r="KV97" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="KW97" t="n">
+      <c r="KW97" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="KX97" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -91690,8 +91981,11 @@
       <c r="KV98" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="KW98" t="n">
+      <c r="KW98" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="KX98" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -92621,8 +92915,11 @@
       <c r="KV99" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="KW99" t="n">
+      <c r="KW99" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="KX99" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -93552,8 +93849,11 @@
       <c r="KV100" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KW100" t="n">
+      <c r="KW100" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KX100" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -94483,8 +94783,11 @@
       <c r="KV101" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KW101" t="n">
+      <c r="KW101" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KX101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -95414,8 +95717,11 @@
       <c r="KV102" s="1" t="n">
         <v>94.09999999999999</v>
       </c>
-      <c r="KW102" t="n">
+      <c r="KW102" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="KX102" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/AFL_ML/Data/Hawthorn_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KX102"/>
+  <dimension ref="A1:KY102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KI93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KN97" activeCellId="0" sqref="KN97"/>
@@ -1386,8 +1386,11 @@
       <c r="KW1" s="1" t="n">
         <v>10889</v>
       </c>
-      <c r="KX1" t="n">
+      <c r="KX1" s="1" t="n">
         <v>10900</v>
+      </c>
+      <c r="KY1" t="n">
+        <v>10909</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2320,7 +2323,10 @@
       <c r="KW2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KX2" t="n">
+      <c r="KX2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KY2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3254,8 +3260,11 @@
       <c r="KW3" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KX3" t="n">
+      <c r="KX3" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -4188,7 +4197,10 @@
       <c r="KW4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KX4" t="n">
+      <c r="KX4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KY4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5122,8 +5134,11 @@
       <c r="KW5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KX5" t="n">
+      <c r="KX5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KY5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -6056,8 +6071,11 @@
       <c r="KW6" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="KX6" t="n">
+      <c r="KX6" s="1" t="n">
         <v>88</v>
+      </c>
+      <c r="KY6" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6990,8 +7008,11 @@
       <c r="KW7" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="KX7" t="n">
+      <c r="KX7" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="KY7" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7924,8 +7945,11 @@
       <c r="KW8" s="1" t="n">
         <v>-13</v>
       </c>
-      <c r="KX8" t="n">
+      <c r="KX8" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="KY8" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8858,8 +8882,11 @@
       <c r="KW9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KX9" t="n">
+      <c r="KX9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KY9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -9792,8 +9819,11 @@
       <c r="KW10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KX10" t="n">
+      <c r="KX10" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KY10" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10726,8 +10756,11 @@
       <c r="KW11" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="KX11" t="n">
+      <c r="KX11" s="1" t="n">
         <v>211</v>
+      </c>
+      <c r="KY11" t="n">
+        <v>198</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -11660,8 +11693,11 @@
       <c r="KW12" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="KX12" t="n">
+      <c r="KX12" s="1" t="n">
         <v>227</v>
+      </c>
+      <c r="KY12" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -12594,8 +12630,11 @@
       <c r="KW13" s="1" t="n">
         <v>370</v>
       </c>
-      <c r="KX13" t="n">
+      <c r="KX13" s="1" t="n">
         <v>438</v>
+      </c>
+      <c r="KY13" t="n">
+        <v>359</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -13528,8 +13567,11 @@
       <c r="KW14" s="1" t="n">
         <v>0.97</v>
       </c>
-      <c r="KX14" t="n">
+      <c r="KX14" s="1" t="n">
         <v>0.93</v>
+      </c>
+      <c r="KY14" t="n">
+        <v>1.23</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -14462,7 +14504,10 @@
       <c r="KW15" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="KX15" t="n">
+      <c r="KX15" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="KY15" t="n">
         <v>89</v>
       </c>
     </row>
@@ -15396,8 +15441,11 @@
       <c r="KW16" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="KX16" t="n">
+      <c r="KX16" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="KY16" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -16330,8 +16378,11 @@
       <c r="KW17" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="KX17" t="n">
+      <c r="KX17" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="KY17" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -17264,8 +17315,11 @@
       <c r="KW18" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="KX18" t="n">
+      <c r="KX18" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="KY18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -18198,8 +18252,11 @@
       <c r="KW19" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="KX19" t="n">
+      <c r="KX19" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="KY19" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -19132,8 +19189,11 @@
       <c r="KW20" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KX20" t="n">
+      <c r="KX20" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KY20" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -20066,8 +20126,11 @@
       <c r="KW21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KX21" t="n">
+      <c r="KX21" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KY21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -21000,8 +21063,11 @@
       <c r="KW22" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KX22" t="n">
+      <c r="KX22" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="KY22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -21934,8 +22000,11 @@
       <c r="KW23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KX23" t="n">
+      <c r="KX23" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KY23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -22868,8 +22937,11 @@
       <c r="KW24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="KX24" t="n">
+      <c r="KX24" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="KY24" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -23802,8 +23874,11 @@
       <c r="KW25" s="1" t="n">
         <v>45.5</v>
       </c>
-      <c r="KX25" t="n">
+      <c r="KX25" s="1" t="n">
         <v>42.9</v>
+      </c>
+      <c r="KY25" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -24736,8 +24811,11 @@
       <c r="KW26" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KX26" t="n">
+      <c r="KX26" s="1" t="n">
         <v>36.5</v>
+      </c>
+      <c r="KY26" t="n">
+        <v>23.93</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -25670,8 +25748,11 @@
       <c r="KW27" s="1" t="n">
         <v>16.82</v>
       </c>
-      <c r="KX27" t="n">
+      <c r="KX27" s="1" t="n">
         <v>15.64</v>
+      </c>
+      <c r="KY27" t="n">
+        <v>17.95</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -26604,8 +26685,11 @@
       <c r="KW28" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="KX28" t="n">
+      <c r="KX28" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="KY28" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -27538,8 +27622,11 @@
       <c r="KW29" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="KX29" t="n">
+      <c r="KX29" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="KY29" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -28472,8 +28559,11 @@
       <c r="KW30" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="KX30" t="n">
+      <c r="KX30" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="KY30" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -29406,8 +29496,11 @@
       <c r="KW31" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="KX31" t="n">
+      <c r="KX31" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="KY31" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -30340,8 +30433,11 @@
       <c r="KW32" s="1" t="n">
         <v>2.5</v>
       </c>
-      <c r="KX32" t="n">
+      <c r="KX32" s="1" t="n">
         <v>2.5</v>
+      </c>
+      <c r="KY32" t="n">
+        <v>2.75</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -31274,8 +31370,11 @@
       <c r="KW33" s="1" t="n">
         <v>5.5</v>
       </c>
-      <c r="KX33" t="n">
+      <c r="KX33" s="1" t="n">
         <v>5.83</v>
+      </c>
+      <c r="KY33" t="n">
+        <v>3.67</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -32208,8 +32307,11 @@
       <c r="KW34" s="1" t="n">
         <v>36.4</v>
       </c>
-      <c r="KX34" t="n">
+      <c r="KX34" s="1" t="n">
         <v>35.7</v>
+      </c>
+      <c r="KY34" t="n">
+        <v>36.4</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -33142,8 +33244,11 @@
       <c r="KW35" s="1" t="n">
         <v>18.2</v>
       </c>
-      <c r="KX35" t="n">
+      <c r="KX35" s="1" t="n">
         <v>17.1</v>
+      </c>
+      <c r="KY35" t="n">
+        <v>27.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -34076,8 +34181,11 @@
       <c r="KW36" s="1" t="n">
         <v>188.2</v>
       </c>
-      <c r="KX36" t="n">
+      <c r="KX36" s="1" t="n">
         <v>188.8</v>
+      </c>
+      <c r="KY36" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -35010,8 +35118,11 @@
       <c r="KW37" s="1" t="n">
         <v>85.5</v>
       </c>
-      <c r="KX37" t="n">
+      <c r="KX37" s="1" t="n">
         <v>86.7</v>
+      </c>
+      <c r="KY37" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -35944,8 +36055,11 @@
       <c r="KW38" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="KX38" t="n">
+      <c r="KX38" s="1" t="n">
         <v>24.74</v>
+      </c>
+      <c r="KY38" t="n">
+        <v>24.41</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -36878,8 +36992,11 @@
       <c r="KW39" s="1" t="n">
         <v>68.5</v>
       </c>
-      <c r="KX39" t="n">
+      <c r="KX39" s="1" t="n">
         <v>83.09999999999999</v>
+      </c>
+      <c r="KY39" t="n">
+        <v>82.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -37812,7 +37929,10 @@
       <c r="KW40" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KX40" t="n">
+      <c r="KX40" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="KY40" t="n">
         <v>11</v>
       </c>
     </row>
@@ -38746,7 +38866,10 @@
       <c r="KW41" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KX41" t="n">
+      <c r="KX41" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KY41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -39680,7 +39803,10 @@
       <c r="KW42" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KX42" t="n">
+      <c r="KX42" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KY42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -40614,7 +40740,10 @@
       <c r="KW43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KX43" t="n">
+      <c r="KX43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KY43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41548,8 +41677,11 @@
       <c r="KW44" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="KX44" t="n">
+      <c r="KX44" s="1" t="n">
         <v>149</v>
+      </c>
+      <c r="KY44" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -42482,8 +42614,11 @@
       <c r="KW45" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="KX45" t="n">
+      <c r="KX45" s="1" t="n">
         <v>291</v>
+      </c>
+      <c r="KY45" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -43416,8 +43551,11 @@
       <c r="KW46" s="1" t="n">
         <v>278</v>
       </c>
-      <c r="KX46" t="n">
+      <c r="KX46" s="1" t="n">
         <v>330</v>
+      </c>
+      <c r="KY46" t="n">
+        <v>258</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -44350,8 +44488,11 @@
       <c r="KW47" s="1" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="KX47" t="n">
+      <c r="KX47" s="1" t="n">
         <v>75.3</v>
+      </c>
+      <c r="KY47" t="n">
+        <v>71.90000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -45284,8 +45425,11 @@
       <c r="KW48" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="KX48" t="n">
+      <c r="KX48" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="KY48" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -46218,8 +46362,11 @@
       <c r="KW49" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KX49" t="n">
+      <c r="KX49" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KY49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -47152,8 +47299,11 @@
       <c r="KW50" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KX50" t="n">
+      <c r="KX50" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KY50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -48086,8 +48236,11 @@
       <c r="KW51" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="KX51" t="n">
+      <c r="KX51" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="KY51" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -49020,8 +49173,11 @@
       <c r="KW52" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="KX52" t="n">
+      <c r="KX52" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="KY52" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -49954,8 +50110,11 @@
       <c r="KW53" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="KX53" t="n">
+      <c r="KX53" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="KY53" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -50888,8 +51047,11 @@
       <c r="KW54" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KX54" t="n">
+      <c r="KX54" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="KY54" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -51822,8 +51984,11 @@
       <c r="KW55" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KX55" t="n">
+      <c r="KX55" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KY55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -52756,8 +52921,11 @@
       <c r="KW56" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="KX56" t="n">
+      <c r="KX56" s="1" t="n">
         <v>91.7</v>
+      </c>
+      <c r="KY56" t="n">
+        <v>53.3</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -53690,8 +53858,11 @@
       <c r="KW57" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="KX57" t="n">
+      <c r="KX57" s="1" t="n">
         <v>219</v>
+      </c>
+      <c r="KY57" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -54624,8 +54795,11 @@
       <c r="KW58" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="KX58" t="n">
+      <c r="KX58" s="1" t="n">
         <v>159</v>
+      </c>
+      <c r="KY58" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -55558,7 +55732,10 @@
       <c r="KW59" s="1" t="n">
         <v>351</v>
       </c>
-      <c r="KX59" t="n">
+      <c r="KX59" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="KY59" t="n">
         <v>378</v>
       </c>
     </row>
@@ -56492,8 +56669,11 @@
       <c r="KW60" s="1" t="n">
         <v>1.64</v>
       </c>
-      <c r="KX60" t="n">
+      <c r="KX60" s="1" t="n">
         <v>1.38</v>
+      </c>
+      <c r="KY60" t="n">
+        <v>1.59</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -57426,8 +57606,11 @@
       <c r="KW61" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="KX61" t="n">
+      <c r="KX61" s="1" t="n">
         <v>107</v>
+      </c>
+      <c r="KY61" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -58360,8 +58543,11 @@
       <c r="KW62" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="KX62" t="n">
+      <c r="KX62" s="1" t="n">
         <v>74</v>
+      </c>
+      <c r="KY62" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -59294,8 +59480,11 @@
       <c r="KW63" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="KX63" t="n">
+      <c r="KX63" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="KY63" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -60228,8 +60417,11 @@
       <c r="KW64" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="KX64" t="n">
+      <c r="KX64" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="KY64" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -61162,8 +61354,11 @@
       <c r="KW65" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="KX65" t="n">
+      <c r="KX65" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="KY65" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -62096,8 +62291,11 @@
       <c r="KW66" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KX66" t="n">
+      <c r="KX66" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KY66" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -63030,8 +63228,11 @@
       <c r="KW67" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KX67" t="n">
+      <c r="KX67" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KY67" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -63964,8 +64165,11 @@
       <c r="KW68" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KX68" t="n">
+      <c r="KX68" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KY68" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -64898,8 +65102,11 @@
       <c r="KW69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KX69" t="n">
+      <c r="KX69" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KY69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -65832,8 +66039,11 @@
       <c r="KW70" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="KX70" t="n">
+      <c r="KX70" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KY70" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -66766,8 +66976,11 @@
       <c r="KW71" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="KX71" t="n">
+      <c r="KX71" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="KY71" t="n">
+        <v>53.8</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -67700,8 +67913,11 @@
       <c r="KW72" s="1" t="n">
         <v>29.25</v>
       </c>
-      <c r="KX72" t="n">
+      <c r="KX72" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="KY72" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -68634,8 +68850,11 @@
       <c r="KW73" s="1" t="n">
         <v>14.04</v>
       </c>
-      <c r="KX73" t="n">
+      <c r="KX73" s="1" t="n">
         <v>37.8</v>
+      </c>
+      <c r="KY73" t="n">
+        <v>14.54</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -69568,8 +69787,11 @@
       <c r="KW74" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="KX74" t="n">
+      <c r="KX74" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="KY74" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -70502,8 +70724,11 @@
       <c r="KW75" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="KX75" t="n">
+      <c r="KX75" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="KY75" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -71436,8 +71661,11 @@
       <c r="KW76" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="KX76" t="n">
+      <c r="KX76" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="KY76" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -72370,8 +72598,11 @@
       <c r="KW77" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="KX77" t="n">
+      <c r="KX77" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="KY77" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -73304,8 +73535,11 @@
       <c r="KW78" s="1" t="n">
         <v>2.4</v>
       </c>
-      <c r="KX78" t="n">
+      <c r="KX78" s="1" t="n">
         <v>4.1</v>
+      </c>
+      <c r="KY78" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -74238,8 +74472,11 @@
       <c r="KW79" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KX79" t="n">
+      <c r="KX79" s="1" t="n">
         <v>6.83</v>
+      </c>
+      <c r="KY79" t="n">
+        <v>3.64</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -75172,8 +75409,11 @@
       <c r="KW80" s="1" t="n">
         <v>38.3</v>
       </c>
-      <c r="KX80" t="n">
+      <c r="KX80" s="1" t="n">
         <v>17.1</v>
+      </c>
+      <c r="KY80" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -76106,8 +76346,11 @@
       <c r="KW81" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="KX81" t="n">
+      <c r="KX81" s="1" t="n">
         <v>14.6</v>
+      </c>
+      <c r="KY81" t="n">
+        <v>27.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -77040,8 +77283,11 @@
       <c r="KW82" s="1" t="n">
         <v>189.9</v>
       </c>
-      <c r="KX82" t="n">
+      <c r="KX82" s="1" t="n">
         <v>189.2</v>
+      </c>
+      <c r="KY82" t="n">
+        <v>186.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -77974,8 +78220,11 @@
       <c r="KW83" s="1" t="n">
         <v>89.2</v>
       </c>
-      <c r="KX83" t="n">
+      <c r="KX83" s="1" t="n">
         <v>85.09999999999999</v>
+      </c>
+      <c r="KY83" t="n">
+        <v>85.8</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -78908,8 +79157,11 @@
       <c r="KW84" s="1" t="n">
         <v>26.24</v>
       </c>
-      <c r="KX84" t="n">
+      <c r="KX84" s="1" t="n">
         <v>24.8</v>
+      </c>
+      <c r="KY84" t="n">
+        <v>27.16</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -79842,8 +80094,11 @@
       <c r="KW85" s="1" t="n">
         <v>103.2</v>
       </c>
-      <c r="KX85" t="n">
+      <c r="KX85" s="1" t="n">
         <v>77.90000000000001</v>
+      </c>
+      <c r="KY85" t="n">
+        <v>127.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -80776,8 +81031,11 @@
       <c r="KW86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KX86" t="n">
+      <c r="KX86" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KY86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -81710,8 +81968,11 @@
       <c r="KW87" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KX87" t="n">
+      <c r="KX87" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KY87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -82644,8 +82905,11 @@
       <c r="KW88" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KX88" t="n">
+      <c r="KX88" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KY88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -83578,8 +83842,11 @@
       <c r="KW89" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KX89" t="n">
+      <c r="KX89" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KY89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -84512,8 +84779,11 @@
       <c r="KW90" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="KX90" t="n">
+      <c r="KX90" s="1" t="n">
         <v>126</v>
+      </c>
+      <c r="KY90" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -85446,8 +85716,11 @@
       <c r="KW91" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="KX91" t="n">
+      <c r="KX91" s="1" t="n">
         <v>244</v>
+      </c>
+      <c r="KY91" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -86380,8 +86653,11 @@
       <c r="KW92" s="1" t="n">
         <v>257</v>
       </c>
-      <c r="KX92" t="n">
+      <c r="KX92" s="1" t="n">
         <v>286</v>
+      </c>
+      <c r="KY92" t="n">
+        <v>277</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -87314,8 +87590,11 @@
       <c r="KW93" s="1" t="n">
         <v>73.2</v>
       </c>
-      <c r="KX93" t="n">
+      <c r="KX93" s="1" t="n">
         <v>75.7</v>
+      </c>
+      <c r="KY93" t="n">
+        <v>73.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -88248,8 +88527,11 @@
       <c r="KW94" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="KX94" t="n">
+      <c r="KX94" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="KY94" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -89182,8 +89464,11 @@
       <c r="KW95" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KX95" t="n">
+      <c r="KX95" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KY95" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -90116,8 +90401,11 @@
       <c r="KW96" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KX96" t="n">
+      <c r="KX96" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KY96" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -91050,8 +91338,11 @@
       <c r="KW97" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="KX97" t="n">
+      <c r="KX97" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="KY97" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -91984,8 +92275,11 @@
       <c r="KW98" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="KX98" t="n">
+      <c r="KX98" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="KY98" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -92918,8 +93212,11 @@
       <c r="KW99" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="KX99" t="n">
+      <c r="KX99" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="KY99" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -93852,8 +94149,11 @@
       <c r="KW100" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KX100" t="n">
+      <c r="KX100" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KY100" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -94786,8 +95086,11 @@
       <c r="KW101" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KX101" t="n">
+      <c r="KX101" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KY101" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -95720,8 +96023,11 @@
       <c r="KW102" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="KX102" t="n">
+      <c r="KX102" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="KY102" t="n">
+        <v>78.59999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/AFL_ML/Data/Hawthorn_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KY102"/>
+  <dimension ref="A1:KZ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KI93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KN97" activeCellId="0" sqref="KN97"/>
@@ -1389,8 +1389,11 @@
       <c r="KX1" s="1" t="n">
         <v>10900</v>
       </c>
-      <c r="KY1" t="n">
+      <c r="KY1" s="1" t="n">
         <v>10909</v>
+      </c>
+      <c r="KZ1" t="n">
+        <v>10917</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2326,7 +2329,10 @@
       <c r="KX2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KY2" t="n">
+      <c r="KY2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KZ2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3263,8 +3269,11 @@
       <c r="KX3" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="KY3" t="n">
+      <c r="KY3" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -4200,8 +4209,11 @@
       <c r="KX4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KY4" t="n">
+      <c r="KY4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -5137,8 +5149,11 @@
       <c r="KX5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KY5" t="n">
+      <c r="KY5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KZ5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -6074,8 +6089,11 @@
       <c r="KX6" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="KY6" t="n">
+      <c r="KY6" s="1" t="n">
         <v>95</v>
+      </c>
+      <c r="KZ6" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -7011,8 +7029,11 @@
       <c r="KX7" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KY7" t="n">
+      <c r="KY7" s="1" t="n">
         <v>96</v>
+      </c>
+      <c r="KZ7" t="n">
+        <v>122</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7948,8 +7969,11 @@
       <c r="KX8" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="KY8" t="n">
+      <c r="KY8" s="1" t="n">
         <v>-1</v>
+      </c>
+      <c r="KZ8" t="n">
+        <v>-29</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8885,7 +8909,10 @@
       <c r="KX9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KY9" t="n">
+      <c r="KY9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9822,8 +9849,11 @@
       <c r="KX10" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KY10" t="n">
+      <c r="KY10" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KZ10" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10759,8 +10789,11 @@
       <c r="KX11" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="KY11" t="n">
+      <c r="KY11" s="1" t="n">
         <v>198</v>
+      </c>
+      <c r="KZ11" t="n">
+        <v>193</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -11696,8 +11729,11 @@
       <c r="KX12" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="KY12" t="n">
+      <c r="KY12" s="1" t="n">
         <v>161</v>
+      </c>
+      <c r="KZ12" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -12633,8 +12669,11 @@
       <c r="KX13" s="1" t="n">
         <v>438</v>
       </c>
-      <c r="KY13" t="n">
+      <c r="KY13" s="1" t="n">
         <v>359</v>
+      </c>
+      <c r="KZ13" t="n">
+        <v>363</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -13570,8 +13609,11 @@
       <c r="KX14" s="1" t="n">
         <v>0.93</v>
       </c>
-      <c r="KY14" t="n">
+      <c r="KY14" s="1" t="n">
         <v>1.23</v>
+      </c>
+      <c r="KZ14" t="n">
+        <v>1.14</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -14507,8 +14549,11 @@
       <c r="KX15" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="KY15" t="n">
+      <c r="KY15" s="1" t="n">
         <v>89</v>
+      </c>
+      <c r="KZ15" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -15444,8 +15489,11 @@
       <c r="KX16" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="KY16" t="n">
+      <c r="KY16" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="KZ16" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -16381,8 +16429,11 @@
       <c r="KX17" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="KY17" t="n">
+      <c r="KY17" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="KZ17" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -17318,8 +17369,11 @@
       <c r="KX18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KY18" t="n">
+      <c r="KY18" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KZ18" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -18255,8 +18309,11 @@
       <c r="KX19" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="KY19" t="n">
+      <c r="KY19" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KZ19" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -19192,8 +19249,11 @@
       <c r="KX20" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KY20" t="n">
+      <c r="KY20" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KZ20" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -20129,8 +20189,11 @@
       <c r="KX21" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KY21" t="n">
+      <c r="KY21" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KZ21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -21066,8 +21129,11 @@
       <c r="KX22" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KY22" t="n">
+      <c r="KY22" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KZ22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -22003,8 +22069,11 @@
       <c r="KX23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KY23" t="n">
+      <c r="KY23" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KZ23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -22940,8 +23009,11 @@
       <c r="KX24" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="KY24" t="n">
+      <c r="KY24" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="KZ24" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -23877,8 +23949,11 @@
       <c r="KX25" s="1" t="n">
         <v>42.9</v>
       </c>
-      <c r="KY25" t="n">
+      <c r="KY25" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="KZ25" t="n">
+        <v>60.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -24814,8 +24889,11 @@
       <c r="KX26" s="1" t="n">
         <v>36.5</v>
       </c>
-      <c r="KY26" t="n">
+      <c r="KY26" s="1" t="n">
         <v>23.93</v>
+      </c>
+      <c r="KZ26" t="n">
+        <v>25.93</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -25751,8 +25829,11 @@
       <c r="KX27" s="1" t="n">
         <v>15.64</v>
       </c>
-      <c r="KY27" t="n">
+      <c r="KY27" s="1" t="n">
         <v>17.95</v>
+      </c>
+      <c r="KZ27" t="n">
+        <v>15.78</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -26688,8 +26769,11 @@
       <c r="KX28" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KY28" t="n">
+      <c r="KY28" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="KZ28" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -27625,8 +27709,11 @@
       <c r="KX29" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="KY29" t="n">
+      <c r="KY29" s="1" t="n">
         <v>67</v>
+      </c>
+      <c r="KZ29" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -28562,8 +28649,11 @@
       <c r="KX30" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="KY30" t="n">
+      <c r="KY30" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="KZ30" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -29499,8 +29589,11 @@
       <c r="KX31" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="KY31" t="n">
+      <c r="KY31" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="KZ31" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -30436,8 +30529,11 @@
       <c r="KX32" s="1" t="n">
         <v>2.5</v>
       </c>
-      <c r="KY32" t="n">
+      <c r="KY32" s="1" t="n">
         <v>2.75</v>
+      </c>
+      <c r="KZ32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -31373,8 +31469,11 @@
       <c r="KX33" s="1" t="n">
         <v>5.83</v>
       </c>
-      <c r="KY33" t="n">
+      <c r="KY33" s="1" t="n">
         <v>3.67</v>
+      </c>
+      <c r="KZ33" t="n">
+        <v>3.29</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -32310,8 +32409,11 @@
       <c r="KX34" s="1" t="n">
         <v>35.7</v>
       </c>
-      <c r="KY34" t="n">
+      <c r="KY34" s="1" t="n">
         <v>36.4</v>
+      </c>
+      <c r="KZ34" t="n">
+        <v>39.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -33247,8 +33349,11 @@
       <c r="KX35" s="1" t="n">
         <v>17.1</v>
       </c>
-      <c r="KY35" t="n">
+      <c r="KY35" s="1" t="n">
         <v>27.3</v>
+      </c>
+      <c r="KZ35" t="n">
+        <v>30.4</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -34184,8 +34289,11 @@
       <c r="KX36" s="1" t="n">
         <v>188.8</v>
       </c>
-      <c r="KY36" t="n">
+      <c r="KY36" s="1" t="n">
         <v>188.2</v>
+      </c>
+      <c r="KZ36" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -35121,8 +35229,11 @@
       <c r="KX37" s="1" t="n">
         <v>86.7</v>
       </c>
-      <c r="KY37" t="n">
+      <c r="KY37" s="1" t="n">
         <v>86</v>
+      </c>
+      <c r="KZ37" t="n">
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -36058,8 +36169,11 @@
       <c r="KX38" s="1" t="n">
         <v>24.74</v>
       </c>
-      <c r="KY38" t="n">
+      <c r="KY38" s="1" t="n">
         <v>24.41</v>
+      </c>
+      <c r="KZ38" t="n">
+        <v>24.33</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -36995,8 +37109,11 @@
       <c r="KX39" s="1" t="n">
         <v>83.09999999999999</v>
       </c>
-      <c r="KY39" t="n">
+      <c r="KY39" s="1" t="n">
         <v>82.7</v>
+      </c>
+      <c r="KZ39" t="n">
+        <v>75.2</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -37932,8 +38049,11 @@
       <c r="KX40" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KY40" t="n">
+      <c r="KY40" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KZ40" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -38869,7 +38989,10 @@
       <c r="KX41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KY41" t="n">
+      <c r="KY41" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KZ41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -39806,8 +39929,11 @@
       <c r="KX42" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KY42" t="n">
+      <c r="KY42" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KZ42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -40743,7 +40869,10 @@
       <c r="KX43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KY43" t="n">
+      <c r="KY43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KZ43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41680,8 +41809,11 @@
       <c r="KX44" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="KY44" t="n">
+      <c r="KY44" s="1" t="n">
         <v>128</v>
+      </c>
+      <c r="KZ44" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -42617,8 +42749,11 @@
       <c r="KX45" s="1" t="n">
         <v>291</v>
       </c>
-      <c r="KY45" t="n">
+      <c r="KY45" s="1" t="n">
         <v>224</v>
+      </c>
+      <c r="KZ45" t="n">
+        <v>247</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -43554,8 +43689,11 @@
       <c r="KX46" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="KY46" t="n">
+      <c r="KY46" s="1" t="n">
         <v>258</v>
+      </c>
+      <c r="KZ46" t="n">
+        <v>281</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -44491,8 +44629,11 @@
       <c r="KX47" s="1" t="n">
         <v>75.3</v>
       </c>
-      <c r="KY47" t="n">
+      <c r="KY47" s="1" t="n">
         <v>71.90000000000001</v>
+      </c>
+      <c r="KZ47" t="n">
+        <v>77.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -45428,8 +45569,11 @@
       <c r="KX48" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="KY48" t="n">
+      <c r="KY48" s="1" t="n">
         <v>67</v>
+      </c>
+      <c r="KZ48" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -46365,8 +46509,11 @@
       <c r="KX49" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KY49" t="n">
+      <c r="KY49" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KZ49" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -47302,8 +47449,11 @@
       <c r="KX50" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KY50" t="n">
+      <c r="KY50" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KZ50" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -48239,8 +48389,11 @@
       <c r="KX51" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KY51" t="n">
+      <c r="KY51" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="KZ51" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -49176,8 +49329,11 @@
       <c r="KX52" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="KY52" t="n">
+      <c r="KY52" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="KZ52" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -50113,7 +50269,10 @@
       <c r="KX53" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="KY53" t="n">
+      <c r="KY53" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="KZ53" t="n">
         <v>32</v>
       </c>
     </row>
@@ -51050,8 +51209,11 @@
       <c r="KX54" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KY54" t="n">
+      <c r="KY54" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="KZ54" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -51987,8 +52149,11 @@
       <c r="KX55" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KY55" t="n">
+      <c r="KY55" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KZ55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -52924,8 +53089,11 @@
       <c r="KX56" s="1" t="n">
         <v>91.7</v>
       </c>
-      <c r="KY56" t="n">
+      <c r="KY56" s="1" t="n">
         <v>53.3</v>
+      </c>
+      <c r="KZ56" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -53861,8 +54029,11 @@
       <c r="KX57" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="KY57" t="n">
+      <c r="KY57" s="1" t="n">
         <v>232</v>
+      </c>
+      <c r="KZ57" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -54798,8 +54969,11 @@
       <c r="KX58" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="KY58" t="n">
+      <c r="KY58" s="1" t="n">
         <v>146</v>
+      </c>
+      <c r="KZ58" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -55735,8 +55909,11 @@
       <c r="KX59" s="1" t="n">
         <v>378</v>
       </c>
-      <c r="KY59" t="n">
+      <c r="KY59" s="1" t="n">
         <v>378</v>
+      </c>
+      <c r="KZ59" t="n">
+        <v>394</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -56672,8 +56849,11 @@
       <c r="KX60" s="1" t="n">
         <v>1.38</v>
       </c>
-      <c r="KY60" t="n">
+      <c r="KY60" s="1" t="n">
         <v>1.59</v>
+      </c>
+      <c r="KZ60" t="n">
+        <v>1.74</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -57609,8 +57789,11 @@
       <c r="KX61" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="KY61" t="n">
+      <c r="KY61" s="1" t="n">
         <v>115</v>
+      </c>
+      <c r="KZ61" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -58546,8 +58729,11 @@
       <c r="KX62" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="KY62" t="n">
+      <c r="KY62" s="1" t="n">
         <v>73</v>
+      </c>
+      <c r="KZ62" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -59483,8 +59669,11 @@
       <c r="KX63" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="KY63" t="n">
+      <c r="KY63" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="KZ63" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -60420,8 +60609,11 @@
       <c r="KX64" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="KY64" t="n">
+      <c r="KY64" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KZ64" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -61357,8 +61549,11 @@
       <c r="KX65" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KY65" t="n">
+      <c r="KY65" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KZ65" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -62294,8 +62489,11 @@
       <c r="KX66" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KY66" t="n">
+      <c r="KY66" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KZ66" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -63231,8 +63429,11 @@
       <c r="KX67" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KY67" t="n">
+      <c r="KY67" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KZ67" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -64168,8 +64369,11 @@
       <c r="KX68" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KY68" t="n">
+      <c r="KY68" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KZ68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -65105,8 +65309,11 @@
       <c r="KX69" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KY69" t="n">
+      <c r="KY69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KZ69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -66042,8 +66249,11 @@
       <c r="KX70" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KY70" t="n">
+      <c r="KY70" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="KZ70" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -66979,8 +67189,11 @@
       <c r="KX71" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="KY71" t="n">
+      <c r="KY71" s="1" t="n">
         <v>53.8</v>
+      </c>
+      <c r="KZ71" t="n">
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -67916,8 +68129,11 @@
       <c r="KX72" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="KY72" t="n">
+      <c r="KY72" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="KZ72" t="n">
+        <v>20.74</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -68853,8 +69069,11 @@
       <c r="KX73" s="1" t="n">
         <v>37.8</v>
       </c>
-      <c r="KY73" t="n">
+      <c r="KY73" s="1" t="n">
         <v>14.54</v>
+      </c>
+      <c r="KZ73" t="n">
+        <v>14.59</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -69790,8 +70009,11 @@
       <c r="KX74" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="KY74" t="n">
+      <c r="KY74" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="KZ74" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -70727,8 +70949,11 @@
       <c r="KX75" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="KY75" t="n">
+      <c r="KY75" s="1" t="n">
         <v>76</v>
+      </c>
+      <c r="KZ75" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -71664,8 +71889,11 @@
       <c r="KX76" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="KY76" t="n">
+      <c r="KY76" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="KZ76" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -72601,8 +72829,11 @@
       <c r="KX77" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="KY77" t="n">
+      <c r="KY77" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="KZ77" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -73538,8 +73769,11 @@
       <c r="KX78" s="1" t="n">
         <v>4.1</v>
       </c>
-      <c r="KY78" t="n">
+      <c r="KY78" s="1" t="n">
         <v>1.96</v>
+      </c>
+      <c r="KZ78" t="n">
+        <v>2.11</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -74475,8 +74709,11 @@
       <c r="KX79" s="1" t="n">
         <v>6.83</v>
       </c>
-      <c r="KY79" t="n">
+      <c r="KY79" s="1" t="n">
         <v>3.64</v>
+      </c>
+      <c r="KZ79" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -75412,8 +75649,11 @@
       <c r="KX80" s="1" t="n">
         <v>17.1</v>
       </c>
-      <c r="KY80" t="n">
+      <c r="KY80" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="KZ80" t="n">
+        <v>42.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -76349,8 +76589,11 @@
       <c r="KX81" s="1" t="n">
         <v>14.6</v>
       </c>
-      <c r="KY81" t="n">
+      <c r="KY81" s="1" t="n">
         <v>27.5</v>
+      </c>
+      <c r="KZ81" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -77286,8 +77529,11 @@
       <c r="KX82" s="1" t="n">
         <v>189.2</v>
       </c>
-      <c r="KY82" t="n">
+      <c r="KY82" s="1" t="n">
         <v>186.7</v>
+      </c>
+      <c r="KZ82" t="n">
+        <v>187.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -78223,8 +78469,11 @@
       <c r="KX83" s="1" t="n">
         <v>85.09999999999999</v>
       </c>
-      <c r="KY83" t="n">
+      <c r="KY83" s="1" t="n">
         <v>85.8</v>
+      </c>
+      <c r="KZ83" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -79160,8 +79409,11 @@
       <c r="KX84" s="1" t="n">
         <v>24.8</v>
       </c>
-      <c r="KY84" t="n">
+      <c r="KY84" s="1" t="n">
         <v>27.16</v>
+      </c>
+      <c r="KZ84" t="n">
+        <v>25.16</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -80097,8 +80349,11 @@
       <c r="KX85" s="1" t="n">
         <v>77.90000000000001</v>
       </c>
-      <c r="KY85" t="n">
+      <c r="KY85" s="1" t="n">
         <v>127.3</v>
+      </c>
+      <c r="KZ85" t="n">
+        <v>92.5</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -81034,8 +81289,11 @@
       <c r="KX86" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KY86" t="n">
+      <c r="KY86" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KZ86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -81971,8 +82229,11 @@
       <c r="KX87" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KY87" t="n">
+      <c r="KY87" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KZ87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -82908,8 +83169,11 @@
       <c r="KX88" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KY88" t="n">
+      <c r="KY88" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KZ88" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -83845,8 +84109,11 @@
       <c r="KX89" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KY89" t="n">
+      <c r="KY89" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KZ89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -84782,8 +85049,11 @@
       <c r="KX90" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="KY90" t="n">
+      <c r="KY90" s="1" t="n">
         <v>142</v>
+      </c>
+      <c r="KZ90" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -85719,8 +85989,11 @@
       <c r="KX91" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="KY91" t="n">
+      <c r="KY91" s="1" t="n">
         <v>240</v>
+      </c>
+      <c r="KZ91" t="n">
+        <v>258</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -86656,8 +86929,11 @@
       <c r="KX92" s="1" t="n">
         <v>286</v>
       </c>
-      <c r="KY92" t="n">
+      <c r="KY92" s="1" t="n">
         <v>277</v>
+      </c>
+      <c r="KZ92" t="n">
+        <v>305</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -87593,8 +87869,11 @@
       <c r="KX93" s="1" t="n">
         <v>75.7</v>
       </c>
-      <c r="KY93" t="n">
+      <c r="KY93" s="1" t="n">
         <v>73.3</v>
+      </c>
+      <c r="KZ93" t="n">
+        <v>77.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -88530,8 +88809,11 @@
       <c r="KX94" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="KY94" t="n">
+      <c r="KY94" s="1" t="n">
         <v>76</v>
+      </c>
+      <c r="KZ94" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -89467,8 +89749,11 @@
       <c r="KX95" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KY95" t="n">
+      <c r="KY95" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="KZ95" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -90404,8 +90689,11 @@
       <c r="KX96" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KY96" t="n">
+      <c r="KY96" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="KZ96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -91341,8 +91629,11 @@
       <c r="KX97" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="KY97" t="n">
+      <c r="KY97" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="KZ97" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -92278,8 +92569,11 @@
       <c r="KX98" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="KY98" t="n">
+      <c r="KY98" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="KZ98" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -93215,8 +93509,11 @@
       <c r="KX99" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="KY99" t="n">
+      <c r="KY99" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="KZ99" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -94152,8 +94449,11 @@
       <c r="KX100" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KY100" t="n">
+      <c r="KY100" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KZ100" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -95089,8 +95389,11 @@
       <c r="KX101" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KY101" t="n">
+      <c r="KY101" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KZ101" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -96026,8 +96329,11 @@
       <c r="KX102" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="KY102" t="n">
+      <c r="KY102" s="1" t="n">
         <v>78.59999999999999</v>
+      </c>
+      <c r="KZ102" t="n">
+        <v>68.40000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/AFL_ML/Data/Hawthorn_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KZ102"/>
+  <dimension ref="A1:LA102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KI93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KN97" activeCellId="0" sqref="KN97"/>
@@ -1392,8 +1392,11 @@
       <c r="KY1" s="1" t="n">
         <v>10909</v>
       </c>
-      <c r="KZ1" t="n">
+      <c r="KZ1" s="1" t="n">
         <v>10917</v>
+      </c>
+      <c r="LA1" t="n">
+        <v>10925</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2332,7 +2335,10 @@
       <c r="KY2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KZ2" t="n">
+      <c r="KZ2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LA2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3272,8 +3278,11 @@
       <c r="KY3" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="KZ3" t="n">
+      <c r="KZ3" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -4212,7 +4221,10 @@
       <c r="KY4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KZ4" t="n">
+      <c r="KZ4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5152,8 +5164,11 @@
       <c r="KY5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KZ5" t="n">
+      <c r="KZ5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="LA5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -6092,8 +6107,11 @@
       <c r="KY6" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="KZ6" t="n">
+      <c r="KZ6" s="1" t="n">
         <v>93</v>
+      </c>
+      <c r="LA6" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -7032,8 +7050,11 @@
       <c r="KY7" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="KZ7" t="n">
+      <c r="KZ7" s="1" t="n">
         <v>122</v>
+      </c>
+      <c r="LA7" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7972,8 +7993,11 @@
       <c r="KY8" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="KZ8" t="n">
+      <c r="KZ8" s="1" t="n">
         <v>-29</v>
+      </c>
+      <c r="LA8" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8912,8 +8936,11 @@
       <c r="KY9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KZ9" t="n">
+      <c r="KZ9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="LA9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -9852,8 +9879,11 @@
       <c r="KY10" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KZ10" t="n">
+      <c r="KZ10" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="LA10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10792,8 +10822,11 @@
       <c r="KY11" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="KZ11" t="n">
+      <c r="KZ11" s="1" t="n">
         <v>193</v>
+      </c>
+      <c r="LA11" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -11732,8 +11765,11 @@
       <c r="KY12" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="KZ12" t="n">
+      <c r="KZ12" s="1" t="n">
         <v>170</v>
+      </c>
+      <c r="LA12" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -12672,8 +12708,11 @@
       <c r="KY13" s="1" t="n">
         <v>359</v>
       </c>
-      <c r="KZ13" t="n">
+      <c r="KZ13" s="1" t="n">
         <v>363</v>
+      </c>
+      <c r="LA13" t="n">
+        <v>410</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -13612,8 +13651,11 @@
       <c r="KY14" s="1" t="n">
         <v>1.23</v>
       </c>
-      <c r="KZ14" t="n">
+      <c r="KZ14" s="1" t="n">
         <v>1.14</v>
+      </c>
+      <c r="LA14" t="n">
+        <v>1.59</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -14552,8 +14594,11 @@
       <c r="KY15" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="KZ15" t="n">
+      <c r="KZ15" s="1" t="n">
         <v>98</v>
+      </c>
+      <c r="LA15" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -15492,8 +15537,11 @@
       <c r="KY16" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="KZ16" t="n">
+      <c r="KZ16" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="LA16" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -16432,8 +16480,11 @@
       <c r="KY17" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KZ17" t="n">
+      <c r="KZ17" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="LA17" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -17372,8 +17423,11 @@
       <c r="KY18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KZ18" t="n">
+      <c r="KZ18" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="LA18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -18312,8 +18366,11 @@
       <c r="KY19" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KZ19" t="n">
+      <c r="KZ19" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="LA19" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -19252,8 +19309,11 @@
       <c r="KY20" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KZ20" t="n">
+      <c r="KZ20" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="LA20" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -20192,8 +20252,11 @@
       <c r="KY21" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KZ21" t="n">
+      <c r="KZ21" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="LA21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -21132,8 +21195,11 @@
       <c r="KY22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KZ22" t="n">
+      <c r="KZ22" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="LA22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -22072,8 +22138,11 @@
       <c r="KY23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KZ23" t="n">
+      <c r="KZ23" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="LA23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -23012,8 +23081,11 @@
       <c r="KY24" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="KZ24" t="n">
+      <c r="KZ24" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="LA24" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -23952,8 +24024,11 @@
       <c r="KY25" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="KZ25" t="n">
+      <c r="KZ25" s="1" t="n">
         <v>60.9</v>
+      </c>
+      <c r="LA25" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -24892,8 +24967,11 @@
       <c r="KY26" s="1" t="n">
         <v>23.93</v>
       </c>
-      <c r="KZ26" t="n">
+      <c r="KZ26" s="1" t="n">
         <v>25.93</v>
+      </c>
+      <c r="LA26" t="n">
+        <v>25.62</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -25832,8 +25910,11 @@
       <c r="KY27" s="1" t="n">
         <v>17.95</v>
       </c>
-      <c r="KZ27" t="n">
+      <c r="KZ27" s="1" t="n">
         <v>15.78</v>
+      </c>
+      <c r="LA27" t="n">
+        <v>16.4</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -26772,8 +26853,11 @@
       <c r="KY28" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KZ28" t="n">
+      <c r="KZ28" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="LA28" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -27712,8 +27796,11 @@
       <c r="KY29" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="KZ29" t="n">
+      <c r="KZ29" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="LA29" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -28652,8 +28739,11 @@
       <c r="KY30" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="KZ30" t="n">
+      <c r="KZ30" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="LA30" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -29592,8 +29682,11 @@
       <c r="KY31" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="KZ31" t="n">
+      <c r="KZ31" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="LA31" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -30532,8 +30625,11 @@
       <c r="KY32" s="1" t="n">
         <v>2.75</v>
       </c>
-      <c r="KZ32" t="n">
+      <c r="KZ32" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="LA32" t="n">
+        <v>2.36</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -31472,8 +31568,11 @@
       <c r="KY33" s="1" t="n">
         <v>3.67</v>
       </c>
-      <c r="KZ33" t="n">
+      <c r="KZ33" s="1" t="n">
         <v>3.29</v>
+      </c>
+      <c r="LA33" t="n">
+        <v>3.69</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -32412,8 +32511,11 @@
       <c r="KY34" s="1" t="n">
         <v>36.4</v>
       </c>
-      <c r="KZ34" t="n">
+      <c r="KZ34" s="1" t="n">
         <v>39.1</v>
+      </c>
+      <c r="LA34" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -33352,8 +33454,11 @@
       <c r="KY35" s="1" t="n">
         <v>27.3</v>
       </c>
-      <c r="KZ35" t="n">
+      <c r="KZ35" s="1" t="n">
         <v>30.4</v>
+      </c>
+      <c r="LA35" t="n">
+        <v>27.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -34292,8 +34397,11 @@
       <c r="KY36" s="1" t="n">
         <v>188.2</v>
       </c>
-      <c r="KZ36" t="n">
+      <c r="KZ36" s="1" t="n">
         <v>188</v>
+      </c>
+      <c r="LA36" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -35232,8 +35340,11 @@
       <c r="KY37" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="KZ37" t="n">
+      <c r="KZ37" s="1" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="LA37" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -36172,8 +36283,11 @@
       <c r="KY38" s="1" t="n">
         <v>24.41</v>
       </c>
-      <c r="KZ38" t="n">
+      <c r="KZ38" s="1" t="n">
         <v>24.33</v>
+      </c>
+      <c r="LA38" t="n">
+        <v>24.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -37112,8 +37226,11 @@
       <c r="KY39" s="1" t="n">
         <v>82.7</v>
       </c>
-      <c r="KZ39" t="n">
+      <c r="KZ39" s="1" t="n">
         <v>75.2</v>
+      </c>
+      <c r="LA39" t="n">
+        <v>76.2</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -38052,8 +38169,11 @@
       <c r="KY40" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KZ40" t="n">
+      <c r="KZ40" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="LA40" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -38992,8 +39112,11 @@
       <c r="KY41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KZ41" t="n">
+      <c r="KZ41" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="LA41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -39932,7 +40055,10 @@
       <c r="KY42" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KZ42" t="n">
+      <c r="KZ42" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="LA42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -40872,8 +40998,11 @@
       <c r="KY43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KZ43" t="n">
+      <c r="KZ43" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="LA43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -41812,8 +41941,11 @@
       <c r="KY44" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="KZ44" t="n">
+      <c r="KZ44" s="1" t="n">
         <v>123</v>
+      </c>
+      <c r="LA44" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -42752,8 +42884,11 @@
       <c r="KY45" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="KZ45" t="n">
+      <c r="KZ45" s="1" t="n">
         <v>247</v>
+      </c>
+      <c r="LA45" t="n">
+        <v>285</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -43692,8 +43827,11 @@
       <c r="KY46" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="KZ46" t="n">
+      <c r="KZ46" s="1" t="n">
         <v>281</v>
+      </c>
+      <c r="LA46" t="n">
+        <v>323</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -44632,8 +44770,11 @@
       <c r="KY47" s="1" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="KZ47" t="n">
+      <c r="KZ47" s="1" t="n">
         <v>77.40000000000001</v>
+      </c>
+      <c r="LA47" t="n">
+        <v>78.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -45572,8 +45713,11 @@
       <c r="KY48" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="KZ48" t="n">
+      <c r="KZ48" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="LA48" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -46512,8 +46656,11 @@
       <c r="KY49" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KZ49" t="n">
+      <c r="KZ49" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="LA49" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -47452,8 +47599,11 @@
       <c r="KY50" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KZ50" t="n">
+      <c r="KZ50" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="LA50" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -48392,8 +48542,11 @@
       <c r="KY51" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KZ51" t="n">
+      <c r="KZ51" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="LA51" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -49332,8 +49485,11 @@
       <c r="KY52" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="KZ52" t="n">
+      <c r="KZ52" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="LA52" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -50272,8 +50428,11 @@
       <c r="KY53" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="KZ53" t="n">
+      <c r="KZ53" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="LA53" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -51212,8 +51371,11 @@
       <c r="KY54" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KZ54" t="n">
+      <c r="KZ54" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="LA54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -52152,8 +52314,11 @@
       <c r="KY55" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KZ55" t="n">
+      <c r="KZ55" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="LA55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -53092,8 +53257,11 @@
       <c r="KY56" s="1" t="n">
         <v>53.3</v>
       </c>
-      <c r="KZ56" t="n">
+      <c r="KZ56" s="1" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="LA56" t="n">
+        <v>56.2</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -54032,8 +54200,11 @@
       <c r="KY57" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="KZ57" t="n">
+      <c r="KZ57" s="1" t="n">
         <v>250</v>
+      </c>
+      <c r="LA57" t="n">
+        <v>173</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -54972,8 +55143,11 @@
       <c r="KY58" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="KZ58" t="n">
+      <c r="KZ58" s="1" t="n">
         <v>144</v>
+      </c>
+      <c r="LA58" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -55912,8 +56086,11 @@
       <c r="KY59" s="1" t="n">
         <v>378</v>
       </c>
-      <c r="KZ59" t="n">
+      <c r="KZ59" s="1" t="n">
         <v>394</v>
+      </c>
+      <c r="LA59" t="n">
+        <v>313</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -56852,8 +57029,11 @@
       <c r="KY60" s="1" t="n">
         <v>1.59</v>
       </c>
-      <c r="KZ60" t="n">
+      <c r="KZ60" s="1" t="n">
         <v>1.74</v>
+      </c>
+      <c r="LA60" t="n">
+        <v>1.24</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -57792,8 +57972,11 @@
       <c r="KY61" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="KZ61" t="n">
+      <c r="KZ61" s="1" t="n">
         <v>136</v>
+      </c>
+      <c r="LA61" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -58732,8 +58915,11 @@
       <c r="KY62" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="KZ62" t="n">
+      <c r="KZ62" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="LA62" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -59672,8 +59858,11 @@
       <c r="KY63" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="KZ63" t="n">
+      <c r="KZ63" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="LA63" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -60612,8 +60801,11 @@
       <c r="KY64" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KZ64" t="n">
+      <c r="KZ64" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="LA64" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -61552,8 +61744,11 @@
       <c r="KY65" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KZ65" t="n">
+      <c r="KZ65" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="LA65" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -62492,8 +62687,11 @@
       <c r="KY66" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KZ66" t="n">
+      <c r="KZ66" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="LA66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -63432,8 +63630,11 @@
       <c r="KY67" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KZ67" t="n">
+      <c r="KZ67" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="LA67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -64372,8 +64573,11 @@
       <c r="KY68" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KZ68" t="n">
+      <c r="KZ68" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="LA68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -65312,8 +65516,11 @@
       <c r="KY69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KZ69" t="n">
+      <c r="KZ69" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="LA69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -66252,8 +66459,11 @@
       <c r="KY70" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="KZ70" t="n">
+      <c r="KZ70" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="LA70" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -67192,8 +67402,11 @@
       <c r="KY71" s="1" t="n">
         <v>53.8</v>
       </c>
-      <c r="KZ71" t="n">
+      <c r="KZ71" s="1" t="n">
         <v>70.40000000000001</v>
+      </c>
+      <c r="LA71" t="n">
+        <v>61.1</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -68132,8 +68345,11 @@
       <c r="KY72" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="KZ72" t="n">
+      <c r="KZ72" s="1" t="n">
         <v>20.74</v>
+      </c>
+      <c r="LA72" t="n">
+        <v>28.45</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -69072,8 +69288,11 @@
       <c r="KY73" s="1" t="n">
         <v>14.54</v>
       </c>
-      <c r="KZ73" t="n">
+      <c r="KZ73" s="1" t="n">
         <v>14.59</v>
+      </c>
+      <c r="LA73" t="n">
+        <v>17.39</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -70012,8 +70231,11 @@
       <c r="KY74" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KZ74" t="n">
+      <c r="KZ74" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="LA74" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -70952,8 +71174,11 @@
       <c r="KY75" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="KZ75" t="n">
+      <c r="KZ75" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="LA75" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -71892,8 +72117,11 @@
       <c r="KY76" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KZ76" t="n">
+      <c r="KZ76" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="LA76" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -72832,8 +73060,11 @@
       <c r="KY77" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="KZ77" t="n">
+      <c r="KZ77" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="LA77" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -73772,8 +74003,11 @@
       <c r="KY78" s="1" t="n">
         <v>1.96</v>
       </c>
-      <c r="KZ78" t="n">
+      <c r="KZ78" s="1" t="n">
         <v>2.11</v>
+      </c>
+      <c r="LA78" t="n">
+        <v>2.39</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -74712,8 +74946,11 @@
       <c r="KY79" s="1" t="n">
         <v>3.64</v>
       </c>
-      <c r="KZ79" t="n">
+      <c r="KZ79" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="LA79" t="n">
+        <v>3.91</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -75652,8 +75889,11 @@
       <c r="KY80" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="KZ80" t="n">
+      <c r="KZ80" s="1" t="n">
         <v>42.1</v>
+      </c>
+      <c r="LA80" t="n">
+        <v>39.5</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -76592,8 +76832,11 @@
       <c r="KY81" s="1" t="n">
         <v>27.5</v>
       </c>
-      <c r="KZ81" t="n">
+      <c r="KZ81" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="LA81" t="n">
+        <v>25.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -77532,8 +77775,11 @@
       <c r="KY82" s="1" t="n">
         <v>186.7</v>
       </c>
-      <c r="KZ82" t="n">
+      <c r="KZ82" s="1" t="n">
         <v>187.4</v>
+      </c>
+      <c r="LA82" t="n">
+        <v>187.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -78472,8 +78718,11 @@
       <c r="KY83" s="1" t="n">
         <v>85.8</v>
       </c>
-      <c r="KZ83" t="n">
+      <c r="KZ83" s="1" t="n">
         <v>85</v>
+      </c>
+      <c r="LA83" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -79412,8 +79661,11 @@
       <c r="KY84" s="1" t="n">
         <v>27.16</v>
       </c>
-      <c r="KZ84" t="n">
+      <c r="KZ84" s="1" t="n">
         <v>25.16</v>
+      </c>
+      <c r="LA84" t="n">
+        <v>27.49</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -80352,8 +80604,11 @@
       <c r="KY85" s="1" t="n">
         <v>127.3</v>
       </c>
-      <c r="KZ85" t="n">
+      <c r="KZ85" s="1" t="n">
         <v>92.5</v>
+      </c>
+      <c r="LA85" t="n">
+        <v>138.6</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -81292,8 +81547,11 @@
       <c r="KY86" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KZ86" t="n">
+      <c r="KZ86" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="LA86" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -82232,8 +82490,11 @@
       <c r="KY87" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KZ87" t="n">
+      <c r="KZ87" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="LA87" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -83172,8 +83433,11 @@
       <c r="KY88" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KZ88" t="n">
+      <c r="KZ88" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="LA88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -84112,8 +84376,11 @@
       <c r="KY89" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KZ89" t="n">
+      <c r="KZ89" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="LA89" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -85052,8 +85319,11 @@
       <c r="KY90" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="KZ90" t="n">
+      <c r="KZ90" s="1" t="n">
         <v>128</v>
+      </c>
+      <c r="LA90" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -85992,8 +86262,11 @@
       <c r="KY91" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="KZ91" t="n">
+      <c r="KZ91" s="1" t="n">
         <v>258</v>
+      </c>
+      <c r="LA91" t="n">
+        <v>198</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -86932,8 +87205,11 @@
       <c r="KY92" s="1" t="n">
         <v>277</v>
       </c>
-      <c r="KZ92" t="n">
+      <c r="KZ92" s="1" t="n">
         <v>305</v>
+      </c>
+      <c r="LA92" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -87872,8 +88148,11 @@
       <c r="KY93" s="1" t="n">
         <v>73.3</v>
       </c>
-      <c r="KZ93" t="n">
+      <c r="KZ93" s="1" t="n">
         <v>77.40000000000001</v>
+      </c>
+      <c r="LA93" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -88812,8 +89091,11 @@
       <c r="KY94" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="KZ94" t="n">
+      <c r="KZ94" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="LA94" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -89752,8 +90034,11 @@
       <c r="KY95" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="KZ95" t="n">
+      <c r="KZ95" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="LA95" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -90692,8 +90977,11 @@
       <c r="KY96" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="KZ96" t="n">
+      <c r="KZ96" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="LA96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -91632,8 +91920,11 @@
       <c r="KY97" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KZ97" t="n">
+      <c r="KZ97" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="LA97" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -92572,8 +92863,11 @@
       <c r="KY98" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KZ98" t="n">
+      <c r="KZ98" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="LA98" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -93512,8 +93806,11 @@
       <c r="KY99" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="KZ99" t="n">
+      <c r="KZ99" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="LA99" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -94452,8 +94749,11 @@
       <c r="KY100" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KZ100" t="n">
+      <c r="KZ100" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="LA100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -95392,8 +95692,11 @@
       <c r="KY101" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KZ101" t="n">
+      <c r="KZ101" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="LA101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -96332,8 +96635,11 @@
       <c r="KY102" s="1" t="n">
         <v>78.59999999999999</v>
       </c>
-      <c r="KZ102" t="n">
+      <c r="KZ102" s="1" t="n">
         <v>68.40000000000001</v>
+      </c>
+      <c r="LA102" t="n">
+        <v>90.90000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/AFL_ML/Data/Hawthorn_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:LA102"/>
+  <dimension ref="A1:LB102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KI93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KN97" activeCellId="0" sqref="KN97"/>
@@ -1395,8 +1395,11 @@
       <c r="KZ1" s="1" t="n">
         <v>10917</v>
       </c>
-      <c r="LA1" t="n">
+      <c r="LA1" s="1" t="n">
         <v>10925</v>
+      </c>
+      <c r="LB1" t="n">
+        <v>10934</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2338,7 +2341,10 @@
       <c r="KZ2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="LA2" t="n">
+      <c r="LA2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LB2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3281,8 +3287,11 @@
       <c r="KZ3" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="LA3" t="n">
+      <c r="LA3" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -4224,7 +4233,10 @@
       <c r="KZ4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="LA4" t="n">
+      <c r="LA4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5167,7 +5179,10 @@
       <c r="KZ5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="LA5" t="n">
+      <c r="LA5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6110,8 +6125,11 @@
       <c r="KZ6" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="LA6" t="n">
+      <c r="LA6" s="1" t="n">
         <v>105</v>
+      </c>
+      <c r="LB6" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -7053,8 +7071,11 @@
       <c r="KZ7" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="LA7" t="n">
+      <c r="LA7" s="1" t="n">
         <v>73</v>
+      </c>
+      <c r="LB7" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7996,8 +8017,11 @@
       <c r="KZ8" s="1" t="n">
         <v>-29</v>
       </c>
-      <c r="LA8" t="n">
+      <c r="LA8" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="LB8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8939,7 +8963,10 @@
       <c r="KZ9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="LA9" t="n">
+      <c r="LA9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="LB9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9882,8 +9909,11 @@
       <c r="KZ10" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="LA10" t="n">
+      <c r="LA10" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="LB10" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10825,8 +10855,11 @@
       <c r="KZ11" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="LA11" t="n">
+      <c r="LA11" s="1" t="n">
         <v>252</v>
+      </c>
+      <c r="LB11" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -11768,8 +11801,11 @@
       <c r="KZ12" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="LA12" t="n">
+      <c r="LA12" s="1" t="n">
         <v>158</v>
+      </c>
+      <c r="LB12" t="n">
+        <v>175</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -12711,8 +12747,11 @@
       <c r="KZ13" s="1" t="n">
         <v>363</v>
       </c>
-      <c r="LA13" t="n">
+      <c r="LA13" s="1" t="n">
         <v>410</v>
+      </c>
+      <c r="LB13" t="n">
+        <v>417</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -13654,8 +13693,11 @@
       <c r="KZ14" s="1" t="n">
         <v>1.14</v>
       </c>
-      <c r="LA14" t="n">
+      <c r="LA14" s="1" t="n">
         <v>1.59</v>
+      </c>
+      <c r="LB14" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -14597,8 +14639,11 @@
       <c r="KZ15" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="LA15" t="n">
+      <c r="LA15" s="1" t="n">
         <v>139</v>
+      </c>
+      <c r="LB15" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -15540,8 +15585,11 @@
       <c r="KZ16" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="LA16" t="n">
+      <c r="LA16" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="LB16" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -16483,8 +16531,11 @@
       <c r="KZ17" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="LA17" t="n">
+      <c r="LA17" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="LB17" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -17426,8 +17477,11 @@
       <c r="KZ18" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="LA18" t="n">
+      <c r="LA18" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="LB18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -18369,8 +18423,11 @@
       <c r="KZ19" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="LA19" t="n">
+      <c r="LA19" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="LB19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -19312,8 +19369,11 @@
       <c r="KZ20" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="LA20" t="n">
+      <c r="LA20" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="LB20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -20255,8 +20315,11 @@
       <c r="KZ21" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="LA21" t="n">
+      <c r="LA21" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="LB21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -21198,8 +21261,11 @@
       <c r="KZ22" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="LA22" t="n">
+      <c r="LA22" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="LB22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -22141,7 +22207,10 @@
       <c r="KZ23" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="LA23" t="n">
+      <c r="LA23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="LB23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -23084,8 +23153,11 @@
       <c r="KZ24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="LA24" t="n">
+      <c r="LA24" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="LB24" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -24027,8 +24099,11 @@
       <c r="KZ25" s="1" t="n">
         <v>60.9</v>
       </c>
-      <c r="LA25" t="n">
+      <c r="LA25" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="LB25" t="n">
+        <v>40.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -24970,8 +25045,11 @@
       <c r="KZ26" s="1" t="n">
         <v>25.93</v>
       </c>
-      <c r="LA26" t="n">
+      <c r="LA26" s="1" t="n">
         <v>25.62</v>
+      </c>
+      <c r="LB26" t="n">
+        <v>46.33</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -25913,8 +25991,11 @@
       <c r="KZ27" s="1" t="n">
         <v>15.78</v>
       </c>
-      <c r="LA27" t="n">
+      <c r="LA27" s="1" t="n">
         <v>16.4</v>
+      </c>
+      <c r="LB27" t="n">
+        <v>18.95</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -26856,8 +26937,11 @@
       <c r="KZ28" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="LA28" t="n">
+      <c r="LA28" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="LB28" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -27799,8 +27883,11 @@
       <c r="KZ29" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="LA29" t="n">
+      <c r="LA29" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="LB29" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -28742,8 +28829,11 @@
       <c r="KZ30" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="LA30" t="n">
+      <c r="LA30" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="LB30" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -29685,8 +29775,11 @@
       <c r="KZ31" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="LA31" t="n">
+      <c r="LA31" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="LB31" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -30628,8 +30721,11 @@
       <c r="KZ32" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="LA32" t="n">
+      <c r="LA32" s="1" t="n">
         <v>2.36</v>
+      </c>
+      <c r="LB32" t="n">
+        <v>2.27</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -31571,8 +31667,11 @@
       <c r="KZ33" s="1" t="n">
         <v>3.29</v>
       </c>
-      <c r="LA33" t="n">
+      <c r="LA33" s="1" t="n">
         <v>3.69</v>
+      </c>
+      <c r="LB33" t="n">
+        <v>5.56</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -32514,8 +32613,11 @@
       <c r="KZ34" s="1" t="n">
         <v>39.1</v>
       </c>
-      <c r="LA34" t="n">
+      <c r="LA34" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="LB34" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -33457,8 +33559,11 @@
       <c r="KZ35" s="1" t="n">
         <v>30.4</v>
       </c>
-      <c r="LA35" t="n">
+      <c r="LA35" s="1" t="n">
         <v>27.1</v>
+      </c>
+      <c r="LB35" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -34400,8 +34505,11 @@
       <c r="KZ36" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="LA36" t="n">
+      <c r="LA36" s="1" t="n">
         <v>189</v>
+      </c>
+      <c r="LB36" t="n">
+        <v>188.5</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -35343,8 +35451,11 @@
       <c r="KZ37" s="1" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="LA37" t="n">
+      <c r="LA37" s="1" t="n">
         <v>86.7</v>
+      </c>
+      <c r="LB37" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -36286,8 +36397,11 @@
       <c r="KZ38" s="1" t="n">
         <v>24.33</v>
       </c>
-      <c r="LA38" t="n">
+      <c r="LA38" s="1" t="n">
         <v>24.24</v>
+      </c>
+      <c r="LB38" t="n">
+        <v>24.33</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -37229,8 +37343,11 @@
       <c r="KZ39" s="1" t="n">
         <v>75.2</v>
       </c>
-      <c r="LA39" t="n">
+      <c r="LA39" s="1" t="n">
         <v>76.2</v>
+      </c>
+      <c r="LB39" t="n">
+        <v>83.2</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -38172,8 +38289,11 @@
       <c r="KZ40" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="LA40" t="n">
+      <c r="LA40" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="LB40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -39115,7 +39235,10 @@
       <c r="KZ41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="LA41" t="n">
+      <c r="LA41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="LB41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -40058,8 +40181,11 @@
       <c r="KZ42" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="LA42" t="n">
+      <c r="LA42" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="LB42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -41001,7 +41127,10 @@
       <c r="KZ43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="LA43" t="n">
+      <c r="LA43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="LB43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -41944,8 +42073,11 @@
       <c r="KZ44" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="LA44" t="n">
+      <c r="LA44" s="1" t="n">
         <v>116</v>
+      </c>
+      <c r="LB44" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -42887,8 +43019,11 @@
       <c r="KZ45" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="LA45" t="n">
+      <c r="LA45" s="1" t="n">
         <v>285</v>
+      </c>
+      <c r="LB45" t="n">
+        <v>286</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -43830,8 +43965,11 @@
       <c r="KZ46" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="LA46" t="n">
+      <c r="LA46" s="1" t="n">
         <v>323</v>
+      </c>
+      <c r="LB46" t="n">
+        <v>330</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -44773,8 +44911,11 @@
       <c r="KZ47" s="1" t="n">
         <v>77.40000000000001</v>
       </c>
-      <c r="LA47" t="n">
+      <c r="LA47" s="1" t="n">
         <v>78.8</v>
+      </c>
+      <c r="LB47" t="n">
+        <v>79.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -45716,8 +45857,11 @@
       <c r="KZ48" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="LA48" t="n">
+      <c r="LA48" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="LB48" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -46659,8 +46803,11 @@
       <c r="KZ49" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="LA49" t="n">
+      <c r="LA49" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="LB49" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -47602,8 +47749,11 @@
       <c r="KZ50" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="LA50" t="n">
+      <c r="LA50" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="LB50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -48545,8 +48695,11 @@
       <c r="KZ51" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="LA51" t="n">
+      <c r="LA51" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="LB51" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -49488,8 +49641,11 @@
       <c r="KZ52" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="LA52" t="n">
+      <c r="LA52" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="LB52" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -50431,8 +50587,11 @@
       <c r="KZ53" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="LA53" t="n">
+      <c r="LA53" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="LB53" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -51374,8 +51533,11 @@
       <c r="KZ54" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="LA54" t="n">
+      <c r="LA54" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="LB54" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -52317,8 +52479,11 @@
       <c r="KZ55" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="LA55" t="n">
+      <c r="LA55" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="LB55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -53260,8 +53425,11 @@
       <c r="KZ56" s="1" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="LA56" t="n">
+      <c r="LA56" s="1" t="n">
         <v>56.2</v>
+      </c>
+      <c r="LB56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -54203,8 +54371,11 @@
       <c r="KZ57" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="LA57" t="n">
+      <c r="LA57" s="1" t="n">
         <v>173</v>
+      </c>
+      <c r="LB57" t="n">
+        <v>196</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -55146,8 +55317,11 @@
       <c r="KZ58" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="LA58" t="n">
+      <c r="LA58" s="1" t="n">
         <v>140</v>
+      </c>
+      <c r="LB58" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -56089,8 +56263,11 @@
       <c r="KZ59" s="1" t="n">
         <v>394</v>
       </c>
-      <c r="LA59" t="n">
+      <c r="LA59" s="1" t="n">
         <v>313</v>
+      </c>
+      <c r="LB59" t="n">
+        <v>296</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -57032,8 +57209,11 @@
       <c r="KZ60" s="1" t="n">
         <v>1.74</v>
       </c>
-      <c r="LA60" t="n">
+      <c r="LA60" s="1" t="n">
         <v>1.24</v>
+      </c>
+      <c r="LB60" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -57975,8 +58155,11 @@
       <c r="KZ61" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="LA61" t="n">
+      <c r="LA61" s="1" t="n">
         <v>76</v>
+      </c>
+      <c r="LB61" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -58918,8 +59101,11 @@
       <c r="KZ62" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="LA62" t="n">
+      <c r="LA62" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="LB62" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -59861,8 +60047,11 @@
       <c r="KZ63" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="LA63" t="n">
+      <c r="LA63" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="LB63" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -60804,8 +60993,11 @@
       <c r="KZ64" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="LA64" t="n">
+      <c r="LA64" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="LB64" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -61747,8 +61939,11 @@
       <c r="KZ65" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="LA65" t="n">
+      <c r="LA65" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="LB65" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -62690,8 +62885,11 @@
       <c r="KZ66" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="LA66" t="n">
+      <c r="LA66" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="LB66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -63633,8 +63831,11 @@
       <c r="KZ67" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="LA67" t="n">
+      <c r="LA67" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="LB67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -64576,8 +64777,11 @@
       <c r="KZ68" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="LA68" t="n">
+      <c r="LA68" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="LB68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -65519,8 +65723,11 @@
       <c r="KZ69" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="LA69" t="n">
+      <c r="LA69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="LB69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -66462,8 +66669,11 @@
       <c r="KZ70" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="LA70" t="n">
+      <c r="LA70" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="LB70" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -67405,8 +67615,11 @@
       <c r="KZ71" s="1" t="n">
         <v>70.40000000000001</v>
       </c>
-      <c r="LA71" t="n">
+      <c r="LA71" s="1" t="n">
         <v>61.1</v>
+      </c>
+      <c r="LB71" t="n">
+        <v>47.4</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -68348,8 +68561,11 @@
       <c r="KZ72" s="1" t="n">
         <v>20.74</v>
       </c>
-      <c r="LA72" t="n">
+      <c r="LA72" s="1" t="n">
         <v>28.45</v>
+      </c>
+      <c r="LB72" t="n">
+        <v>32.89</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -69291,8 +69507,11 @@
       <c r="KZ73" s="1" t="n">
         <v>14.59</v>
       </c>
-      <c r="LA73" t="n">
+      <c r="LA73" s="1" t="n">
         <v>17.39</v>
+      </c>
+      <c r="LB73" t="n">
+        <v>15.58</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -70234,8 +70453,11 @@
       <c r="KZ74" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="LA74" t="n">
+      <c r="LA74" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="LB74" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -71177,8 +71399,11 @@
       <c r="KZ75" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="LA75" t="n">
+      <c r="LA75" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="LB75" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -72120,8 +72345,11 @@
       <c r="KZ76" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="LA76" t="n">
+      <c r="LA76" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="LB76" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -73063,7 +73291,10 @@
       <c r="KZ77" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="LA77" t="n">
+      <c r="LA77" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="LB77" t="n">
         <v>43</v>
       </c>
     </row>
@@ -74006,8 +74237,11 @@
       <c r="KZ78" s="1" t="n">
         <v>2.11</v>
       </c>
-      <c r="LA78" t="n">
+      <c r="LA78" s="1" t="n">
         <v>2.39</v>
+      </c>
+      <c r="LB78" t="n">
+        <v>2.26</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -74949,8 +75183,11 @@
       <c r="KZ79" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="LA79" t="n">
+      <c r="LA79" s="1" t="n">
         <v>3.91</v>
+      </c>
+      <c r="LB79" t="n">
+        <v>4.78</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -75892,8 +76129,11 @@
       <c r="KZ80" s="1" t="n">
         <v>42.1</v>
       </c>
-      <c r="LA80" t="n">
+      <c r="LA80" s="1" t="n">
         <v>39.5</v>
+      </c>
+      <c r="LB80" t="n">
+        <v>37.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -76835,8 +77075,11 @@
       <c r="KZ81" s="1" t="n">
         <v>33.3</v>
       </c>
-      <c r="LA81" t="n">
+      <c r="LA81" s="1" t="n">
         <v>25.6</v>
+      </c>
+      <c r="LB81" t="n">
+        <v>20.9</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -77778,8 +78021,11 @@
       <c r="KZ82" s="1" t="n">
         <v>187.4</v>
       </c>
-      <c r="LA82" t="n">
+      <c r="LA82" s="1" t="n">
         <v>187.5</v>
+      </c>
+      <c r="LB82" t="n">
+        <v>189.1</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -78721,8 +78967,11 @@
       <c r="KZ83" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="LA83" t="n">
+      <c r="LA83" s="1" t="n">
         <v>87</v>
+      </c>
+      <c r="LB83" t="n">
+        <v>86.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -79664,8 +79913,11 @@
       <c r="KZ84" s="1" t="n">
         <v>25.16</v>
       </c>
-      <c r="LA84" t="n">
+      <c r="LA84" s="1" t="n">
         <v>27.49</v>
+      </c>
+      <c r="LB84" t="n">
+        <v>26.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -80607,8 +80859,11 @@
       <c r="KZ85" s="1" t="n">
         <v>92.5</v>
       </c>
-      <c r="LA85" t="n">
+      <c r="LA85" s="1" t="n">
         <v>138.6</v>
+      </c>
+      <c r="LB85" t="n">
+        <v>114.1</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -81550,8 +81805,11 @@
       <c r="KZ86" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="LA86" t="n">
+      <c r="LA86" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="LB86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -82493,8 +82751,11 @@
       <c r="KZ87" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="LA87" t="n">
+      <c r="LA87" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="LB87" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -83436,8 +83697,11 @@
       <c r="KZ88" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="LA88" t="n">
+      <c r="LA88" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="LB88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -84379,8 +84643,11 @@
       <c r="KZ89" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="LA89" t="n">
+      <c r="LA89" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="LB89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -85322,7 +85589,10 @@
       <c r="KZ90" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="LA90" t="n">
+      <c r="LA90" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="LB90" t="n">
         <v>112</v>
       </c>
     </row>
@@ -86265,8 +86535,11 @@
       <c r="KZ91" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="LA91" t="n">
+      <c r="LA91" s="1" t="n">
         <v>198</v>
+      </c>
+      <c r="LB91" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -87208,8 +87481,11 @@
       <c r="KZ92" s="1" t="n">
         <v>305</v>
       </c>
-      <c r="LA92" t="n">
+      <c r="LA92" s="1" t="n">
         <v>238</v>
+      </c>
+      <c r="LB92" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -88151,8 +88427,11 @@
       <c r="KZ93" s="1" t="n">
         <v>77.40000000000001</v>
       </c>
-      <c r="LA93" t="n">
+      <c r="LA93" s="1" t="n">
         <v>76</v>
+      </c>
+      <c r="LB93" t="n">
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -89094,8 +89373,11 @@
       <c r="KZ94" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="LA94" t="n">
+      <c r="LA94" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="LB94" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -90037,8 +90319,11 @@
       <c r="KZ95" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="LA95" t="n">
+      <c r="LA95" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="LB95" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -90980,8 +91265,11 @@
       <c r="KZ96" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="LA96" t="n">
+      <c r="LA96" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="LB96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -91923,8 +92211,11 @@
       <c r="KZ97" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="LA97" t="n">
+      <c r="LA97" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="LB97" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -92866,8 +93157,11 @@
       <c r="KZ98" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="LA98" t="n">
+      <c r="LA98" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="LB98" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -93809,8 +94103,11 @@
       <c r="KZ99" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="LA99" t="n">
+      <c r="LA99" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="LB99" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -94752,8 +95049,11 @@
       <c r="KZ100" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="LA100" t="n">
+      <c r="LA100" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="LB100" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -95695,8 +95995,11 @@
       <c r="KZ101" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="LA101" t="n">
+      <c r="LA101" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="LB101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -96638,8 +96941,11 @@
       <c r="KZ102" s="1" t="n">
         <v>68.40000000000001</v>
       </c>
-      <c r="LA102" t="n">
+      <c r="LA102" s="1" t="n">
         <v>90.90000000000001</v>
+      </c>
+      <c r="LB102" t="n">
+        <v>55.6</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/AFL_ML/Data/Hawthorn_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:LC102"/>
+  <dimension ref="A1:LD102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KI93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KN97" activeCellId="0" sqref="KN97"/>
@@ -1401,8 +1401,11 @@
       <c r="LB1" s="1" t="n">
         <v>10934</v>
       </c>
-      <c r="LC1" t="n">
+      <c r="LC1" s="1" t="n">
         <v>10943</v>
+      </c>
+      <c r="LD1" t="n">
+        <v>10953</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2350,7 +2353,10 @@
       <c r="LB2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="LC2" t="n">
+      <c r="LC2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LD2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3299,8 +3305,11 @@
       <c r="LB3" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="LC3" t="n">
+      <c r="LC3" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -4248,8 +4257,11 @@
       <c r="LB4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="LC4" t="n">
+      <c r="LC4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -5197,8 +5209,11 @@
       <c r="LB5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="LC5" t="n">
+      <c r="LC5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="LD5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -6146,8 +6161,11 @@
       <c r="LB6" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="LC6" t="n">
+      <c r="LC6" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="LD6" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -7095,8 +7113,11 @@
       <c r="LB7" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="LC7" t="n">
+      <c r="LC7" s="1" t="n">
         <v>87</v>
+      </c>
+      <c r="LD7" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -8044,8 +8065,11 @@
       <c r="LB8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="LC8" t="n">
+      <c r="LC8" s="1" t="n">
         <v>-27</v>
+      </c>
+      <c r="LD8" t="n">
+        <v>-37</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8993,7 +9017,10 @@
       <c r="LB9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="LC9" t="n">
+      <c r="LC9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9942,8 +9969,11 @@
       <c r="LB10" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="LC10" t="n">
+      <c r="LC10" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="LD10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10891,8 +10921,11 @@
       <c r="LB11" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="LC11" t="n">
+      <c r="LC11" s="1" t="n">
         <v>224</v>
+      </c>
+      <c r="LD11" t="n">
+        <v>211</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -11840,8 +11873,11 @@
       <c r="LB12" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="LC12" t="n">
+      <c r="LC12" s="1" t="n">
         <v>149</v>
+      </c>
+      <c r="LD12" t="n">
+        <v>172</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -12789,8 +12825,11 @@
       <c r="LB13" s="1" t="n">
         <v>417</v>
       </c>
-      <c r="LC13" t="n">
+      <c r="LC13" s="1" t="n">
         <v>373</v>
+      </c>
+      <c r="LD13" t="n">
+        <v>383</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -13738,8 +13777,11 @@
       <c r="LB14" s="1" t="n">
         <v>1.38</v>
       </c>
-      <c r="LC14" t="n">
+      <c r="LC14" s="1" t="n">
         <v>1.5</v>
+      </c>
+      <c r="LD14" t="n">
+        <v>1.23</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -14687,8 +14729,11 @@
       <c r="LB15" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="LC15" t="n">
+      <c r="LC15" s="1" t="n">
         <v>117</v>
+      </c>
+      <c r="LD15" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -15636,8 +15681,11 @@
       <c r="LB16" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="LC16" t="n">
+      <c r="LC16" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="LD16" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -16585,8 +16633,11 @@
       <c r="LB17" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="LC17" t="n">
+      <c r="LC17" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="LD17" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -17534,7 +17585,10 @@
       <c r="LB18" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="LC18" t="n">
+      <c r="LC18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="LD18" t="n">
         <v>17</v>
       </c>
     </row>
@@ -18483,8 +18537,11 @@
       <c r="LB19" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="LC19" t="n">
+      <c r="LC19" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="LD19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -19432,8 +19489,11 @@
       <c r="LB20" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="LC20" t="n">
+      <c r="LC20" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="LD20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -20381,7 +20441,10 @@
       <c r="LB21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="LC21" t="n">
+      <c r="LC21" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="LD21" t="n">
         <v>6</v>
       </c>
     </row>
@@ -21330,8 +21393,11 @@
       <c r="LB22" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="LC22" t="n">
+      <c r="LC22" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="LD22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -22279,8 +22345,11 @@
       <c r="LB23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="LC23" t="n">
+      <c r="LC23" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="LD23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -23228,8 +23297,11 @@
       <c r="LB24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="LC24" t="n">
+      <c r="LC24" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="LD24" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -24177,8 +24249,11 @@
       <c r="LB25" s="1" t="n">
         <v>40.9</v>
       </c>
-      <c r="LC25" t="n">
+      <c r="LC25" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="LD25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -25126,8 +25201,11 @@
       <c r="LB26" s="1" t="n">
         <v>46.33</v>
       </c>
-      <c r="LC26" t="n">
+      <c r="LC26" s="1" t="n">
         <v>41.44</v>
+      </c>
+      <c r="LD26" t="n">
+        <v>47.88</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -26075,8 +26153,11 @@
       <c r="LB27" s="1" t="n">
         <v>18.95</v>
       </c>
-      <c r="LC27" t="n">
+      <c r="LC27" s="1" t="n">
         <v>24.87</v>
+      </c>
+      <c r="LD27" t="n">
+        <v>23.94</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -27024,8 +27105,11 @@
       <c r="LB28" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="LC28" t="n">
+      <c r="LC28" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="LD28" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -27973,8 +28057,11 @@
       <c r="LB29" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="LC29" t="n">
+      <c r="LC29" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="LD29" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -28922,8 +29009,11 @@
       <c r="LB30" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="LC30" t="n">
+      <c r="LC30" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="LD30" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -29871,8 +29961,11 @@
       <c r="LB31" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="LC31" t="n">
+      <c r="LC31" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="LD31" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -30820,8 +30913,11 @@
       <c r="LB32" s="1" t="n">
         <v>2.27</v>
       </c>
-      <c r="LC32" t="n">
+      <c r="LC32" s="1" t="n">
         <v>2.53</v>
+      </c>
+      <c r="LD32" t="n">
+        <v>2.94</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -31769,8 +31865,11 @@
       <c r="LB33" s="1" t="n">
         <v>5.56</v>
       </c>
-      <c r="LC33" t="n">
+      <c r="LC33" s="1" t="n">
         <v>4.22</v>
+      </c>
+      <c r="LD33" t="n">
+        <v>5.88</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -32718,8 +32817,11 @@
       <c r="LB34" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="LC34" t="n">
+      <c r="LC34" s="1" t="n">
         <v>36.8</v>
+      </c>
+      <c r="LD34" t="n">
+        <v>29.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -33667,8 +33769,11 @@
       <c r="LB35" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="LC35" t="n">
+      <c r="LC35" s="1" t="n">
         <v>23.7</v>
+      </c>
+      <c r="LD35" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -34616,8 +34721,11 @@
       <c r="LB36" s="1" t="n">
         <v>188.5</v>
       </c>
-      <c r="LC36" t="n">
+      <c r="LC36" s="1" t="n">
         <v>190</v>
+      </c>
+      <c r="LD36" t="n">
+        <v>189.9</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -35565,8 +35673,11 @@
       <c r="LB37" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="LC37" t="n">
+      <c r="LC37" s="1" t="n">
         <v>85.90000000000001</v>
+      </c>
+      <c r="LD37" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -36514,8 +36625,11 @@
       <c r="LB38" s="1" t="n">
         <v>24.33</v>
       </c>
-      <c r="LC38" t="n">
+      <c r="LC38" s="1" t="n">
         <v>23.66</v>
+      </c>
+      <c r="LD38" t="n">
+        <v>24.16</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -37463,8 +37577,11 @@
       <c r="LB39" s="1" t="n">
         <v>83.2</v>
       </c>
-      <c r="LC39" t="n">
+      <c r="LC39" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="LD39" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -38412,8 +38529,11 @@
       <c r="LB40" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="LC40" t="n">
+      <c r="LC40" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="LD40" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -39361,8 +39481,11 @@
       <c r="LB41" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="LC41" t="n">
+      <c r="LC41" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="LD41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -40310,7 +40433,10 @@
       <c r="LB42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="LC42" t="n">
+      <c r="LC42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="LD42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41259,7 +41385,10 @@
       <c r="LB43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="LC43" t="n">
+      <c r="LC43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="LD43" t="n">
         <v>2</v>
       </c>
     </row>
@@ -42208,8 +42337,11 @@
       <c r="LB44" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="LC44" t="n">
+      <c r="LC44" s="1" t="n">
         <v>124</v>
+      </c>
+      <c r="LD44" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -43157,8 +43289,11 @@
       <c r="LB45" s="1" t="n">
         <v>286</v>
       </c>
-      <c r="LC45" t="n">
+      <c r="LC45" s="1" t="n">
         <v>249</v>
+      </c>
+      <c r="LD45" t="n">
+        <v>269</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -44106,8 +44241,11 @@
       <c r="LB46" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="LC46" t="n">
+      <c r="LC46" s="1" t="n">
         <v>281</v>
+      </c>
+      <c r="LD46" t="n">
+        <v>297</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -45055,8 +45193,11 @@
       <c r="LB47" s="1" t="n">
         <v>79.09999999999999</v>
       </c>
-      <c r="LC47" t="n">
+      <c r="LC47" s="1" t="n">
         <v>75.3</v>
+      </c>
+      <c r="LD47" t="n">
+        <v>77.5</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -46004,8 +46145,11 @@
       <c r="LB48" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="LC48" t="n">
+      <c r="LC48" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="LD48" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -46953,8 +47097,11 @@
       <c r="LB49" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="LC49" t="n">
+      <c r="LC49" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="LD49" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -47902,7 +48049,10 @@
       <c r="LB50" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="LC50" t="n">
+      <c r="LC50" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="LD50" t="n">
         <v>10</v>
       </c>
     </row>
@@ -48851,8 +49001,11 @@
       <c r="LB51" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="LC51" t="n">
+      <c r="LC51" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="LD51" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -49800,8 +49953,11 @@
       <c r="LB52" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="LC52" t="n">
+      <c r="LC52" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="LD52" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -50749,8 +50905,11 @@
       <c r="LB53" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="LC53" t="n">
+      <c r="LC53" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="LD53" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -51698,8 +51857,11 @@
       <c r="LB54" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="LC54" t="n">
+      <c r="LC54" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="LD54" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -52647,7 +52809,10 @@
       <c r="LB55" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="LC55" t="n">
+      <c r="LC55" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="LD55" t="n">
         <v>6</v>
       </c>
     </row>
@@ -53596,8 +53761,11 @@
       <c r="LB56" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="LC56" t="n">
+      <c r="LC56" s="1" t="n">
         <v>66.7</v>
+      </c>
+      <c r="LD56" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -54545,8 +54713,11 @@
       <c r="LB57" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="LC57" t="n">
+      <c r="LC57" s="1" t="n">
         <v>225</v>
+      </c>
+      <c r="LD57" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -55494,8 +55665,11 @@
       <c r="LB58" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="LC58" t="n">
+      <c r="LC58" s="1" t="n">
         <v>120</v>
+      </c>
+      <c r="LD58" t="n">
+        <v>165</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -56443,8 +56617,11 @@
       <c r="LB59" s="1" t="n">
         <v>296</v>
       </c>
-      <c r="LC59" t="n">
+      <c r="LC59" s="1" t="n">
         <v>345</v>
+      </c>
+      <c r="LD59" t="n">
+        <v>377</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -57392,8 +57569,11 @@
       <c r="LB60" s="1" t="n">
         <v>1.96</v>
       </c>
-      <c r="LC60" t="n">
+      <c r="LC60" s="1" t="n">
         <v>1.88</v>
+      </c>
+      <c r="LD60" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -58341,8 +58521,11 @@
       <c r="LB61" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="LC61" t="n">
+      <c r="LC61" s="1" t="n">
         <v>122</v>
+      </c>
+      <c r="LD61" t="n">
+        <v>113</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -59290,8 +59473,11 @@
       <c r="LB62" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="LC62" t="n">
+      <c r="LC62" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="LD62" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -60239,8 +60425,11 @@
       <c r="LB63" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="LC63" t="n">
+      <c r="LC63" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="LD63" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -61188,8 +61377,11 @@
       <c r="LB64" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="LC64" t="n">
+      <c r="LC64" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="LD64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -62137,7 +62329,10 @@
       <c r="LB65" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="LC65" t="n">
+      <c r="LC65" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="LD65" t="n">
         <v>17</v>
       </c>
     </row>
@@ -63086,8 +63281,11 @@
       <c r="LB66" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="LC66" t="n">
+      <c r="LC66" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="LD66" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -64035,8 +64233,11 @@
       <c r="LB67" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="LC67" t="n">
+      <c r="LC67" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="LD67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -64984,8 +65185,11 @@
       <c r="LB68" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="LC68" t="n">
+      <c r="LC68" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="LD68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -65933,8 +66137,11 @@
       <c r="LB69" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="LC69" t="n">
+      <c r="LC69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="LD69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -66882,8 +67089,11 @@
       <c r="LB70" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="LC70" t="n">
+      <c r="LC70" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="LD70" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -67831,8 +68041,11 @@
       <c r="LB71" s="1" t="n">
         <v>47.4</v>
       </c>
-      <c r="LC71" t="n">
+      <c r="LC71" s="1" t="n">
         <v>59.1</v>
+      </c>
+      <c r="LD71" t="n">
+        <v>60.9</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -68780,8 +68993,11 @@
       <c r="LB72" s="1" t="n">
         <v>32.89</v>
       </c>
-      <c r="LC72" t="n">
+      <c r="LC72" s="1" t="n">
         <v>26.54</v>
+      </c>
+      <c r="LD72" t="n">
+        <v>26.93</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -69729,8 +69945,11 @@
       <c r="LB73" s="1" t="n">
         <v>15.58</v>
       </c>
-      <c r="LC73" t="n">
+      <c r="LC73" s="1" t="n">
         <v>15.68</v>
+      </c>
+      <c r="LD73" t="n">
+        <v>16.39</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -70678,8 +70897,11 @@
       <c r="LB74" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="LC74" t="n">
+      <c r="LC74" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="LD74" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -71627,8 +71849,11 @@
       <c r="LB75" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="LC75" t="n">
+      <c r="LC75" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="LD75" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -72576,8 +72801,11 @@
       <c r="LB76" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="LC76" t="n">
+      <c r="LC76" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="LD76" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -73525,8 +73753,11 @@
       <c r="LB77" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="LC77" t="n">
+      <c r="LC77" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="LD77" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -74474,8 +74705,11 @@
       <c r="LB78" s="1" t="n">
         <v>2.26</v>
       </c>
-      <c r="LC78" t="n">
+      <c r="LC78" s="1" t="n">
         <v>2.77</v>
+      </c>
+      <c r="LD78" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -75423,8 +75657,11 @@
       <c r="LB79" s="1" t="n">
         <v>4.78</v>
       </c>
-      <c r="LC79" t="n">
+      <c r="LC79" s="1" t="n">
         <v>4.69</v>
+      </c>
+      <c r="LD79" t="n">
+        <v>3.21</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -76372,8 +76609,11 @@
       <c r="LB80" s="1" t="n">
         <v>37.2</v>
       </c>
-      <c r="LC80" t="n">
+      <c r="LC80" s="1" t="n">
         <v>34.4</v>
+      </c>
+      <c r="LD80" t="n">
+        <v>51.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -77321,8 +77561,11 @@
       <c r="LB81" s="1" t="n">
         <v>20.9</v>
       </c>
-      <c r="LC81" t="n">
+      <c r="LC81" s="1" t="n">
         <v>21.3</v>
+      </c>
+      <c r="LD81" t="n">
+        <v>31.1</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -78270,8 +78513,11 @@
       <c r="LB82" s="1" t="n">
         <v>189.1</v>
       </c>
-      <c r="LC82" t="n">
+      <c r="LC82" s="1" t="n">
         <v>186.6</v>
+      </c>
+      <c r="LD82" t="n">
+        <v>187.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -79219,8 +79465,11 @@
       <c r="LB83" s="1" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="LC83" t="n">
+      <c r="LC83" s="1" t="n">
         <v>86.7</v>
+      </c>
+      <c r="LD83" t="n">
+        <v>85.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -80168,8 +80417,11 @@
       <c r="LB84" s="1" t="n">
         <v>26.8</v>
       </c>
-      <c r="LC84" t="n">
+      <c r="LC84" s="1" t="n">
         <v>26.16</v>
+      </c>
+      <c r="LD84" t="n">
+        <v>24.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -81117,8 +81369,11 @@
       <c r="LB85" s="1" t="n">
         <v>114.1</v>
       </c>
-      <c r="LC85" t="n">
+      <c r="LC85" s="1" t="n">
         <v>120.3</v>
+      </c>
+      <c r="LD85" t="n">
+        <v>71.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -82066,8 +82321,11 @@
       <c r="LB86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="LC86" t="n">
+      <c r="LC86" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="LD86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -83015,8 +83273,11 @@
       <c r="LB87" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="LC87" t="n">
+      <c r="LC87" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="LD87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -83964,8 +84225,11 @@
       <c r="LB88" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="LC88" t="n">
+      <c r="LC88" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="LD88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -84913,8 +85177,11 @@
       <c r="LB89" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="LC89" t="n">
+      <c r="LC89" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="LD89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -85862,8 +86129,11 @@
       <c r="LB90" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="LC90" t="n">
+      <c r="LC90" s="1" t="n">
         <v>116</v>
+      </c>
+      <c r="LD90" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -86811,8 +87081,11 @@
       <c r="LB91" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="LC91" t="n">
+      <c r="LC91" s="1" t="n">
         <v>221</v>
+      </c>
+      <c r="LD91" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -87760,8 +88033,11 @@
       <c r="LB92" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="LC92" t="n">
+      <c r="LC92" s="1" t="n">
         <v>257</v>
+      </c>
+      <c r="LD92" t="n">
+        <v>299</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -88709,8 +88985,11 @@
       <c r="LB93" s="1" t="n">
         <v>71.59999999999999</v>
       </c>
-      <c r="LC93" t="n">
+      <c r="LC93" s="1" t="n">
         <v>74.5</v>
+      </c>
+      <c r="LD93" t="n">
+        <v>79.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -89658,8 +89937,11 @@
       <c r="LB94" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="LC94" t="n">
+      <c r="LC94" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="LD94" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -90607,8 +90889,11 @@
       <c r="LB95" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="LC95" t="n">
+      <c r="LC95" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="LD95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -91556,7 +91841,10 @@
       <c r="LB96" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="LC96" t="n">
+      <c r="LC96" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="LD96" t="n">
         <v>14</v>
       </c>
     </row>
@@ -92505,8 +92793,11 @@
       <c r="LB97" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="LC97" t="n">
+      <c r="LC97" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="LD97" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -93454,8 +93745,11 @@
       <c r="LB98" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="LC98" t="n">
+      <c r="LC98" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="LD98" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -94403,8 +94697,11 @@
       <c r="LB99" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="LC99" t="n">
+      <c r="LC99" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="LD99" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -95352,8 +95649,11 @@
       <c r="LB100" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="LC100" t="n">
+      <c r="LC100" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="LD100" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -96301,8 +96601,11 @@
       <c r="LB101" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="LC101" t="n">
+      <c r="LC101" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="LD101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -97250,8 +97553,11 @@
       <c r="LB102" s="1" t="n">
         <v>55.6</v>
       </c>
-      <c r="LC102" t="n">
+      <c r="LC102" s="1" t="n">
         <v>61.5</v>
+      </c>
+      <c r="LD102" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/AFL_ML/Data/Hawthorn_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:LD102"/>
+  <dimension ref="A1:LE102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KI93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KN97" activeCellId="0" sqref="KN97"/>
@@ -1404,8 +1404,11 @@
       <c r="LC1" s="1" t="n">
         <v>10943</v>
       </c>
-      <c r="LD1" t="n">
+      <c r="LD1" s="1" t="n">
         <v>10953</v>
+      </c>
+      <c r="LE1" t="n">
+        <v>10973</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2356,7 +2359,10 @@
       <c r="LC2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="LD2" t="n">
+      <c r="LD2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LE2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3308,8 +3314,11 @@
       <c r="LC3" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="LD3" t="n">
+      <c r="LD3" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -4260,8 +4269,11 @@
       <c r="LC4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="LD4" t="n">
+      <c r="LD4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -5212,8 +5224,11 @@
       <c r="LC5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="LD5" t="n">
+      <c r="LD5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="LE5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -6164,8 +6179,11 @@
       <c r="LC6" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="LD6" t="n">
+      <c r="LD6" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="LE6" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -7116,8 +7134,11 @@
       <c r="LC7" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="LD7" t="n">
+      <c r="LD7" s="1" t="n">
         <v>93</v>
+      </c>
+      <c r="LE7" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -8068,8 +8089,11 @@
       <c r="LC8" s="1" t="n">
         <v>-27</v>
       </c>
-      <c r="LD8" t="n">
+      <c r="LD8" s="1" t="n">
         <v>-37</v>
+      </c>
+      <c r="LE8" t="n">
+        <v>-24</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -9020,7 +9044,10 @@
       <c r="LC9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="LD9" t="n">
+      <c r="LD9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9972,8 +9999,11 @@
       <c r="LC10" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="LD10" t="n">
+      <c r="LD10" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="LE10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10924,8 +10954,11 @@
       <c r="LC11" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="LD11" t="n">
+      <c r="LD11" s="1" t="n">
         <v>211</v>
+      </c>
+      <c r="LE11" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -11876,8 +11909,11 @@
       <c r="LC12" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="LD12" t="n">
+      <c r="LD12" s="1" t="n">
         <v>172</v>
+      </c>
+      <c r="LE12" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -12828,8 +12864,11 @@
       <c r="LC13" s="1" t="n">
         <v>373</v>
       </c>
-      <c r="LD13" t="n">
+      <c r="LD13" s="1" t="n">
         <v>383</v>
+      </c>
+      <c r="LE13" t="n">
+        <v>339</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -13780,8 +13819,11 @@
       <c r="LC14" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="LD14" t="n">
+      <c r="LD14" s="1" t="n">
         <v>1.23</v>
+      </c>
+      <c r="LE14" t="n">
+        <v>1.46</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -14732,8 +14774,11 @@
       <c r="LC15" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="LD15" t="n">
+      <c r="LD15" s="1" t="n">
         <v>108</v>
+      </c>
+      <c r="LE15" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -15684,8 +15729,11 @@
       <c r="LC16" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="LD16" t="n">
+      <c r="LD16" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="LE16" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -16636,8 +16684,11 @@
       <c r="LC17" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="LD17" t="n">
+      <c r="LD17" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="LE17" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -17588,8 +17639,11 @@
       <c r="LC18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="LD18" t="n">
+      <c r="LD18" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="LE18" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -18540,8 +18594,11 @@
       <c r="LC19" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="LD19" t="n">
+      <c r="LD19" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="LE19" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -19492,8 +19549,11 @@
       <c r="LC20" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="LD20" t="n">
+      <c r="LD20" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="LE20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -20444,8 +20504,11 @@
       <c r="LC21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="LD21" t="n">
+      <c r="LD21" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="LE21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -21396,8 +21459,11 @@
       <c r="LC22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="LD22" t="n">
+      <c r="LD22" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="LE22" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -22348,8 +22414,11 @@
       <c r="LC23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="LD23" t="n">
+      <c r="LD23" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="LE23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -23300,8 +23369,11 @@
       <c r="LC24" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="LD24" t="n">
+      <c r="LD24" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="LE24" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -24252,8 +24324,11 @@
       <c r="LC25" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="LD25" t="n">
+      <c r="LD25" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="LE25" t="n">
+        <v>39.3</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -25204,8 +25279,11 @@
       <c r="LC26" s="1" t="n">
         <v>41.44</v>
       </c>
-      <c r="LD26" t="n">
+      <c r="LD26" s="1" t="n">
         <v>47.88</v>
+      </c>
+      <c r="LE26" t="n">
+        <v>30.82</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -26156,8 +26234,11 @@
       <c r="LC27" s="1" t="n">
         <v>24.87</v>
       </c>
-      <c r="LD27" t="n">
+      <c r="LD27" s="1" t="n">
         <v>23.94</v>
+      </c>
+      <c r="LE27" t="n">
+        <v>12.11</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -27108,8 +27189,11 @@
       <c r="LC28" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="LD28" t="n">
+      <c r="LD28" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="LE28" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -28060,8 +28144,11 @@
       <c r="LC29" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="LD29" t="n">
+      <c r="LD29" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="LE29" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -29012,8 +29099,11 @@
       <c r="LC30" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="LD30" t="n">
+      <c r="LD30" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="LE30" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -29964,8 +30054,11 @@
       <c r="LC31" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="LD31" t="n">
+      <c r="LD31" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="LE31" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -30916,8 +31009,11 @@
       <c r="LC32" s="1" t="n">
         <v>2.53</v>
       </c>
-      <c r="LD32" t="n">
+      <c r="LD32" s="1" t="n">
         <v>2.94</v>
+      </c>
+      <c r="LE32" t="n">
+        <v>2.04</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -31868,8 +31964,11 @@
       <c r="LC33" s="1" t="n">
         <v>4.22</v>
       </c>
-      <c r="LD33" t="n">
+      <c r="LD33" s="1" t="n">
         <v>5.88</v>
+      </c>
+      <c r="LE33" t="n">
+        <v>5.18</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -32820,8 +32919,11 @@
       <c r="LC34" s="1" t="n">
         <v>36.8</v>
       </c>
-      <c r="LD34" t="n">
+      <c r="LD34" s="1" t="n">
         <v>29.8</v>
+      </c>
+      <c r="LE34" t="n">
+        <v>43.9</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -33772,8 +33874,11 @@
       <c r="LC35" s="1" t="n">
         <v>23.7</v>
       </c>
-      <c r="LD35" t="n">
+      <c r="LD35" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="LE35" t="n">
+        <v>19.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -34724,8 +34829,11 @@
       <c r="LC36" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="LD36" t="n">
+      <c r="LD36" s="1" t="n">
         <v>189.9</v>
+      </c>
+      <c r="LE36" t="n">
+        <v>187.8</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -35676,8 +35784,11 @@
       <c r="LC37" s="1" t="n">
         <v>85.90000000000001</v>
       </c>
-      <c r="LD37" t="n">
+      <c r="LD37" s="1" t="n">
         <v>87</v>
+      </c>
+      <c r="LE37" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -36628,8 +36739,11 @@
       <c r="LC38" s="1" t="n">
         <v>23.66</v>
       </c>
-      <c r="LD38" t="n">
+      <c r="LD38" s="1" t="n">
         <v>24.16</v>
+      </c>
+      <c r="LE38" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -37580,8 +37694,11 @@
       <c r="LC39" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="LD39" t="n">
+      <c r="LD39" s="1" t="n">
         <v>73</v>
+      </c>
+      <c r="LE39" t="n">
+        <v>88.90000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -38532,8 +38649,11 @@
       <c r="LC40" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="LD40" t="n">
+      <c r="LD40" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="LE40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -39484,7 +39604,10 @@
       <c r="LC41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="LD41" t="n">
+      <c r="LD41" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="LE41" t="n">
         <v>6</v>
       </c>
     </row>
@@ -40436,7 +40559,10 @@
       <c r="LC42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="LD42" t="n">
+      <c r="LD42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="LE42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41388,8 +41514,11 @@
       <c r="LC43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="LD43" t="n">
+      <c r="LD43" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="LE43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -42340,8 +42469,11 @@
       <c r="LC44" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="LD44" t="n">
+      <c r="LD44" s="1" t="n">
         <v>117</v>
+      </c>
+      <c r="LE44" t="n">
+        <v>122</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -43292,8 +43424,11 @@
       <c r="LC45" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="LD45" t="n">
+      <c r="LD45" s="1" t="n">
         <v>269</v>
+      </c>
+      <c r="LE45" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -44244,8 +44379,11 @@
       <c r="LC46" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="LD46" t="n">
+      <c r="LD46" s="1" t="n">
         <v>297</v>
+      </c>
+      <c r="LE46" t="n">
+        <v>249</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -45196,8 +45334,11 @@
       <c r="LC47" s="1" t="n">
         <v>75.3</v>
       </c>
-      <c r="LD47" t="n">
+      <c r="LD47" s="1" t="n">
         <v>77.5</v>
+      </c>
+      <c r="LE47" t="n">
+        <v>73.5</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -46148,8 +46289,11 @@
       <c r="LC48" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="LD48" t="n">
+      <c r="LD48" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="LE48" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -47100,8 +47244,11 @@
       <c r="LC49" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="LD49" t="n">
+      <c r="LD49" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="LE49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -48052,8 +48199,11 @@
       <c r="LC50" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="LD50" t="n">
+      <c r="LD50" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="LE50" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -49004,8 +49154,11 @@
       <c r="LC51" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="LD51" t="n">
+      <c r="LD51" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="LE51" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -49956,8 +50109,11 @@
       <c r="LC52" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="LD52" t="n">
+      <c r="LD52" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="LE52" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -50908,8 +51064,11 @@
       <c r="LC53" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="LD53" t="n">
+      <c r="LD53" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="LE53" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -51860,8 +52019,11 @@
       <c r="LC54" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="LD54" t="n">
+      <c r="LD54" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="LE54" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -52812,8 +52974,11 @@
       <c r="LC55" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="LD55" t="n">
+      <c r="LD55" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="LE55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -53764,8 +53929,11 @@
       <c r="LC56" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="LD56" t="n">
+      <c r="LD56" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="LE56" t="n">
+        <v>81.8</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -54716,8 +54884,11 @@
       <c r="LC57" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="LD57" t="n">
+      <c r="LD57" s="1" t="n">
         <v>212</v>
+      </c>
+      <c r="LE57" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -55668,8 +55839,11 @@
       <c r="LC58" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="LD58" t="n">
+      <c r="LD58" s="1" t="n">
         <v>165</v>
+      </c>
+      <c r="LE58" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -56620,8 +56794,11 @@
       <c r="LC59" s="1" t="n">
         <v>345</v>
       </c>
-      <c r="LD59" t="n">
+      <c r="LD59" s="1" t="n">
         <v>377</v>
+      </c>
+      <c r="LE59" t="n">
+        <v>346</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -57572,8 +57749,11 @@
       <c r="LC60" s="1" t="n">
         <v>1.88</v>
       </c>
-      <c r="LD60" t="n">
+      <c r="LD60" s="1" t="n">
         <v>1.28</v>
+      </c>
+      <c r="LE60" t="n">
+        <v>1.45</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -58524,8 +58704,11 @@
       <c r="LC61" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="LD61" t="n">
+      <c r="LD61" s="1" t="n">
         <v>113</v>
+      </c>
+      <c r="LE61" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -59476,8 +59659,11 @@
       <c r="LC62" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="LD62" t="n">
+      <c r="LD62" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="LE62" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -60428,8 +60614,11 @@
       <c r="LC63" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="LD63" t="n">
+      <c r="LD63" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="LE63" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -61380,8 +61569,11 @@
       <c r="LC64" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="LD64" t="n">
+      <c r="LD64" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="LE64" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -62332,8 +62524,11 @@
       <c r="LC65" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="LD65" t="n">
+      <c r="LD65" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="LE65" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -63284,8 +63479,11 @@
       <c r="LC66" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="LD66" t="n">
+      <c r="LD66" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="LE66" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -64236,8 +64434,11 @@
       <c r="LC67" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="LD67" t="n">
+      <c r="LD67" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="LE67" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -65188,8 +65389,11 @@
       <c r="LC68" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="LD68" t="n">
+      <c r="LD68" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="LE68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -66140,7 +66344,10 @@
       <c r="LC69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="LD69" t="n">
+      <c r="LD69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -67092,8 +67299,11 @@
       <c r="LC70" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="LD70" t="n">
+      <c r="LD70" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="LE70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -68044,8 +68254,11 @@
       <c r="LC71" s="1" t="n">
         <v>59.1</v>
       </c>
-      <c r="LD71" t="n">
+      <c r="LD71" s="1" t="n">
         <v>60.9</v>
+      </c>
+      <c r="LE71" t="n">
+        <v>77.3</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -68996,8 +69209,11 @@
       <c r="LC72" s="1" t="n">
         <v>26.54</v>
       </c>
-      <c r="LD72" t="n">
+      <c r="LD72" s="1" t="n">
         <v>26.93</v>
+      </c>
+      <c r="LE72" t="n">
+        <v>20.35</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -69948,8 +70164,11 @@
       <c r="LC73" s="1" t="n">
         <v>15.68</v>
       </c>
-      <c r="LD73" t="n">
+      <c r="LD73" s="1" t="n">
         <v>16.39</v>
+      </c>
+      <c r="LE73" t="n">
+        <v>15.73</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -70900,8 +71119,11 @@
       <c r="LC74" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="LD74" t="n">
+      <c r="LD74" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="LE74" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -71852,8 +72074,11 @@
       <c r="LC75" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="LD75" t="n">
+      <c r="LD75" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="LE75" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -72804,8 +73029,11 @@
       <c r="LC76" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="LD76" t="n">
+      <c r="LD76" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="LE76" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -73756,8 +73984,11 @@
       <c r="LC77" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="LD77" t="n">
+      <c r="LD77" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="LE77" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -74708,8 +74939,11 @@
       <c r="LC78" s="1" t="n">
         <v>2.77</v>
       </c>
-      <c r="LD78" t="n">
+      <c r="LD78" s="1" t="n">
         <v>1.96</v>
+      </c>
+      <c r="LE78" t="n">
+        <v>2.32</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -75660,8 +75894,11 @@
       <c r="LC79" s="1" t="n">
         <v>4.69</v>
       </c>
-      <c r="LD79" t="n">
+      <c r="LD79" s="1" t="n">
         <v>3.21</v>
+      </c>
+      <c r="LE79" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -76612,8 +76849,11 @@
       <c r="LC80" s="1" t="n">
         <v>34.4</v>
       </c>
-      <c r="LD80" t="n">
+      <c r="LD80" s="1" t="n">
         <v>51.1</v>
+      </c>
+      <c r="LE80" t="n">
+        <v>43.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -77564,8 +77804,11 @@
       <c r="LC81" s="1" t="n">
         <v>21.3</v>
       </c>
-      <c r="LD81" t="n">
+      <c r="LD81" s="1" t="n">
         <v>31.1</v>
+      </c>
+      <c r="LE81" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -78516,8 +78759,11 @@
       <c r="LC82" s="1" t="n">
         <v>186.6</v>
       </c>
-      <c r="LD82" t="n">
+      <c r="LD82" s="1" t="n">
         <v>187.4</v>
+      </c>
+      <c r="LE82" t="n">
+        <v>189.9</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -79468,8 +79714,11 @@
       <c r="LC83" s="1" t="n">
         <v>86.7</v>
       </c>
-      <c r="LD83" t="n">
+      <c r="LD83" s="1" t="n">
         <v>85.3</v>
+      </c>
+      <c r="LE83" t="n">
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -80420,8 +80669,11 @@
       <c r="LC84" s="1" t="n">
         <v>26.16</v>
       </c>
-      <c r="LD84" t="n">
+      <c r="LD84" s="1" t="n">
         <v>24.24</v>
+      </c>
+      <c r="LE84" t="n">
+        <v>25.66</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -81372,8 +81624,11 @@
       <c r="LC85" s="1" t="n">
         <v>120.3</v>
       </c>
-      <c r="LD85" t="n">
+      <c r="LD85" s="1" t="n">
         <v>71.3</v>
+      </c>
+      <c r="LE85" t="n">
+        <v>102.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -82324,8 +82579,11 @@
       <c r="LC86" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="LD86" t="n">
+      <c r="LD86" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="LE86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -83276,8 +83534,11 @@
       <c r="LC87" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="LD87" t="n">
+      <c r="LD87" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="LE87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -84228,8 +84489,11 @@
       <c r="LC88" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="LD88" t="n">
+      <c r="LD88" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="LE88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -85180,8 +85444,11 @@
       <c r="LC89" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="LD89" t="n">
+      <c r="LD89" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="LE89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -86132,8 +86399,11 @@
       <c r="LC90" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="LD90" t="n">
+      <c r="LD90" s="1" t="n">
         <v>115</v>
+      </c>
+      <c r="LE90" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -87084,8 +87354,11 @@
       <c r="LC91" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="LD91" t="n">
+      <c r="LD91" s="1" t="n">
         <v>257</v>
+      </c>
+      <c r="LE91" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -88036,8 +88309,11 @@
       <c r="LC92" s="1" t="n">
         <v>257</v>
       </c>
-      <c r="LD92" t="n">
+      <c r="LD92" s="1" t="n">
         <v>299</v>
+      </c>
+      <c r="LE92" t="n">
+        <v>261</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -88988,8 +89264,11 @@
       <c r="LC93" s="1" t="n">
         <v>74.5</v>
       </c>
-      <c r="LD93" t="n">
+      <c r="LD93" s="1" t="n">
         <v>79.3</v>
+      </c>
+      <c r="LE93" t="n">
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -89940,8 +90219,11 @@
       <c r="LC94" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="LD94" t="n">
+      <c r="LD94" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="LE94" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -90892,8 +91174,11 @@
       <c r="LC95" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="LD95" t="n">
+      <c r="LD95" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="LE95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -91844,7 +92129,10 @@
       <c r="LC96" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="LD96" t="n">
+      <c r="LD96" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="LE96" t="n">
         <v>14</v>
       </c>
     </row>
@@ -92796,8 +93084,11 @@
       <c r="LC97" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="LD97" t="n">
+      <c r="LD97" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="LE97" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -93748,8 +94039,11 @@
       <c r="LC98" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="LD98" t="n">
+      <c r="LD98" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="LE98" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -94700,8 +94994,11 @@
       <c r="LC99" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="LD99" t="n">
+      <c r="LD99" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="LE99" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -95652,8 +95949,11 @@
       <c r="LC100" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="LD100" t="n">
+      <c r="LD100" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="LE100" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -96604,8 +96904,11 @@
       <c r="LC101" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="LD101" t="n">
+      <c r="LD101" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="LE101" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -97556,8 +97859,11 @@
       <c r="LC102" s="1" t="n">
         <v>61.5</v>
       </c>
-      <c r="LD102" t="n">
+      <c r="LD102" s="1" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="LE102" t="n">
+        <v>88.2</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Hawthorn_stats.xlsx
+++ b/AFL_ML/Data/Hawthorn_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:LE102"/>
+  <dimension ref="A1:LH102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="KI93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KN97" activeCellId="0" sqref="KN97"/>
@@ -1407,8 +1407,17 @@
       <c r="LD1" s="1" t="n">
         <v>10953</v>
       </c>
-      <c r="LE1" t="n">
+      <c r="LE1" s="1" t="n">
         <v>10973</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>10983</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>10995</v>
+      </c>
+      <c r="LH1" t="n">
+        <v>11004</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2362,7 +2371,16 @@
       <c r="LD2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="LE2" t="n">
+      <c r="LE2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LF2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LG2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LH2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3317,8 +3335,17 @@
       <c r="LD3" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="LE3" t="n">
+      <c r="LE3" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="LF3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="LG3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -4272,7 +4299,16 @@
       <c r="LD4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="LE4" t="n">
+      <c r="LE4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="LF4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5227,7 +5263,16 @@
       <c r="LD5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="LE5" t="n">
+      <c r="LE5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="LG5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="LH5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6182,8 +6227,17 @@
       <c r="LD6" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="LE6" t="n">
+      <c r="LE6" s="1" t="n">
         <v>83</v>
+      </c>
+      <c r="LF6" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="LG6" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="LH6" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -7137,8 +7191,17 @@
       <c r="LD7" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="LE7" t="n">
+      <c r="LE7" s="1" t="n">
         <v>107</v>
+      </c>
+      <c r="LF7" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="LG7" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="LH7" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -8092,8 +8155,17 @@
       <c r="LD8" s="1" t="n">
         <v>-37</v>
       </c>
-      <c r="LE8" t="n">
+      <c r="LE8" s="1" t="n">
         <v>-24</v>
+      </c>
+      <c r="LF8" s="1" t="n">
+        <v>-55</v>
+      </c>
+      <c r="LG8" s="1" t="n">
+        <v>-36</v>
+      </c>
+      <c r="LH8" t="n">
+        <v>-5</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -9047,7 +9119,16 @@
       <c r="LD9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="LE9" t="n">
+      <c r="LE9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10002,8 +10083,17 @@
       <c r="LD10" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="LE10" t="n">
+      <c r="LE10" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="LF10" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="LG10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="LH10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10957,8 +11047,17 @@
       <c r="LD11" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="LE11" t="n">
+      <c r="LE11" s="1" t="n">
         <v>201</v>
+      </c>
+      <c r="LF11" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="LG11" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="LH11" t="n">
+        <v>195</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -11912,8 +12011,17 @@
       <c r="LD12" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="LE12" t="n">
+      <c r="LE12" s="1" t="n">
         <v>138</v>
+      </c>
+      <c r="LF12" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="LG12" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="LH12" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -12867,8 +12975,17 @@
       <c r="LD13" s="1" t="n">
         <v>383</v>
       </c>
-      <c r="LE13" t="n">
+      <c r="LE13" s="1" t="n">
         <v>339</v>
+      </c>
+      <c r="LF13" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="LG13" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="LH13" t="n">
+        <v>342</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -13822,8 +13939,17 @@
       <c r="LD14" s="1" t="n">
         <v>1.23</v>
       </c>
-      <c r="LE14" t="n">
+      <c r="LE14" s="1" t="n">
         <v>1.46</v>
+      </c>
+      <c r="LF14" s="1" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="LG14" s="1" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="LH14" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -14777,8 +14903,17 @@
       <c r="LD15" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="LE15" t="n">
+      <c r="LE15" s="1" t="n">
         <v>95</v>
+      </c>
+      <c r="LF15" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="LG15" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="LH15" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -15732,8 +15867,17 @@
       <c r="LD16" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="LE16" t="n">
+      <c r="LE16" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="LF16" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="LG16" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="LH16" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -16687,8 +16831,17 @@
       <c r="LD17" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="LE17" t="n">
+      <c r="LE17" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="LF17" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="LG17" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="LH17" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -17642,8 +17795,17 @@
       <c r="LD18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="LE18" t="n">
+      <c r="LE18" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="LF18" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="LG18" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="LH18" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -18597,8 +18759,17 @@
       <c r="LD19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="LE19" t="n">
+      <c r="LE19" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="LF19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="LG19" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="LH19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -19552,7 +19723,16 @@
       <c r="LD20" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="LE20" t="n">
+      <c r="LE20" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="LF20" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="LG20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="LH20" t="n">
         <v>11</v>
       </c>
     </row>
@@ -20507,8 +20687,17 @@
       <c r="LD21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="LE21" t="n">
+      <c r="LE21" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="LF21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="LG21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="LH21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -21462,8 +21651,17 @@
       <c r="LD22" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="LE22" t="n">
+      <c r="LE22" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="LF22" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="LG22" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="LH22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -22417,8 +22615,17 @@
       <c r="LD23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="LE23" t="n">
+      <c r="LE23" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="LF23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="LG23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="LH23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -23372,8 +23579,17 @@
       <c r="LD24" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="LE24" t="n">
+      <c r="LE24" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="LF24" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="LG24" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="LH24" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -24327,8 +24543,17 @@
       <c r="LD25" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="LE25" t="n">
+      <c r="LE25" s="1" t="n">
         <v>39.3</v>
+      </c>
+      <c r="LF25" s="1" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="LG25" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="LH25" t="n">
+        <v>64.7</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -25282,8 +25507,17 @@
       <c r="LD26" s="1" t="n">
         <v>47.88</v>
       </c>
-      <c r="LE26" t="n">
+      <c r="LE26" s="1" t="n">
         <v>30.82</v>
+      </c>
+      <c r="LF26" s="1" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="LG26" s="1" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="LH26" t="n">
+        <v>31.09</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -26237,8 +26471,17 @@
       <c r="LD27" s="1" t="n">
         <v>23.94</v>
       </c>
-      <c r="LE27" t="n">
+      <c r="LE27" s="1" t="n">
         <v>12.11</v>
+      </c>
+      <c r="LF27" s="1" t="n">
+        <v>29.46</v>
+      </c>
+      <c r="LG27" s="1" t="n">
+        <v>18.35</v>
+      </c>
+      <c r="LH27" t="n">
+        <v>20.12</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -27192,8 +27435,17 @@
       <c r="LD28" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="LE28" t="n">
+      <c r="LE28" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="LF28" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="LG28" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="LH28" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -28147,8 +28399,17 @@
       <c r="LD29" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="LE29" t="n">
+      <c r="LE29" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="LF29" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="LG29" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="LH29" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -29102,8 +29363,17 @@
       <c r="LD30" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="LE30" t="n">
+      <c r="LE30" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="LF30" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="LG30" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="LH30" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -30057,8 +30327,17 @@
       <c r="LD31" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="LE31" t="n">
+      <c r="LE31" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="LF31" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="LG31" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="LH31" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -31012,8 +31291,17 @@
       <c r="LD32" s="1" t="n">
         <v>2.94</v>
       </c>
-      <c r="LE32" t="n">
+      <c r="LE32" s="1" t="n">
         <v>2.04</v>
+      </c>
+      <c r="LF32" s="1" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="LG32" s="1" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="LH32" t="n">
+        <v>3.12</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -31967,8 +32255,17 @@
       <c r="LD33" s="1" t="n">
         <v>5.88</v>
       </c>
-      <c r="LE33" t="n">
+      <c r="LE33" s="1" t="n">
         <v>5.18</v>
+      </c>
+      <c r="LF33" s="1" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="LG33" s="1" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="LH33" t="n">
+        <v>4.82</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -32922,8 +33219,17 @@
       <c r="LD34" s="1" t="n">
         <v>29.8</v>
       </c>
-      <c r="LE34" t="n">
+      <c r="LE34" s="1" t="n">
         <v>43.9</v>
+      </c>
+      <c r="LF34" s="1" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="LG34" s="1" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="LH34" t="n">
+        <v>28.3</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -33877,8 +34183,17 @@
       <c r="LD35" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="LE35" t="n">
+      <c r="LE35" s="1" t="n">
         <v>19.3</v>
+      </c>
+      <c r="LF35" s="1" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="LG35" s="1" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="LH35" t="n">
+        <v>20.8</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -34832,8 +35147,17 @@
       <c r="LD36" s="1" t="n">
         <v>189.9</v>
       </c>
-      <c r="LE36" t="n">
+      <c r="LE36" s="1" t="n">
         <v>187.8</v>
+      </c>
+      <c r="LF36" s="1" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="LG36" s="1" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="LH36" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -35787,8 +36111,17 @@
       <c r="LD37" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="LE37" t="n">
+      <c r="LE37" s="1" t="n">
         <v>86</v>
+      </c>
+      <c r="LF37" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="LG37" s="1" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="LH37" t="n">
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -36742,8 +37075,17 @@
       <c r="LD38" s="1" t="n">
         <v>24.16</v>
       </c>
-      <c r="LE38" t="n">
+      <c r="LE38" s="1" t="n">
         <v>25.8</v>
+      </c>
+      <c r="LF38" s="1" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="LG38" s="1" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="LH38" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -37697,8 +38039,17 @@
       <c r="LD39" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="LE39" t="n">
+      <c r="LE39" s="1" t="n">
         <v>88.90000000000001</v>
+      </c>
+      <c r="LF39" s="1" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="LG39" s="1" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="LH39" t="n">
+        <v>66.90000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -38652,8 +39003,17 @@
       <c r="LD40" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="LE40" t="n">
+      <c r="LE40" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="LF40" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="LG40" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="LH40" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -39607,8 +39967,17 @@
       <c r="LD41" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="LE41" t="n">
+      <c r="LE41" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="LF41" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="LG41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="LH41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -40562,8 +40931,17 @@
       <c r="LD42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="LE42" t="n">
+      <c r="LE42" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="LF42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="LG42" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="LH42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -41517,8 +41895,17 @@
       <c r="LD43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="LE43" t="n">
+      <c r="LE43" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="LF43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="LG43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="LH43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -42472,8 +42859,17 @@
       <c r="LD44" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="LE44" t="n">
+      <c r="LE44" s="1" t="n">
         <v>122</v>
+      </c>
+      <c r="LF44" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="LG44" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="LH44" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -43427,8 +43823,17 @@
       <c r="LD45" s="1" t="n">
         <v>269</v>
       </c>
-      <c r="LE45" t="n">
+      <c r="LE45" s="1" t="n">
         <v>212</v>
+      </c>
+      <c r="LF45" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="LG45" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="LH45" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -44382,8 +44787,17 @@
       <c r="LD46" s="1" t="n">
         <v>297</v>
       </c>
-      <c r="LE46" t="n">
+      <c r="LE46" s="1" t="n">
         <v>249</v>
+      </c>
+      <c r="LF46" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="LG46" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="LH46" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -45337,8 +45751,17 @@
       <c r="LD47" s="1" t="n">
         <v>77.5</v>
       </c>
-      <c r="LE47" t="n">
+      <c r="LE47" s="1" t="n">
         <v>73.5</v>
+      </c>
+      <c r="LF47" s="1" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="LG47" s="1" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="LH47" t="n">
+        <v>70.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -46292,8 +46715,17 @@
       <c r="LD48" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="LE48" t="n">
+      <c r="LE48" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="LF48" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="LG48" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="LH48" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -47247,8 +47679,17 @@
       <c r="LD49" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="LE49" t="n">
+      <c r="LE49" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="LF49" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="LG49" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="LH49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -48202,8 +48643,17 @@
       <c r="LD50" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="LE50" t="n">
+      <c r="LE50" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="LF50" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="LG50" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="LH50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -49157,8 +49607,17 @@
       <c r="LD51" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="LE51" t="n">
+      <c r="LE51" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="LF51" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="LG51" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="LH51" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -50112,8 +50571,17 @@
       <c r="LD52" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="LE52" t="n">
+      <c r="LE52" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="LF52" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="LG52" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="LH52" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -51067,8 +51535,17 @@
       <c r="LD53" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="LE53" t="n">
+      <c r="LE53" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="LF53" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="LG53" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="LH53" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -52022,8 +52499,17 @@
       <c r="LD54" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="LE54" t="n">
+      <c r="LE54" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="LF54" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="LG54" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="LH54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -52977,8 +53463,17 @@
       <c r="LD55" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="LE55" t="n">
+      <c r="LE55" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="LF55" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="LG55" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="LH55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -53932,8 +54427,17 @@
       <c r="LD56" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="LE56" t="n">
+      <c r="LE56" s="1" t="n">
         <v>81.8</v>
+      </c>
+      <c r="LF56" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="LG56" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="LH56" t="n">
+        <v>63.6</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -54887,8 +55391,17 @@
       <c r="LD57" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="LE57" t="n">
+      <c r="LE57" s="1" t="n">
         <v>205</v>
+      </c>
+      <c r="LF57" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="LG57" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="LH57" t="n">
+        <v>192</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -55842,8 +56355,17 @@
       <c r="LD58" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="LE58" t="n">
+      <c r="LE58" s="1" t="n">
         <v>141</v>
+      </c>
+      <c r="LF58" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="LG58" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="LH58" t="n">
+        <v>171</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -56797,8 +57319,17 @@
       <c r="LD59" s="1" t="n">
         <v>377</v>
       </c>
-      <c r="LE59" t="n">
+      <c r="LE59" s="1" t="n">
         <v>346</v>
+      </c>
+      <c r="LF59" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="LG59" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="LH59" t="n">
+        <v>363</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -57752,8 +58283,17 @@
       <c r="LD60" s="1" t="n">
         <v>1.28</v>
       </c>
-      <c r="LE60" t="n">
+      <c r="LE60" s="1" t="n">
         <v>1.45</v>
+      </c>
+      <c r="LF60" s="1" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="LG60" s="1" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="LH60" t="n">
+        <v>1.12</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -58707,8 +59247,17 @@
       <c r="LD61" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="LE61" t="n">
+      <c r="LE61" s="1" t="n">
         <v>92</v>
+      </c>
+      <c r="LF61" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="LG61" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="LH61" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -59662,8 +60211,17 @@
       <c r="LD62" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="LE62" t="n">
+      <c r="LE62" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="LF62" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="LG62" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="LH62" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -60617,8 +61175,17 @@
       <c r="LD63" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="LE63" t="n">
+      <c r="LE63" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="LF63" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="LG63" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="LH63" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -61572,8 +62139,17 @@
       <c r="LD64" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="LE64" t="n">
+      <c r="LE64" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="LF64" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="LG64" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="LH64" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -62527,8 +63103,17 @@
       <c r="LD65" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="LE65" t="n">
+      <c r="LE65" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="LF65" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="LG65" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="LH65" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -63482,8 +64067,17 @@
       <c r="LD66" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="LE66" t="n">
+      <c r="LE66" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="LF66" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="LG66" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="LH66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -64437,8 +65031,17 @@
       <c r="LD67" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="LE67" t="n">
+      <c r="LE67" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="LF67" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="LG67" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="LH67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -65392,8 +65995,17 @@
       <c r="LD68" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="LE68" t="n">
+      <c r="LE68" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="LF68" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="LG68" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="LH68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -66347,8 +66959,17 @@
       <c r="LD69" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="LE69" t="n">
+      <c r="LE69" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="LF69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="LG69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -67302,7 +67923,16 @@
       <c r="LD70" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="LE70" t="n">
+      <c r="LE70" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="LF70" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="LG70" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="LH70" t="n">
         <v>22</v>
       </c>
     </row>
@@ -68257,8 +68887,17 @@
       <c r="LD71" s="1" t="n">
         <v>60.9</v>
       </c>
-      <c r="LE71" t="n">
+      <c r="LE71" s="1" t="n">
         <v>77.3</v>
+      </c>
+      <c r="LF71" s="1" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="LG71" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="LH71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -69212,8 +69851,17 @@
       <c r="LD72" s="1" t="n">
         <v>26.93</v>
       </c>
-      <c r="LE72" t="n">
+      <c r="LE72" s="1" t="n">
         <v>20.35</v>
+      </c>
+      <c r="LF72" s="1" t="n">
+        <v>25.71</v>
+      </c>
+      <c r="LG72" s="1" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="LH72" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -70167,8 +70815,17 @@
       <c r="LD73" s="1" t="n">
         <v>16.39</v>
       </c>
-      <c r="LE73" t="n">
+      <c r="LE73" s="1" t="n">
         <v>15.73</v>
+      </c>
+      <c r="LF73" s="1" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="LG73" s="1" t="n">
+        <v>17.76</v>
+      </c>
+      <c r="LH73" t="n">
+        <v>16.5</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -71122,8 +71779,17 @@
       <c r="LD74" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="LE74" t="n">
+      <c r="LE74" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="LF74" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="LG74" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="LH74" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -72077,8 +72743,17 @@
       <c r="LD75" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="LE75" t="n">
+      <c r="LE75" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="LF75" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="LG75" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="LH75" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -73032,8 +73707,17 @@
       <c r="LD76" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="LE76" t="n">
+      <c r="LE76" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="LF76" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="LG76" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="LH76" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -73987,8 +74671,17 @@
       <c r="LD77" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="LE77" t="n">
+      <c r="LE77" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="LF77" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="LG77" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="LH77" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -74942,8 +75635,17 @@
       <c r="LD78" s="1" t="n">
         <v>1.96</v>
       </c>
-      <c r="LE78" t="n">
+      <c r="LE78" s="1" t="n">
         <v>2.32</v>
+      </c>
+      <c r="LF78" s="1" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="LG78" s="1" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="LH78" t="n">
+        <v>2.14</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -75897,8 +76599,17 @@
       <c r="LD79" s="1" t="n">
         <v>3.21</v>
       </c>
-      <c r="LE79" t="n">
+      <c r="LE79" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="LF79" s="1" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="LG79" s="1" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="LH79" t="n">
+        <v>4.27</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -76852,8 +77563,17 @@
       <c r="LD80" s="1" t="n">
         <v>51.1</v>
       </c>
-      <c r="LE80" t="n">
+      <c r="LE80" s="1" t="n">
         <v>43.1</v>
+      </c>
+      <c r="LF80" s="1" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="LG80" s="1" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="LH80" t="n">
+        <v>40.4</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -77807,8 +78527,17 @@
       <c r="LD81" s="1" t="n">
         <v>31.1</v>
       </c>
-      <c r="LE81" t="n">
+      <c r="LE81" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="LF81" s="1" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="LG81" s="1" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="LH81" t="n">
+        <v>23.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -78762,8 +79491,17 @@
       <c r="LD82" s="1" t="n">
         <v>187.4</v>
       </c>
-      <c r="LE82" t="n">
+      <c r="LE82" s="1" t="n">
         <v>189.9</v>
+      </c>
+      <c r="LF82" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="LG82" s="1" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="LH82" t="n">
+        <v>188.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -79717,8 +80455,17 @@
       <c r="LD83" s="1" t="n">
         <v>85.3</v>
       </c>
-      <c r="LE83" t="n">
+      <c r="LE83" s="1" t="n">
         <v>87.90000000000001</v>
+      </c>
+      <c r="LF83" s="1" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="LG83" s="1" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="LH83" t="n">
+        <v>88.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -80672,8 +81419,17 @@
       <c r="LD84" s="1" t="n">
         <v>24.24</v>
       </c>
-      <c r="LE84" t="n">
+      <c r="LE84" s="1" t="n">
         <v>25.66</v>
+      </c>
+      <c r="LF84" s="1" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="LG84" s="1" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="LH84" t="n">
+        <v>28.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -81627,8 +82383,17 @@
       <c r="LD85" s="1" t="n">
         <v>71.3</v>
       </c>
-      <c r="LE85" t="n">
+      <c r="LE85" s="1" t="n">
         <v>102.3</v>
+      </c>
+      <c r="LF85" s="1" t="n">
+        <v>117.2</v>
+      </c>
+      <c r="LG85" s="1" t="n">
+        <v>111.1</v>
+      </c>
+      <c r="LH85" t="n">
+        <v>144.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -82582,8 +83347,17 @@
       <c r="LD86" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="LE86" t="n">
+      <c r="LE86" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="LF86" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="LG86" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="LH86" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -83537,7 +84311,16 @@
       <c r="LD87" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="LE87" t="n">
+      <c r="LE87" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="LF87" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="LG87" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="LH87" t="n">
         <v>7</v>
       </c>
     </row>
@@ -84492,8 +85275,17 @@
       <c r="LD88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="LE88" t="n">
+      <c r="LE88" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="LF88" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="LG88" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="LH88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -85447,8 +86239,17 @@
       <c r="LD89" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="LE89" t="n">
+      <c r="LE89" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="LF89" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="LG89" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="LH89" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -86402,8 +87203,17 @@
       <c r="LD90" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="LE90" t="n">
+      <c r="LE90" s="1" t="n">
         <v>116</v>
+      </c>
+      <c r="LF90" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="LG90" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="LH90" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -87357,8 +88167,17 @@
       <c r="LD91" s="1" t="n">
         <v>257</v>
       </c>
-      <c r="LE91" t="n">
+      <c r="LE91" s="1" t="n">
         <v>215</v>
+      </c>
+      <c r="LF91" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="LG91" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="LH91" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -88312,8 +89131,17 @@
       <c r="LD92" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="LE92" t="n">
+      <c r="LE92" s="1" t="n">
         <v>261</v>
+      </c>
+      <c r="LF92" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="LG92" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="LH92" t="n">
+        <v>256</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -89267,8 +90095,17 @@
       <c r="LD93" s="1" t="n">
         <v>79.3</v>
       </c>
-      <c r="LE93" t="n">
+      <c r="LE93" s="1" t="n">
         <v>75.40000000000001</v>
+      </c>
+      <c r="LF93" s="1" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="LG93" s="1" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="LH93" t="n">
+        <v>70.5</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -90222,8 +91059,17 @@
       <c r="LD94" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="LE94" t="n">
+      <c r="LE94" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="LF94" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="LG94" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="LH94" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -91177,8 +92023,17 @@
       <c r="LD95" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="LE95" t="n">
+      <c r="LE95" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="LF95" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="LG95" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="LH95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -92132,8 +92987,17 @@
       <c r="LD96" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="LE96" t="n">
+      <c r="LE96" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="LF96" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="LG96" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="LH96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -93087,8 +93951,17 @@
       <c r="LD97" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="LE97" t="n">
+      <c r="LE97" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="LF97" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="LG97" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="LH97" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -94042,8 +94915,17 @@
       <c r="LD98" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="LE98" t="n">
+      <c r="LE98" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="LF98" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="LG98" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="LH98" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -94997,8 +95879,17 @@
       <c r="LD99" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="LE99" t="n">
+      <c r="LE99" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="LF99" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="LG99" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="LH99" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -95952,8 +96843,17 @@
       <c r="LD100" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="LE100" t="n">
+      <c r="LE100" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="LF100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG100" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="LH100" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -96907,8 +97807,17 @@
       <c r="LD101" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="LE101" t="n">
+      <c r="LE101" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="LF101" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="LG101" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="LH101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -97862,8 +98771,17 @@
       <c r="LD102" s="1" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="LE102" t="n">
+      <c r="LE102" s="1" t="n">
         <v>88.2</v>
+      </c>
+      <c r="LF102" s="1" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="LG102" s="1" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="LH102" t="n">
+        <v>81.8</v>
       </c>
     </row>
   </sheetData>
